--- a/data/final_data/unrolled_deceases_timeseries.xlsx
+++ b/data/final_data/unrolled_deceases_timeseries.xlsx
@@ -993,13 +993,13 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>1396.734942764489</v>
+        <v>1728.348129573486</v>
       </c>
       <c r="E23">
-        <v>1233.045232855875</v>
+        <v>1600.818346699842</v>
       </c>
       <c r="F23">
-        <v>1560.424652673104</v>
+        <v>1855.877912447131</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1013,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>1702.471177596528</v>
+        <v>1921.54555776659</v>
       </c>
       <c r="E24">
-        <v>1536.894150761139</v>
+        <v>1756.339303386252</v>
       </c>
       <c r="F24">
-        <v>1868.048204431917</v>
+        <v>2086.751812146927</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1033,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>1853.719080806015</v>
+        <v>1776.278110493245</v>
       </c>
       <c r="E25">
-        <v>1671.338531624352</v>
+        <v>1540.997422597194</v>
       </c>
       <c r="F25">
-        <v>2036.099629987679</v>
+        <v>2011.558798389295</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>1647.680919419195</v>
+        <v>1830.179025915244</v>
       </c>
       <c r="E26">
-        <v>1342.640510221026</v>
+        <v>1568.277121588323</v>
       </c>
       <c r="F26">
-        <v>1952.721328617364</v>
+        <v>2092.080930242165</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1073,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>1926.472639462714</v>
+        <v>2214.030711852054</v>
       </c>
       <c r="E27">
-        <v>1603.127618227612</v>
+        <v>1935.069696846231</v>
       </c>
       <c r="F27">
-        <v>2249.817660697815</v>
+        <v>2492.991726857877</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1093,13 +1093,13 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>1818.019599315966</v>
+        <v>2164.042629646181</v>
       </c>
       <c r="E28">
-        <v>1419.35326120043</v>
+        <v>1812.328638115154</v>
       </c>
       <c r="F28">
-        <v>2216.685937431502</v>
+        <v>2515.756621177208</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1113,13 +1113,13 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>1831.398806726226</v>
+        <v>2298.339667067243</v>
       </c>
       <c r="E29">
-        <v>1374.913564232002</v>
+        <v>1895.227959961782</v>
       </c>
       <c r="F29">
-        <v>2287.884049220449</v>
+        <v>2701.451374172705</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>1935.027389282495</v>
+        <v>2253.830344270328</v>
       </c>
       <c r="E30">
-        <v>1441.18504162832</v>
+        <v>1789.823448007028</v>
       </c>
       <c r="F30">
-        <v>2428.86973693667</v>
+        <v>2717.837240533628</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1153,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>1834.98879738579</v>
+        <v>2278.748430649355</v>
       </c>
       <c r="E31">
-        <v>1275.499425831047</v>
+        <v>1772.186295226407</v>
       </c>
       <c r="F31">
-        <v>2394.478168940534</v>
+        <v>2785.310566072303</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1173,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>1912.299787139636</v>
+        <v>2639.314057444763</v>
       </c>
       <c r="E32">
-        <v>1313.289618784992</v>
+        <v>2103.666094498156</v>
       </c>
       <c r="F32">
-        <v>2511.309955494279</v>
+        <v>3174.962020391371</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1613,13 +1613,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>1893.311437433711</v>
+        <v>2162.973798025148</v>
       </c>
       <c r="E54">
-        <v>1766.469380856843</v>
+        <v>2010.942540169917</v>
       </c>
       <c r="F54">
-        <v>2020.153494010579</v>
+        <v>2315.005055880378</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1633,13 +1633,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>1942.913242306777</v>
+        <v>2339.898379798753</v>
       </c>
       <c r="E55">
-        <v>1816.08528413173</v>
+        <v>2161.030758821546</v>
       </c>
       <c r="F55">
-        <v>2069.741200481825</v>
+        <v>2518.766000775959</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1653,13 +1653,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>2084.638851862158</v>
+        <v>2485.91095234054</v>
       </c>
       <c r="E56">
-        <v>1953.647590234271</v>
+        <v>2270.056602747373</v>
       </c>
       <c r="F56">
-        <v>2215.630113490045</v>
+        <v>2701.765301933706</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1673,13 +1673,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>2038.163074319755</v>
+        <v>2671.197652871331</v>
       </c>
       <c r="E57">
-        <v>1849.259115072183</v>
+        <v>2428.903565314386</v>
       </c>
       <c r="F57">
-        <v>2227.067033567327</v>
+        <v>2913.491740428276</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1693,13 +1693,13 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>2022.976655990092</v>
+        <v>2866.590239773503</v>
       </c>
       <c r="E58">
-        <v>1812.902898207934</v>
+        <v>2599.495203850848</v>
       </c>
       <c r="F58">
-        <v>2233.05041377225</v>
+        <v>3133.685275696158</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1713,13 +1713,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>2061.333371829664</v>
+        <v>3083.557015009892</v>
       </c>
       <c r="E59">
-        <v>1825.573464527947</v>
+        <v>2795.861793563105</v>
       </c>
       <c r="F59">
-        <v>2297.093279131379</v>
+        <v>3371.252236456679</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1733,13 +1733,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>2049.091074565836</v>
+        <v>3316.471068282102</v>
       </c>
       <c r="E60">
-        <v>1781.606787358165</v>
+        <v>3011.119123177936</v>
       </c>
       <c r="F60">
-        <v>2316.575361773507</v>
+        <v>3621.823013386268</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1753,13 +1753,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>2024.959133102822</v>
+        <v>3566.433993450794</v>
       </c>
       <c r="E61">
-        <v>1725.672398539607</v>
+        <v>3246.627043371498</v>
       </c>
       <c r="F61">
-        <v>2324.245867666037</v>
+        <v>3886.24094353009</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1773,13 +1773,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>2020.516683413431</v>
+        <v>3831.466067338196</v>
       </c>
       <c r="E62">
-        <v>1698.02839997638</v>
+        <v>3500.128856384001</v>
       </c>
       <c r="F62">
-        <v>2343.004966850482</v>
+        <v>4162.803278292391</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1793,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>2004.185808255114</v>
+        <v>4110.572616001107</v>
       </c>
       <c r="E63">
-        <v>1655.104858570072</v>
+        <v>3770.532108406276</v>
       </c>
       <c r="F63">
-        <v>2353.266757940156</v>
+        <v>4450.613123595939</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2233,13 +2233,7 @@
         <v>7</v>
       </c>
       <c r="D85">
-        <v>1965.537627875778</v>
-      </c>
-      <c r="E85">
-        <v>1843.332045716579</v>
-      </c>
-      <c r="F85">
-        <v>2087.743210034976</v>
+        <v>19536.42757995087</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2253,13 +2247,13 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>1982.681763778146</v>
+        <v>2150.643039340763</v>
       </c>
       <c r="E86">
-        <v>1830.008217903987</v>
+        <v>1226.421687197299</v>
       </c>
       <c r="F86">
-        <v>2135.355309652305</v>
+        <v>3074.864391484226</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2273,13 +2267,7 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>1968.56059792632</v>
-      </c>
-      <c r="E87">
-        <v>1800.609200083297</v>
-      </c>
-      <c r="F87">
-        <v>2136.511995769344</v>
+        <v>21342.25380984863</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2293,13 +2281,13 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>1980.191824262272</v>
+        <v>2326.080731863627</v>
       </c>
       <c r="E88">
-        <v>1790.70549780112</v>
+        <v>148.5126496245603</v>
       </c>
       <c r="F88">
-        <v>2169.678150723424</v>
+        <v>4503.648814102694</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2313,13 +2301,7 @@
         <v>7</v>
       </c>
       <c r="D89">
-        <v>1970.611494458225</v>
-      </c>
-      <c r="E89">
-        <v>1767.502591712578</v>
-      </c>
-      <c r="F89">
-        <v>2173.720397203872</v>
+        <v>23114.84943265772</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2333,13 +2315,13 @@
         <v>7</v>
       </c>
       <c r="D90">
-        <v>1978.502555684556</v>
+        <v>2534.194089552388</v>
       </c>
       <c r="E90">
-        <v>1758.260294905966</v>
+        <v>-1155.822766680332</v>
       </c>
       <c r="F90">
-        <v>2198.744816463147</v>
+        <v>6224.210945785107</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2353,13 +2335,7 @@
         <v>7</v>
       </c>
       <c r="D91">
-        <v>1972.002899769641</v>
-      </c>
-      <c r="E91">
-        <v>1739.257141177734</v>
-      </c>
-      <c r="F91">
-        <v>2204.748658361549</v>
+        <v>24855.31537404534</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2373,13 +2349,13 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <v>1977.356492372791</v>
+        <v>2773.899959442246</v>
       </c>
       <c r="E92">
-        <v>1730.111555872299</v>
+        <v>-2629.649618228686</v>
       </c>
       <c r="F92">
-        <v>2224.601428873283</v>
+        <v>8177.449537113178</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2393,13 +2369,7 @@
         <v>7</v>
       </c>
       <c r="D93">
-        <v>1972.946881443276</v>
-      </c>
-      <c r="E93">
-        <v>1714.077907804685</v>
-      </c>
-      <c r="F93">
-        <v>2231.815855081866</v>
+        <v>26564.71729928184</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2413,13 +2383,13 @@
         <v>7</v>
       </c>
       <c r="D94">
-        <v>1976.578959935439</v>
+        <v>3044.149883513766</v>
       </c>
       <c r="E94">
-        <v>1704.960622642315</v>
+        <v>-4235.66427998073</v>
       </c>
       <c r="F94">
-        <v>2248.197297228562</v>
+        <v>10323.96404700826</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2853,13 +2823,13 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>1110.687690970563</v>
+        <v>1235.39601553023</v>
       </c>
       <c r="E116">
-        <v>999.8085357949835</v>
+        <v>1122.194456698403</v>
       </c>
       <c r="F116">
-        <v>1221.566846146142</v>
+        <v>1348.597574362057</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2873,13 +2843,13 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <v>1184.249711463182</v>
+        <v>1416.200287078104</v>
       </c>
       <c r="E117">
-        <v>1072.920212033</v>
+        <v>1279.178667481919</v>
       </c>
       <c r="F117">
-        <v>1295.579210893364</v>
+        <v>1553.22190667429</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2893,13 +2863,13 @@
         <v>8</v>
       </c>
       <c r="D118">
-        <v>1266.561934438939</v>
+        <v>1443.709904799191</v>
       </c>
       <c r="E118">
-        <v>1155.157340102797</v>
+        <v>1244.923226279969</v>
       </c>
       <c r="F118">
-        <v>1377.966528775081</v>
+        <v>1642.496583318413</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2913,13 +2883,13 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>1204.239512414589</v>
+        <v>1361.994760091937</v>
       </c>
       <c r="E119">
-        <v>1068.868566630641</v>
+        <v>1090.324645591051</v>
       </c>
       <c r="F119">
-        <v>1339.610458198537</v>
+        <v>1633.664874592823</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2933,13 +2903,13 @@
         <v>8</v>
       </c>
       <c r="D120">
-        <v>1304.028898495946</v>
+        <v>1494.947871006993</v>
       </c>
       <c r="E120">
-        <v>1167.740759852873</v>
+        <v>1206.272449107585</v>
       </c>
       <c r="F120">
-        <v>1440.317037139018</v>
+        <v>1783.623292906401</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2953,13 +2923,13 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>1283.44647225436</v>
+        <v>1441.43451349511</v>
       </c>
       <c r="E121">
-        <v>1129.423248452842</v>
+        <v>1104.192982557763</v>
       </c>
       <c r="F121">
-        <v>1437.469696055877</v>
+        <v>1778.676044432456</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2973,13 +2943,13 @@
         <v>8</v>
       </c>
       <c r="D122">
-        <v>1323.958886005983</v>
+        <v>1481.269525313272</v>
       </c>
       <c r="E122">
-        <v>1160.759844500468</v>
+        <v>1118.296497145467</v>
       </c>
       <c r="F122">
-        <v>1487.157927511499</v>
+        <v>1844.242553481077</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2993,13 +2963,13 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <v>1349.672296005258</v>
+        <v>1519.709623244461</v>
       </c>
       <c r="E123">
-        <v>1173.842623856776</v>
+        <v>1132.292645476286</v>
       </c>
       <c r="F123">
-        <v>1525.501968153741</v>
+        <v>1907.126601012636</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3013,13 +2983,13 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>1362.239816935915</v>
+        <v>1506.281236413256</v>
       </c>
       <c r="E124">
-        <v>1170.096194868131</v>
+        <v>1088.778199752569</v>
       </c>
       <c r="F124">
-        <v>1554.383439003699</v>
+        <v>1923.784273073942</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3033,13 +3003,13 @@
         <v>8</v>
       </c>
       <c r="D125">
-        <v>1395.871561375815</v>
+        <v>1553.874646709018</v>
       </c>
       <c r="E125">
-        <v>1189.747392859153</v>
+        <v>1116.569022540551</v>
       </c>
       <c r="F125">
-        <v>1601.995729892478</v>
+        <v>1991.180270877485</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3473,13 +3443,13 @@
         <v>9</v>
       </c>
       <c r="D147">
-        <v>1404.756831084152</v>
+        <v>1379.032120810075</v>
       </c>
       <c r="E147">
-        <v>1312.73610391773</v>
+        <v>1285.928677855131</v>
       </c>
       <c r="F147">
-        <v>1496.777558250574</v>
+        <v>1472.135563765019</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3493,13 +3463,13 @@
         <v>9</v>
       </c>
       <c r="D148">
-        <v>1424.557206896539</v>
+        <v>1419.315411017809</v>
       </c>
       <c r="E148">
-        <v>1329.320132438759</v>
+        <v>1326.074825323178</v>
       </c>
       <c r="F148">
-        <v>1519.794281354318</v>
+        <v>1512.55599671244</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3513,13 +3483,13 @@
         <v>9</v>
       </c>
       <c r="D149">
-        <v>1456.77681997085</v>
+        <v>1434.714757144523</v>
       </c>
       <c r="E149">
-        <v>1360.160792379594</v>
+        <v>1338.521329392691</v>
       </c>
       <c r="F149">
-        <v>1553.392847562107</v>
+        <v>1530.908184896356</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3533,13 +3503,13 @@
         <v>9</v>
       </c>
       <c r="D150">
-        <v>1474.611206201997</v>
+        <v>1450.114107670549</v>
       </c>
       <c r="E150">
-        <v>1359.977226036292</v>
+        <v>1351.056183629188</v>
       </c>
       <c r="F150">
-        <v>1589.245186367701</v>
+        <v>1549.172031711911</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3553,13 +3523,13 @@
         <v>9</v>
       </c>
       <c r="D151">
-        <v>1497.520134861002</v>
+        <v>1465.513462595605</v>
       </c>
       <c r="E151">
-        <v>1369.695580778344</v>
+        <v>1363.671933010942</v>
       </c>
       <c r="F151">
-        <v>1625.34468894366</v>
+        <v>1567.354992180268</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3573,13 +3543,13 @@
         <v>9</v>
       </c>
       <c r="D152">
-        <v>1504.891434983623</v>
+        <v>1480.912821919406</v>
       </c>
       <c r="E152">
-        <v>1365.218788945036</v>
+        <v>1376.362116277696</v>
       </c>
       <c r="F152">
-        <v>1644.56408102221</v>
+        <v>1585.463527561115</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3593,13 +3563,13 @@
         <v>9</v>
       </c>
       <c r="D153">
-        <v>1525.103387481377</v>
+        <v>1496.31218564167</v>
       </c>
       <c r="E153">
-        <v>1373.83627704888</v>
+        <v>1389.121089785984</v>
       </c>
       <c r="F153">
-        <v>1676.370497913874</v>
+        <v>1603.503281497356</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3613,13 +3583,13 @@
         <v>9</v>
       </c>
       <c r="D154">
-        <v>1548.61854460065</v>
+        <v>1511.711553762114</v>
       </c>
       <c r="E154">
-        <v>1383.921065412216</v>
+        <v>1401.943889584155</v>
       </c>
       <c r="F154">
-        <v>1713.316023789085</v>
+        <v>1621.479217940074</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3633,13 +3603,13 @@
         <v>9</v>
       </c>
       <c r="D155">
-        <v>1562.092488637798</v>
+        <v>1527.110926280456</v>
       </c>
       <c r="E155">
-        <v>1380.936469052682</v>
+        <v>1414.826122034929</v>
       </c>
       <c r="F155">
-        <v>1743.248508222915</v>
+        <v>1639.395730525983</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3653,13 +3623,13 @@
         <v>9</v>
       </c>
       <c r="D156">
-        <v>1578.164907277303</v>
+        <v>1542.510303196413</v>
       </c>
       <c r="E156">
-        <v>1382.124388403052</v>
+        <v>1427.763876079466</v>
       </c>
       <c r="F156">
-        <v>1774.205426151553</v>
+        <v>1657.25673031336</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4713,13 +4683,13 @@
         <v>11</v>
       </c>
       <c r="D209">
-        <v>12318.68375506465</v>
+        <v>12530.17701161061</v>
       </c>
       <c r="E209">
-        <v>11829.33631774155</v>
+        <v>11967.61569701396</v>
       </c>
       <c r="F209">
-        <v>12808.03119238775</v>
+        <v>13092.73832620726</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4733,13 +4703,13 @@
         <v>11</v>
       </c>
       <c r="D210">
-        <v>12730.90570801249</v>
+        <v>12774.87090328565</v>
       </c>
       <c r="E210">
-        <v>12162.85477636443</v>
+        <v>12061.30297520944</v>
       </c>
       <c r="F210">
-        <v>13298.95663966054</v>
+        <v>13488.43883136186</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4753,13 +4723,13 @@
         <v>11</v>
       </c>
       <c r="D211">
-        <v>12899.50844149854</v>
+        <v>13251.58795009498</v>
       </c>
       <c r="E211">
-        <v>12157.98920520848</v>
+        <v>12441.05044777747</v>
       </c>
       <c r="F211">
-        <v>13641.0276777886</v>
+        <v>14062.12545241249</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4773,13 +4743,13 @@
         <v>11</v>
       </c>
       <c r="D212">
-        <v>13193.7349990422</v>
+        <v>13700.73203469807</v>
       </c>
       <c r="E212">
-        <v>12330.17783394462</v>
+        <v>12693.37312928369</v>
       </c>
       <c r="F212">
-        <v>14057.29216413977</v>
+        <v>14708.09094011245</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4793,13 +4763,13 @@
         <v>11</v>
       </c>
       <c r="D213">
-        <v>14023.33627074459</v>
+        <v>14645.00403927112</v>
       </c>
       <c r="E213">
-        <v>13050.69911793116</v>
+        <v>13443.23297855523</v>
       </c>
       <c r="F213">
-        <v>14995.97342355802</v>
+        <v>15846.775099987</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4813,13 +4783,13 @@
         <v>11</v>
       </c>
       <c r="D214">
-        <v>13778.5174895239</v>
+        <v>14555.93162069466</v>
       </c>
       <c r="E214">
-        <v>12528.71699619124</v>
+        <v>13016.38054592627</v>
       </c>
       <c r="F214">
-        <v>15028.31798285656</v>
+        <v>16095.48269546305</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4833,13 +4803,13 @@
         <v>11</v>
       </c>
       <c r="D215">
-        <v>13917.42462905515</v>
+        <v>14982.92673152511</v>
       </c>
       <c r="E215">
-        <v>12500.00610977623</v>
+        <v>13225.31106937015</v>
       </c>
       <c r="F215">
-        <v>15334.84314833407</v>
+        <v>16740.54239368006</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4853,13 +4823,13 @@
         <v>11</v>
       </c>
       <c r="D216">
-        <v>14502.31709186627</v>
+        <v>15772.49712542862</v>
       </c>
       <c r="E216">
-        <v>12936.02920154634</v>
+        <v>13818.19925542158</v>
       </c>
       <c r="F216">
-        <v>16068.60498218621</v>
+        <v>17726.79499543565</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4873,13 +4843,13 @@
         <v>11</v>
       </c>
       <c r="D217">
-        <v>14747.99204601229</v>
+        <v>16173.90769098463</v>
       </c>
       <c r="E217">
-        <v>12982.51251865919</v>
+        <v>13916.50482218516</v>
       </c>
       <c r="F217">
-        <v>16513.47157336539</v>
+        <v>18431.31055978409</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4893,13 +4863,13 @@
         <v>11</v>
       </c>
       <c r="D218">
-        <v>15022.05198114452</v>
+        <v>16879.97234464374</v>
       </c>
       <c r="E218">
-        <v>13056.46434569246</v>
+        <v>14351.99306117988</v>
       </c>
       <c r="F218">
-        <v>16987.63961659658</v>
+        <v>19407.9516281076</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5333,13 +5303,13 @@
         <v>12</v>
       </c>
       <c r="D240">
-        <v>1263.167299124587</v>
+        <v>1265.63400812691</v>
       </c>
       <c r="E240">
-        <v>1171.592756734083</v>
+        <v>1171.501509253697</v>
       </c>
       <c r="F240">
-        <v>1354.741841515091</v>
+        <v>1359.766507000123</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5353,13 +5323,13 @@
         <v>12</v>
       </c>
       <c r="D241">
-        <v>1285.007901173454</v>
+        <v>1275.467576096748</v>
       </c>
       <c r="E241">
-        <v>1180.230143219427</v>
+        <v>1165.999508213389</v>
       </c>
       <c r="F241">
-        <v>1389.785659127481</v>
+        <v>1384.935643980106</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5373,13 +5343,13 @@
         <v>12</v>
       </c>
       <c r="D242">
-        <v>1348.449231633999</v>
+        <v>1381.628654516115</v>
       </c>
       <c r="E242">
-        <v>1241.94261958106</v>
+        <v>1268.861966729792</v>
       </c>
       <c r="F242">
-        <v>1454.955843686939</v>
+        <v>1494.395342302437</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5393,13 +5363,13 @@
         <v>12</v>
       </c>
       <c r="D243">
-        <v>1269.13059832692</v>
+        <v>1297.242915054472</v>
       </c>
       <c r="E243">
-        <v>1152.424695031181</v>
+        <v>1151.772800258997</v>
       </c>
       <c r="F243">
-        <v>1385.83650162266</v>
+        <v>1442.713029849948</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5413,13 +5383,13 @@
         <v>12</v>
       </c>
       <c r="D244">
-        <v>1371.270796552018</v>
+        <v>1347.383348825813</v>
       </c>
       <c r="E244">
-        <v>1254.224285251354</v>
+        <v>1194.864065361418</v>
       </c>
       <c r="F244">
-        <v>1488.317307852683</v>
+        <v>1499.902632290209</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5433,13 +5403,13 @@
         <v>12</v>
       </c>
       <c r="D245">
-        <v>1392.514682470134</v>
+        <v>1398.658778701525</v>
       </c>
       <c r="E245">
-        <v>1266.448783056418</v>
+        <v>1238.596104966997</v>
       </c>
       <c r="F245">
-        <v>1518.580581883849</v>
+        <v>1558.721452436053</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5453,13 +5423,13 @@
         <v>12</v>
       </c>
       <c r="D246">
-        <v>1345.967039922211</v>
+        <v>1342.961601072564</v>
       </c>
       <c r="E246">
-        <v>1202.417594791347</v>
+        <v>1161.912880889171</v>
       </c>
       <c r="F246">
-        <v>1489.516485053075</v>
+        <v>1524.010321255956</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5473,13 +5443,13 @@
         <v>12</v>
       </c>
       <c r="D247">
-        <v>1430.631260194152</v>
+        <v>1404.333302112038</v>
       </c>
       <c r="E247">
-        <v>1284.011193676884</v>
+        <v>1217.707588101852</v>
       </c>
       <c r="F247">
-        <v>1577.25132671142</v>
+        <v>1590.959016122224</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5493,13 +5463,13 @@
         <v>12</v>
       </c>
       <c r="D248">
-        <v>1402.225918339605</v>
+        <v>1420.468747575101</v>
       </c>
       <c r="E248">
-        <v>1245.740788330073</v>
+        <v>1223.482684999763</v>
       </c>
       <c r="F248">
-        <v>1558.711048349138</v>
+        <v>1617.454810150438</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5513,13 +5483,13 @@
         <v>12</v>
       </c>
       <c r="D249">
-        <v>1409.172178532304</v>
+        <v>1394.5070820825</v>
       </c>
       <c r="E249">
-        <v>1246.301393073513</v>
+        <v>1182.975633616226</v>
       </c>
       <c r="F249">
-        <v>1572.042963991095</v>
+        <v>1606.038530548774</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5953,13 +5923,13 @@
         <v>13</v>
       </c>
       <c r="D271">
-        <v>2235.123625590808</v>
+        <v>2321.94736651506</v>
       </c>
       <c r="E271">
-        <v>2022.932628045391</v>
+        <v>2121.897002035904</v>
       </c>
       <c r="F271">
-        <v>2447.314623136225</v>
+        <v>2521.997730994216</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5973,13 +5943,13 @@
         <v>13</v>
       </c>
       <c r="D272">
-        <v>2267.241664530311</v>
+        <v>2592.323882451783</v>
       </c>
       <c r="E272">
-        <v>2009.685324399312</v>
+        <v>2318.478850950311</v>
       </c>
       <c r="F272">
-        <v>2524.798004661309</v>
+        <v>2866.168913953256</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5993,13 +5963,13 @@
         <v>13</v>
       </c>
       <c r="D273">
-        <v>2312.436069652808</v>
+        <v>2688.519766969632</v>
       </c>
       <c r="E273">
-        <v>2017.730569197455</v>
+        <v>2286.418383365572</v>
       </c>
       <c r="F273">
-        <v>2607.141570108161</v>
+        <v>3090.621150573693</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6013,13 +5983,13 @@
         <v>13</v>
       </c>
       <c r="D274">
-        <v>2367.421898016783</v>
+        <v>2765.963024202534</v>
       </c>
       <c r="E274">
-        <v>2037.670570566754</v>
+        <v>2268.31705628016</v>
       </c>
       <c r="F274">
-        <v>2697.173225466811</v>
+        <v>3263.608992124908</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6033,13 +6003,13 @@
         <v>13</v>
       </c>
       <c r="D275">
-        <v>2429.42909093714</v>
+        <v>3008.873662419421</v>
       </c>
       <c r="E275">
-        <v>2063.423201340209</v>
+        <v>2427.618185943163</v>
       </c>
       <c r="F275">
-        <v>2795.43498053407</v>
+        <v>3590.129138895679</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6053,13 +6023,13 @@
         <v>13</v>
       </c>
       <c r="D276">
-        <v>2496.139901296478</v>
+        <v>3088.920592741278</v>
       </c>
       <c r="E276">
-        <v>2090.602710717401</v>
+        <v>2397.384569840728</v>
       </c>
       <c r="F276">
-        <v>2901.677091875556</v>
+        <v>3780.456615641828</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6073,13 +6043,13 @@
         <v>13</v>
       </c>
       <c r="D277">
-        <v>2565.632227489152</v>
+        <v>3214.2323802198</v>
       </c>
       <c r="E277">
-        <v>2115.994050437924</v>
+        <v>2436.123785410119</v>
       </c>
       <c r="F277">
-        <v>3015.270404540379</v>
+        <v>3992.340975029481</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6093,13 +6063,13 @@
         <v>13</v>
       </c>
       <c r="D278">
-        <v>2636.328501458119</v>
+        <v>3424.173994438207</v>
       </c>
       <c r="E278">
-        <v>2137.312991231514</v>
+        <v>2561.343952980566</v>
       </c>
       <c r="F278">
-        <v>3135.344011684725</v>
+        <v>4287.004035895848</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6113,13 +6083,13 @@
         <v>13</v>
       </c>
       <c r="D279">
-        <v>2706.949767449219</v>
+        <v>3505.796812817173</v>
       </c>
       <c r="E279">
-        <v>2153.035553092063</v>
+        <v>2548.290096812888</v>
       </c>
       <c r="F279">
-        <v>3260.863981806375</v>
+        <v>4463.303528821458</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6133,13 +6103,13 @@
         <v>13</v>
       </c>
       <c r="D280">
-        <v>2776.474584777605</v>
+        <v>3659.16393779205</v>
       </c>
       <c r="E280">
-        <v>2162.241842786364</v>
+        <v>2625.375736793797</v>
       </c>
       <c r="F280">
-        <v>3390.707326768846</v>
+        <v>4692.952138790303</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6573,13 +6543,13 @@
         <v>14</v>
       </c>
       <c r="D302">
-        <v>1887.298374207846</v>
+        <v>1982.083400220302</v>
       </c>
       <c r="E302">
-        <v>1752.197150694558</v>
+        <v>1831.205856534727</v>
       </c>
       <c r="F302">
-        <v>2022.399597721133</v>
+        <v>2132.960943905877</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6593,13 +6563,13 @@
         <v>14</v>
       </c>
       <c r="D303">
-        <v>1857.93764081929</v>
+        <v>2032.347525613197</v>
       </c>
       <c r="E303">
-        <v>1690.278050091491</v>
+        <v>1838.503486144734</v>
       </c>
       <c r="F303">
-        <v>2025.597231547089</v>
+        <v>2226.19156508166</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6613,13 +6583,13 @@
         <v>14</v>
       </c>
       <c r="D304">
-        <v>1992.562535944113</v>
+        <v>2198.108338241946</v>
       </c>
       <c r="E304">
-        <v>1803.337213594637</v>
+        <v>1976.115858422597</v>
       </c>
       <c r="F304">
-        <v>2181.787858293589</v>
+        <v>2420.100818061294</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6633,13 +6603,13 @@
         <v>14</v>
       </c>
       <c r="D305">
-        <v>2199.648037834173</v>
+        <v>2345.129019995795</v>
       </c>
       <c r="E305">
-        <v>1972.372986486323</v>
+        <v>2062.549311319076</v>
       </c>
       <c r="F305">
-        <v>2426.923089182023</v>
+        <v>2627.708728672514</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6653,13 +6623,13 @@
         <v>14</v>
       </c>
       <c r="D306">
-        <v>2194.994508318007</v>
+        <v>2477.424939499498</v>
       </c>
       <c r="E306">
-        <v>1889.344844565835</v>
+        <v>2116.368120742</v>
       </c>
       <c r="F306">
-        <v>2500.64417207018</v>
+        <v>2838.481758256995</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6673,13 +6643,13 @@
         <v>14</v>
       </c>
       <c r="D307">
-        <v>2156.602481094686</v>
+        <v>2598.164398431891</v>
       </c>
       <c r="E307">
-        <v>1793.026876643587</v>
+        <v>2152.343612814986</v>
       </c>
       <c r="F307">
-        <v>2520.178085545786</v>
+        <v>3043.985184048796</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6693,13 +6663,13 @@
         <v>14</v>
       </c>
       <c r="D308">
-        <v>2296.847879223462</v>
+        <v>2709.846931466137</v>
       </c>
       <c r="E308">
-        <v>1893.582224563713</v>
+        <v>2179.081634740763</v>
       </c>
       <c r="F308">
-        <v>2700.113533883211</v>
+        <v>3240.612228191511</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6713,13 +6683,13 @@
         <v>14</v>
       </c>
       <c r="D309">
-        <v>2456.389378471533</v>
+        <v>2814.444087553448</v>
       </c>
       <c r="E309">
-        <v>1996.328667023614</v>
+        <v>2201.548222694988</v>
       </c>
       <c r="F309">
-        <v>2916.450089919453</v>
+        <v>3427.339952411909</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6733,13 +6703,13 @@
         <v>14</v>
       </c>
       <c r="D310">
-        <v>2452.454219732033</v>
+        <v>2913.510587032444</v>
       </c>
       <c r="E310">
-        <v>1914.378688114698</v>
+        <v>2222.721518891206</v>
       </c>
       <c r="F310">
-        <v>2990.529751349368</v>
+        <v>3604.299655173683</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6753,13 +6723,13 @@
         <v>14</v>
       </c>
       <c r="D311">
-        <v>2430.772797271392</v>
+        <v>3008.272087940916</v>
       </c>
       <c r="E311">
-        <v>1827.154498910193</v>
+        <v>2244.434327275715</v>
       </c>
       <c r="F311">
-        <v>3034.391095632591</v>
+        <v>3772.109848606118</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7193,13 +7163,13 @@
         <v>15</v>
       </c>
       <c r="D333">
-        <v>2829.846044412305</v>
+        <v>2754.675921895158</v>
       </c>
       <c r="E333">
-        <v>2605.554891395756</v>
+        <v>2563.522451034312</v>
       </c>
       <c r="F333">
-        <v>3054.137197428854</v>
+        <v>2945.829392756003</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7213,13 +7183,13 @@
         <v>15</v>
       </c>
       <c r="D334">
-        <v>2846.078315712575</v>
+        <v>2944.477332656216</v>
       </c>
       <c r="E334">
-        <v>2621.568071747215</v>
+        <v>2742.13232317043</v>
       </c>
       <c r="F334">
-        <v>3070.588559677935</v>
+        <v>3146.822342142002</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7233,13 +7203,13 @@
         <v>15</v>
       </c>
       <c r="D335">
-        <v>2976.649594129867</v>
+        <v>2968.551106786491</v>
       </c>
       <c r="E335">
-        <v>2752.212723601907</v>
+        <v>2766.621711153755</v>
       </c>
       <c r="F335">
-        <v>3201.086464657827</v>
+        <v>3170.480502419227</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7253,13 +7223,13 @@
         <v>15</v>
       </c>
       <c r="D336">
-        <v>3008.487213147468</v>
+        <v>3060.860959639265</v>
       </c>
       <c r="E336">
-        <v>2776.98817493403</v>
+        <v>2846.096691374567</v>
       </c>
       <c r="F336">
-        <v>3239.986251360906</v>
+        <v>3275.625227903963</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7273,13 +7243,13 @@
         <v>15</v>
       </c>
       <c r="D337">
-        <v>3217.571503383766</v>
+        <v>3133.887751130998</v>
       </c>
       <c r="E337">
-        <v>2981.262625210115</v>
+        <v>2896.571335073109</v>
       </c>
       <c r="F337">
-        <v>3453.880381557416</v>
+        <v>3371.204167188887</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7293,13 +7263,13 @@
         <v>15</v>
       </c>
       <c r="D338">
-        <v>3010.481126963261</v>
+        <v>2975.334146406112</v>
       </c>
       <c r="E338">
-        <v>2732.445033418751</v>
+        <v>2716.688520338038</v>
       </c>
       <c r="F338">
-        <v>3288.51722050777</v>
+        <v>3233.979772474186</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7313,13 +7283,13 @@
         <v>15</v>
       </c>
       <c r="D339">
-        <v>3048.576210957856</v>
+        <v>3113.737843902416</v>
       </c>
       <c r="E339">
-        <v>2771.071343725744</v>
+        <v>2846.175502503746</v>
       </c>
       <c r="F339">
-        <v>3326.081078189968</v>
+        <v>3381.300185301086</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7333,13 +7303,13 @@
         <v>15</v>
       </c>
       <c r="D340">
-        <v>3179.416938809975</v>
+        <v>3245.43503583029</v>
       </c>
       <c r="E340">
-        <v>2900.396147650937</v>
+        <v>2976.06581702584</v>
       </c>
       <c r="F340">
-        <v>3458.437729969013</v>
+        <v>3514.804254634739</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7353,13 +7323,13 @@
         <v>15</v>
       </c>
       <c r="D341">
-        <v>3194.798923772548</v>
+        <v>3085.446892001463</v>
       </c>
       <c r="E341">
-        <v>2903.696499395074</v>
+        <v>2776.212688164583</v>
       </c>
       <c r="F341">
-        <v>3485.901348150021</v>
+        <v>3394.681095838344</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7373,13 +7343,13 @@
         <v>15</v>
       </c>
       <c r="D342">
-        <v>3291.670152459513</v>
+        <v>3327.482273896864</v>
       </c>
       <c r="E342">
-        <v>2993.050928581275</v>
+        <v>3013.781019985732</v>
       </c>
       <c r="F342">
-        <v>3590.289376337751</v>
+        <v>3641.183527807996</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7813,13 +7783,13 @@
         <v>16</v>
       </c>
       <c r="D364">
-        <v>1348.989413031867</v>
+        <v>1340.457477885407</v>
       </c>
       <c r="E364">
-        <v>1242.404043945104</v>
+        <v>1216.318615135678</v>
       </c>
       <c r="F364">
-        <v>1455.574782118631</v>
+        <v>1464.596340635137</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7833,13 +7803,13 @@
         <v>16</v>
       </c>
       <c r="D365">
-        <v>1358.423312064674</v>
+        <v>1346.278252811371</v>
       </c>
       <c r="E365">
-        <v>1200.282914967358</v>
+        <v>1184.621350720989</v>
       </c>
       <c r="F365">
-        <v>1516.56370916199</v>
+        <v>1507.935154901754</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7853,13 +7823,13 @@
         <v>16</v>
       </c>
       <c r="D366">
-        <v>1381.150768840437</v>
+        <v>1359.797064509976</v>
       </c>
       <c r="E366">
-        <v>1200.451589040671</v>
+        <v>1185.940215009901</v>
       </c>
       <c r="F366">
-        <v>1561.849948640203</v>
+        <v>1533.653914010051</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7873,13 +7843,13 @@
         <v>16</v>
       </c>
       <c r="D367">
-        <v>1394.673136688622</v>
+        <v>1364.337809150012</v>
       </c>
       <c r="E367">
-        <v>1180.398047677132</v>
+        <v>1171.753947779175</v>
       </c>
       <c r="F367">
-        <v>1608.948225700112</v>
+        <v>1556.921670520849</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7893,13 +7863,13 @@
         <v>16</v>
       </c>
       <c r="D368">
-        <v>1447.092667399708</v>
+        <v>1420.229143834057</v>
       </c>
       <c r="E368">
-        <v>1204.561337319885</v>
+        <v>1218.803683328613</v>
       </c>
       <c r="F368">
-        <v>1689.62399747953</v>
+        <v>1621.654604339501</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7913,13 +7883,13 @@
         <v>16</v>
       </c>
       <c r="D369">
-        <v>1414.678056831758</v>
+        <v>1413.814443306096</v>
       </c>
       <c r="E369">
-        <v>1132.496945250497</v>
+        <v>1193.821440790135</v>
       </c>
       <c r="F369">
-        <v>1696.859168413018</v>
+        <v>1633.807445822056</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7933,13 +7903,13 @@
         <v>16</v>
       </c>
       <c r="D370">
-        <v>1419.619116587893</v>
+        <v>1431.628038220313</v>
       </c>
       <c r="E370">
-        <v>1103.209400794827</v>
+        <v>1196.144432718669</v>
       </c>
       <c r="F370">
-        <v>1736.028832380959</v>
+        <v>1667.111643721958</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7953,13 +7923,13 @@
         <v>16</v>
       </c>
       <c r="D371">
-        <v>1444.351113310804</v>
+        <v>1455.621979353409</v>
       </c>
       <c r="E371">
-        <v>1104.514428823316</v>
+        <v>1210.112974210286</v>
       </c>
       <c r="F371">
-        <v>1784.187797798292</v>
+        <v>1701.130984496532</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7973,13 +7943,13 @@
         <v>16</v>
       </c>
       <c r="D372">
-        <v>1433.383615998775</v>
+        <v>1459.966950086991</v>
       </c>
       <c r="E372">
-        <v>1062.817448427297</v>
+        <v>1200.231568227356</v>
       </c>
       <c r="F372">
-        <v>1803.949783570252</v>
+        <v>1719.702331946627</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7993,13 +7963,13 @@
         <v>16</v>
       </c>
       <c r="D373">
-        <v>1453.234098224258</v>
+        <v>1491.672474546253</v>
       </c>
       <c r="E373">
-        <v>1056.061461033257</v>
+        <v>1222.203588092598</v>
       </c>
       <c r="F373">
-        <v>1850.40673541526</v>
+        <v>1761.141360999908</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8433,13 +8403,13 @@
         <v>17</v>
       </c>
       <c r="D395">
-        <v>487.554748508259</v>
+        <v>480.9388081848145</v>
       </c>
       <c r="E395">
-        <v>401.8839141552112</v>
+        <v>434.1900490735801</v>
       </c>
       <c r="F395">
-        <v>573.2255828613066</v>
+        <v>527.687567296049</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8453,13 +8423,13 @@
         <v>17</v>
       </c>
       <c r="D396">
-        <v>490.2069313074539</v>
+        <v>472.9778599804466</v>
       </c>
       <c r="E396">
-        <v>398.3983809414073</v>
+        <v>426.2456851057258</v>
       </c>
       <c r="F396">
-        <v>582.0154816735005</v>
+        <v>519.7100348551675</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8473,13 +8443,13 @@
         <v>17</v>
       </c>
       <c r="D397">
-        <v>481.1975155623902</v>
+        <v>502.8815093375051</v>
       </c>
       <c r="E397">
-        <v>382.9537293935147</v>
+        <v>447.169509390281</v>
       </c>
       <c r="F397">
-        <v>579.4413017312658</v>
+        <v>558.5935092847292</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8493,13 +8463,13 @@
         <v>17</v>
       </c>
       <c r="D398">
-        <v>481.1975155623902</v>
+        <v>445.6135729959259</v>
       </c>
       <c r="E398">
-        <v>378.5759341860359</v>
+        <v>389.9089518451748</v>
       </c>
       <c r="F398">
-        <v>583.8190969387446</v>
+        <v>501.318194146677</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8513,13 +8483,13 @@
         <v>17</v>
       </c>
       <c r="D399">
-        <v>481.1975155623902</v>
+        <v>492.8813086614572</v>
       </c>
       <c r="E399">
-        <v>374.3774031884946</v>
+        <v>434.4354458454366</v>
       </c>
       <c r="F399">
-        <v>588.0176279362859</v>
+        <v>551.3271714774777</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8533,13 +8503,13 @@
         <v>17</v>
       </c>
       <c r="D400">
-        <v>481.1975155623902</v>
+        <v>426.3482634092215</v>
       </c>
       <c r="E400">
-        <v>370.3377670016088</v>
+        <v>367.5878394199484</v>
       </c>
       <c r="F400">
-        <v>592.0572641231716</v>
+        <v>485.1086873984946</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8553,13 +8523,13 @@
         <v>17</v>
       </c>
       <c r="D401">
-        <v>481.1975155623902</v>
+        <v>486.2439083602757</v>
       </c>
       <c r="E401">
-        <v>366.4402443576964</v>
+        <v>426.6375341461385</v>
       </c>
       <c r="F401">
-        <v>595.954786767084</v>
+        <v>545.8502825744129</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8573,13 +8543,13 @@
         <v>17</v>
       </c>
       <c r="D402">
-        <v>481.1975155623902</v>
+        <v>497.2146969205001</v>
       </c>
       <c r="E402">
-        <v>362.6708150357341</v>
+        <v>437.0812185150874</v>
       </c>
       <c r="F402">
-        <v>599.7242160890464</v>
+        <v>557.3481753259128</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8593,13 +8563,13 @@
         <v>17</v>
       </c>
       <c r="D403">
-        <v>481.1975155623902</v>
+        <v>491.7908445439811</v>
       </c>
       <c r="E403">
-        <v>359.017622858543</v>
+        <v>428.2358242056236</v>
       </c>
       <c r="F403">
-        <v>603.3774082662374</v>
+        <v>555.3458648823387</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8613,13 +8583,13 @@
         <v>17</v>
       </c>
       <c r="D404">
-        <v>481.1975155623902</v>
+        <v>541.9888627290655</v>
       </c>
       <c r="E404">
-        <v>355.4705350669071</v>
+        <v>478.385905904324</v>
       </c>
       <c r="F404">
-        <v>606.9244960578733</v>
+        <v>605.5918195538071</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9053,13 +9023,13 @@
         <v>18</v>
       </c>
       <c r="D426">
-        <v>531.0652267418894</v>
+        <v>523.7940626648025</v>
       </c>
       <c r="E426">
-        <v>473.4641680998337</v>
+        <v>457.3518808279986</v>
       </c>
       <c r="F426">
-        <v>588.6662853839451</v>
+        <v>590.2362445016064</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9073,13 +9043,13 @@
         <v>18</v>
       </c>
       <c r="D427">
-        <v>668.9259374826257</v>
+        <v>702.3748171471598</v>
       </c>
       <c r="E427">
-        <v>608.7005548309917</v>
+        <v>635.8525769218272</v>
       </c>
       <c r="F427">
-        <v>729.1513201342598</v>
+        <v>768.8970573724923</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9093,13 +9063,13 @@
         <v>18</v>
       </c>
       <c r="D428">
-        <v>607.0088732366692</v>
+        <v>578.8445136900475</v>
       </c>
       <c r="E428">
-        <v>533.1504946409879</v>
+        <v>493.8225542895953</v>
       </c>
       <c r="F428">
-        <v>680.8672518323505</v>
+        <v>663.8664730904998</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9113,13 +9083,13 @@
         <v>18</v>
       </c>
       <c r="D429">
-        <v>602.3620766874114</v>
+        <v>664.1511893078132</v>
       </c>
       <c r="E429">
-        <v>525.5787194570742</v>
+        <v>566.6950595881862</v>
       </c>
       <c r="F429">
-        <v>679.1454339177487</v>
+        <v>761.6073190274402</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9133,13 +9103,13 @@
         <v>18</v>
       </c>
       <c r="D430">
-        <v>673.6188111998357</v>
+        <v>637.7206134005872</v>
       </c>
       <c r="E430">
-        <v>596.6850151712227</v>
+        <v>539.7560170797422</v>
       </c>
       <c r="F430">
-        <v>750.5526072284487</v>
+        <v>735.6852097214323</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9153,13 +9123,13 @@
         <v>18</v>
       </c>
       <c r="D431">
-        <v>598.0027124301427</v>
+        <v>613.3415413453542</v>
       </c>
       <c r="E431">
-        <v>508.6202058269317</v>
+        <v>497.2583866521787</v>
       </c>
       <c r="F431">
-        <v>687.3852190333536</v>
+        <v>729.4246960385298</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9173,13 +9143,13 @@
         <v>18</v>
       </c>
       <c r="D432">
-        <v>663.1010718698128</v>
+        <v>710.2590797335085</v>
       </c>
       <c r="E432">
-        <v>573.7044129799368</v>
+        <v>594.2037320273066</v>
       </c>
       <c r="F432">
-        <v>752.4977307596888</v>
+        <v>826.3144274397105</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9193,13 +9163,13 @@
         <v>18</v>
       </c>
       <c r="D433">
-        <v>650.3656996098742</v>
+        <v>596.8387617227947</v>
       </c>
       <c r="E433">
-        <v>555.5742244998494</v>
+        <v>460.9791848691769</v>
       </c>
       <c r="F433">
-        <v>745.1571747198991</v>
+        <v>732.6983385764125</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9213,13 +9183,13 @@
         <v>18</v>
       </c>
       <c r="D434">
-        <v>634.9802759404317</v>
+        <v>722.0880591785369</v>
       </c>
       <c r="E434">
-        <v>535.76418173826</v>
+        <v>585.6391173577452</v>
       </c>
       <c r="F434">
-        <v>734.1963701426034</v>
+        <v>858.5370009993286</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9233,13 +9203,13 @@
         <v>18</v>
       </c>
       <c r="D435">
-        <v>682.9961542336639</v>
+        <v>625.0488451060634</v>
       </c>
       <c r="E435">
-        <v>582.8908166370124</v>
+        <v>482.4512011307705</v>
       </c>
       <c r="F435">
-        <v>783.1014918303154</v>
+        <v>767.6464890813562</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9673,13 +9643,13 @@
         <v>19</v>
       </c>
       <c r="D457">
-        <v>1780.041770642186</v>
+        <v>1861.737038593215</v>
       </c>
       <c r="E457">
-        <v>1687.348928617057</v>
+        <v>1768.135205922518</v>
       </c>
       <c r="F457">
-        <v>1872.734612667314</v>
+        <v>1955.338871263911</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -9693,13 +9663,13 @@
         <v>19</v>
       </c>
       <c r="D458">
-        <v>1863.252429374533</v>
+        <v>1992.673367583915</v>
       </c>
       <c r="E458">
-        <v>1749.369825731378</v>
+        <v>1881.834963718268</v>
       </c>
       <c r="F458">
-        <v>1977.135033017689</v>
+        <v>2103.511771449561</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -9713,13 +9683,13 @@
         <v>19</v>
       </c>
       <c r="D459">
-        <v>1862.081742528981</v>
+        <v>2038.674744462076</v>
       </c>
       <c r="E459">
-        <v>1743.197786275258</v>
+        <v>1912.161065245971</v>
       </c>
       <c r="F459">
-        <v>1980.965698782703</v>
+        <v>2165.18842367818</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -9733,13 +9703,13 @@
         <v>19</v>
       </c>
       <c r="D460">
-        <v>1877.100058409129</v>
+        <v>2148.526696635226</v>
       </c>
       <c r="E460">
-        <v>1742.092700321947</v>
+        <v>1980.160608725169</v>
       </c>
       <c r="F460">
-        <v>2012.10741649631</v>
+        <v>2316.892784545283</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -9753,13 +9723,13 @@
         <v>19</v>
       </c>
       <c r="D461">
-        <v>1938.481924812294</v>
+        <v>2284.282400739478</v>
       </c>
       <c r="E461">
-        <v>1787.34219127667</v>
+        <v>2088.564820320784</v>
       </c>
       <c r="F461">
-        <v>2089.621658347918</v>
+        <v>2479.999981158172</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9773,13 +9743,13 @@
         <v>19</v>
       </c>
       <c r="D462">
-        <v>1886.620989072686</v>
+        <v>2337.930613164749</v>
       </c>
       <c r="E462">
-        <v>1722.955143926967</v>
+        <v>2097.002541534797</v>
       </c>
       <c r="F462">
-        <v>2050.286834218406</v>
+        <v>2578.8586847947</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -9793,13 +9763,13 @@
         <v>19</v>
       </c>
       <c r="D463">
-        <v>1975.304697620482</v>
+        <v>2511.913331340251</v>
       </c>
       <c r="E463">
-        <v>1799.916166891578</v>
+        <v>2238.45019067265</v>
       </c>
       <c r="F463">
-        <v>2150.693228349386</v>
+        <v>2785.376472007853</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -9813,13 +9783,13 @@
         <v>19</v>
       </c>
       <c r="D464">
-        <v>1970.460797967324</v>
+        <v>2635.079782230361</v>
       </c>
       <c r="E464">
-        <v>1782.506097154881</v>
+        <v>2330.512119426349</v>
       </c>
       <c r="F464">
-        <v>2158.415498779767</v>
+        <v>2939.647445034372</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -9833,13 +9803,13 @@
         <v>19</v>
       </c>
       <c r="D465">
-        <v>1959.56265832886</v>
+        <v>2767.069693711244</v>
       </c>
       <c r="E465">
-        <v>1757.217733876044</v>
+        <v>2415.749633348715</v>
       </c>
       <c r="F465">
-        <v>2161.907582781676</v>
+        <v>3118.389754073773</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -9853,13 +9823,13 @@
         <v>19</v>
       </c>
       <c r="D466">
-        <v>2049.876982120534</v>
+        <v>2955.416686922598</v>
       </c>
       <c r="E466">
-        <v>1836.45277118997</v>
+        <v>2572.180841218499</v>
       </c>
       <c r="F466">
-        <v>2263.301193051098</v>
+        <v>3338.652532626697</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -10293,13 +10263,13 @@
         <v>20</v>
       </c>
       <c r="D488">
-        <v>624.1350500199454</v>
+        <v>645.8583040926047</v>
       </c>
       <c r="E488">
-        <v>574.9137475319767</v>
+        <v>604.5057183114727</v>
       </c>
       <c r="F488">
-        <v>673.3563525079142</v>
+        <v>687.2108898737367</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -10313,13 +10283,13 @@
         <v>20</v>
       </c>
       <c r="D489">
-        <v>663.5630896781608</v>
+        <v>676.7803667522553</v>
       </c>
       <c r="E489">
-        <v>602.638349248871</v>
+        <v>635.4925821245145</v>
       </c>
       <c r="F489">
-        <v>724.4878301074507</v>
+        <v>718.0681513799962</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -10333,13 +10303,13 @@
         <v>20</v>
       </c>
       <c r="D490">
-        <v>662.8712687687669</v>
+        <v>681.7611155497698</v>
       </c>
       <c r="E490">
-        <v>598.8026328634329</v>
+        <v>639.5882175925396</v>
       </c>
       <c r="F490">
-        <v>726.9399046741008</v>
+        <v>723.9340135069999</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -10353,13 +10323,13 @@
         <v>20</v>
       </c>
       <c r="D491">
-        <v>674.2171484934839</v>
+        <v>706.3212207456656</v>
       </c>
       <c r="E491">
-        <v>608.3335399342876</v>
+        <v>664.0094731174067</v>
       </c>
       <c r="F491">
-        <v>740.1007570526803</v>
+        <v>748.6329683739245</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -10373,13 +10343,13 @@
         <v>20</v>
       </c>
       <c r="D492">
-        <v>642.7775719381601</v>
+        <v>665.4506447052145</v>
       </c>
       <c r="E492">
-        <v>564.7803798675934</v>
+        <v>622.8713402639055</v>
       </c>
       <c r="F492">
-        <v>720.7747640087268</v>
+        <v>708.0299491465234</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -10393,13 +10363,13 @@
         <v>20</v>
       </c>
       <c r="D493">
-        <v>648.3695899834921</v>
+        <v>682.6102559927549</v>
       </c>
       <c r="E493">
-        <v>561.8828771038136</v>
+        <v>640.0035705077399</v>
       </c>
       <c r="F493">
-        <v>734.8563028631706</v>
+        <v>725.2169414777699</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -10413,13 +10383,13 @@
         <v>20</v>
       </c>
       <c r="D494">
-        <v>686.1765118327003</v>
+        <v>722.2124328931779</v>
       </c>
       <c r="E494">
-        <v>599.0504658884944</v>
+        <v>673.6924718089791</v>
       </c>
       <c r="F494">
-        <v>773.3025577769062</v>
+        <v>770.7323939773768</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -10433,13 +10403,13 @@
         <v>20</v>
       </c>
       <c r="D495">
-        <v>643.6077693394059</v>
+        <v>711.0191698288763</v>
       </c>
       <c r="E495">
-        <v>550.4638475248237</v>
+        <v>661.8329978045599</v>
       </c>
       <c r="F495">
-        <v>736.7516911539881</v>
+        <v>760.2053418531927</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -10453,13 +10423,13 @@
         <v>20</v>
       </c>
       <c r="D496">
-        <v>660.0301510121174</v>
+        <v>711.4738521502101</v>
       </c>
       <c r="E496">
-        <v>561.1368517457514</v>
+        <v>660.794363256927</v>
       </c>
       <c r="F496">
-        <v>758.9234502784833</v>
+        <v>762.1533410434931</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -10473,13 +10443,13 @@
         <v>20</v>
       </c>
       <c r="D497">
-        <v>655.9997801366125</v>
+        <v>708.0989357689241</v>
       </c>
       <c r="E497">
-        <v>552.5566317855174</v>
+        <v>657.2568395651311</v>
       </c>
       <c r="F497">
-        <v>759.4429284877075</v>
+        <v>758.941031972717</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -10913,13 +10883,13 @@
         <v>21</v>
       </c>
       <c r="D519">
-        <v>1669.485622251887</v>
+        <v>1742.787458156606</v>
       </c>
       <c r="E519">
-        <v>1543.430809924773</v>
+        <v>1628.232552911662</v>
       </c>
       <c r="F519">
-        <v>1795.540434579</v>
+        <v>1857.34236340155</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -10933,13 +10903,13 @@
         <v>21</v>
       </c>
       <c r="D520">
-        <v>1642.015412992035</v>
+        <v>1659.583862906983</v>
       </c>
       <c r="E520">
-        <v>1514.772210072917</v>
+        <v>1541.946130245509</v>
       </c>
       <c r="F520">
-        <v>1769.258615911153</v>
+        <v>1777.221595568458</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -10953,13 +10923,13 @@
         <v>21</v>
       </c>
       <c r="D521">
-        <v>1653.964586506235</v>
+        <v>1586.889187004135</v>
       </c>
       <c r="E521">
-        <v>1526.756711502828</v>
+        <v>1469.614289996359</v>
       </c>
       <c r="F521">
-        <v>1781.172461509641</v>
+        <v>1704.164084011912</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -10973,13 +10943,13 @@
         <v>21</v>
       </c>
       <c r="D522">
-        <v>1675.477314276787</v>
+        <v>1676.565325958104</v>
       </c>
       <c r="E522">
-        <v>1547.943802198553</v>
+        <v>1556.500257218279</v>
       </c>
       <c r="F522">
-        <v>1803.010826355021</v>
+        <v>1796.63039469793</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -10993,13 +10963,13 @@
         <v>21</v>
       </c>
       <c r="D523">
-        <v>1688.322584449957</v>
+        <v>1769.75461288793</v>
       </c>
       <c r="E523">
-        <v>1553.653708542518</v>
+        <v>1649.679434279228</v>
       </c>
       <c r="F523">
-        <v>1822.991460357395</v>
+        <v>1889.829791496631</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -11013,13 +10983,13 @@
         <v>21</v>
       </c>
       <c r="D524">
-        <v>1689.931553700266</v>
+        <v>1716.970106560899</v>
       </c>
       <c r="E524">
-        <v>1542.748595761139</v>
+        <v>1592.061816223025</v>
       </c>
       <c r="F524">
-        <v>1837.114511639393</v>
+        <v>1841.878396898774</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -11033,13 +11003,13 @@
         <v>21</v>
       </c>
       <c r="D525">
-        <v>1685.854114203638</v>
+        <v>1636.831471406376</v>
       </c>
       <c r="E525">
-        <v>1527.034819173176</v>
+        <v>1511.207155644569</v>
       </c>
       <c r="F525">
-        <v>1844.673409234101</v>
+        <v>1762.455787168184</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -11053,13 +11023,13 @@
         <v>21</v>
       </c>
       <c r="D526">
-        <v>1681.786493143212</v>
+        <v>1685.751469955235</v>
       </c>
       <c r="E526">
-        <v>1514.30510099602</v>
+        <v>1559.205916147872</v>
       </c>
       <c r="F526">
-        <v>1849.267885290403</v>
+        <v>1812.297023762597</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -11073,13 +11043,13 @@
         <v>21</v>
       </c>
       <c r="D527">
-        <v>1680.12412532768</v>
+        <v>1780.77730568738</v>
       </c>
       <c r="E527">
-        <v>1506.005727284305</v>
+        <v>1653.919704235797</v>
       </c>
       <c r="F527">
-        <v>1854.242523371056</v>
+        <v>1907.634907138964</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -11093,13 +11063,13 @@
         <v>21</v>
       </c>
       <c r="D528">
-        <v>1680.456980868633</v>
+        <v>1765.319511482155</v>
       </c>
       <c r="E528">
-        <v>1500.429741133441</v>
+        <v>1635.911099462847</v>
       </c>
       <c r="F528">
-        <v>1860.484220603826</v>
+        <v>1894.727923501464</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -11533,13 +11503,13 @@
         <v>22</v>
       </c>
       <c r="D550">
-        <v>3247.325008849214</v>
+        <v>3419.027307092522</v>
       </c>
       <c r="E550">
-        <v>3058.766378377169</v>
+        <v>3295.982282272431</v>
       </c>
       <c r="F550">
-        <v>3435.88363932126</v>
+        <v>3542.072331912613</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11553,13 +11523,13 @@
         <v>22</v>
       </c>
       <c r="D551">
-        <v>3326.65533969749</v>
+        <v>3549.958651772411</v>
       </c>
       <c r="E551">
-        <v>3123.344491539731</v>
+        <v>3346.458148512903</v>
       </c>
       <c r="F551">
-        <v>3529.966187855248</v>
+        <v>3753.459155031919</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -11573,13 +11543,13 @@
         <v>22</v>
       </c>
       <c r="D552">
-        <v>3444.087321775962</v>
+        <v>3677.635699320395</v>
       </c>
       <c r="E552">
-        <v>3227.588733456494</v>
+        <v>3392.640892096576</v>
       </c>
       <c r="F552">
-        <v>3660.585910095429</v>
+        <v>3962.630506544215</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -11593,13 +11563,13 @@
         <v>22</v>
       </c>
       <c r="D553">
-        <v>3444.087321775962</v>
+        <v>3878.738834829795</v>
       </c>
       <c r="E553">
-        <v>3150.681170014653</v>
+        <v>3519.898498811693</v>
       </c>
       <c r="F553">
-        <v>3737.493473537271</v>
+        <v>4237.579170847896</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -11613,13 +11583,13 @@
         <v>22</v>
       </c>
       <c r="D554">
-        <v>3444.087321775962</v>
+        <v>3913.935237945778</v>
       </c>
       <c r="E554">
-        <v>3090.106106118354</v>
+        <v>3453.632867222115</v>
       </c>
       <c r="F554">
-        <v>3798.06853743357</v>
+        <v>4374.23760866944</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -11633,13 +11603,13 @@
         <v>22</v>
       </c>
       <c r="D555">
-        <v>3444.087321775962</v>
+        <v>4015.73701994303</v>
       </c>
       <c r="E555">
-        <v>3038.478850235369</v>
+        <v>3419.659130585759</v>
       </c>
       <c r="F555">
-        <v>3849.695793316555</v>
+        <v>4611.8149093003</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -11653,13 +11623,13 @@
         <v>22</v>
       </c>
       <c r="D556">
-        <v>3444.087321775962</v>
+        <v>4248.867927462774</v>
       </c>
       <c r="E556">
-        <v>2992.71855531936</v>
+        <v>3555.711769228338</v>
       </c>
       <c r="F556">
-        <v>3895.456088232563</v>
+        <v>4942.02408569721</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -11673,13 +11643,13 @@
         <v>22</v>
       </c>
       <c r="D557">
-        <v>3444.087321775962</v>
+        <v>4328.542511283378</v>
       </c>
       <c r="E557">
-        <v>2951.188453366212</v>
+        <v>3520.739140523088</v>
       </c>
       <c r="F557">
-        <v>3936.986190185711</v>
+        <v>5136.345882043668</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -11693,13 +11663,13 @@
         <v>22</v>
       </c>
       <c r="D558">
-        <v>3444.087321775962</v>
+        <v>4459.034014696595</v>
       </c>
       <c r="E558">
-        <v>2912.895430246479</v>
+        <v>3517.791395979449</v>
       </c>
       <c r="F558">
-        <v>3975.279213305445</v>
+        <v>5400.276633413742</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -11713,13 +11683,13 @@
         <v>22</v>
       </c>
       <c r="D559">
-        <v>3444.087321775962</v>
+        <v>4574.352582308332</v>
       </c>
       <c r="E559">
-        <v>2877.183135185558</v>
+        <v>3501.041112374935</v>
       </c>
       <c r="F559">
-        <v>4010.991508366365</v>
+        <v>5647.664052241728</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -12153,13 +12123,7 @@
         <v>23</v>
       </c>
       <c r="D581">
-        <v>2390.304585855589</v>
-      </c>
-      <c r="E581">
-        <v>2197.461612811034</v>
-      </c>
-      <c r="F581">
-        <v>2583.147558900144</v>
+        <v>-9561.413960931612</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -12173,13 +12137,7 @@
         <v>23</v>
       </c>
       <c r="D582">
-        <v>2563.738637597184</v>
-      </c>
-      <c r="E582">
-        <v>2369.620318766764</v>
-      </c>
-      <c r="F582">
-        <v>2757.856956427604</v>
+        <v>-9632.340585330472</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -12193,13 +12151,7 @@
         <v>23</v>
       </c>
       <c r="D583">
-        <v>2566.801419820953</v>
-      </c>
-      <c r="E583">
-        <v>2357.010649245362</v>
-      </c>
-      <c r="F583">
-        <v>2776.592190396545</v>
+        <v>-9827.49314136945</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -12213,13 +12165,7 @@
         <v>23</v>
       </c>
       <c r="D584">
-        <v>2575.369477551023</v>
-      </c>
-      <c r="E584">
-        <v>2336.892794013502</v>
-      </c>
-      <c r="F584">
-        <v>2813.846161088543</v>
+        <v>-9621.368127398222</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -12233,13 +12179,7 @@
         <v>23</v>
       </c>
       <c r="D585">
-        <v>2726.363034387121</v>
-      </c>
-      <c r="E585">
-        <v>2471.287568353217</v>
-      </c>
-      <c r="F585">
-        <v>2981.438500421025</v>
+        <v>-9533.068456418032</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -12253,13 +12193,7 @@
         <v>23</v>
       </c>
       <c r="D586">
-        <v>2596.402704785459</v>
-      </c>
-      <c r="E586">
-        <v>2286.647029729892</v>
-      </c>
-      <c r="F586">
-        <v>2906.158379841027</v>
+        <v>-9042.086321627772</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -12273,13 +12207,7 @@
         <v>23</v>
       </c>
       <c r="D587">
-        <v>2724.196548725168</v>
-      </c>
-      <c r="E587">
-        <v>2399.849625056375</v>
-      </c>
-      <c r="F587">
-        <v>3048.543472393961</v>
+        <v>-8672.538253131344</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -12293,13 +12221,7 @@
         <v>23</v>
       </c>
       <c r="D588">
-        <v>2734.670311351191</v>
-      </c>
-      <c r="E588">
-        <v>2378.222481609419</v>
-      </c>
-      <c r="F588">
-        <v>3091.118141092963</v>
+        <v>-7908.859915252378</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -12313,13 +12235,7 @@
         <v>23</v>
       </c>
       <c r="D589">
-        <v>2733.183933761988</v>
-      </c>
-      <c r="E589">
-        <v>2339.22808098518</v>
-      </c>
-      <c r="F589">
-        <v>3127.139786538795</v>
+        <v>-7279.954444399581</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -12333,13 +12249,7 @@
         <v>23</v>
       </c>
       <c r="D590">
-        <v>2822.259020533852</v>
-      </c>
-      <c r="E590">
-        <v>2401.796165215867</v>
-      </c>
-      <c r="F590">
-        <v>3242.721875851836</v>
+        <v>-6274.803398585475</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -12773,13 +12683,13 @@
         <v>24</v>
       </c>
       <c r="D612">
-        <v>1839.995261818121</v>
+        <v>1823.625787864029</v>
       </c>
       <c r="E612">
-        <v>1685.687985210343</v>
+        <v>1741.688323844325</v>
       </c>
       <c r="F612">
-        <v>1994.302538425899</v>
+        <v>1905.563251883734</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -12793,13 +12703,13 @@
         <v>24</v>
       </c>
       <c r="D613">
-        <v>1839.995261818121</v>
+        <v>1897.319519103074</v>
       </c>
       <c r="E613">
-        <v>1665.896165218423</v>
+        <v>1810.108875537179</v>
       </c>
       <c r="F613">
-        <v>2014.09435841782</v>
+        <v>1984.53016266897</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -12813,13 +12723,13 @@
         <v>24</v>
       </c>
       <c r="D614">
-        <v>1839.995261818121</v>
+        <v>1885.84107885935</v>
       </c>
       <c r="E614">
-        <v>1648.135273129617</v>
+        <v>1797.249921183033</v>
       </c>
       <c r="F614">
-        <v>2031.855250506625</v>
+        <v>1974.432236535667</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -12833,13 +12743,13 @@
         <v>24</v>
       </c>
       <c r="D615">
-        <v>1839.995261818121</v>
+        <v>1864.955862628916</v>
       </c>
       <c r="E615">
-        <v>1631.884678035666</v>
+        <v>1776.474758906578</v>
       </c>
       <c r="F615">
-        <v>2048.105845600577</v>
+        <v>1953.436966351254</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -12853,13 +12763,13 @@
         <v>24</v>
       </c>
       <c r="D616">
-        <v>1839.995261818121</v>
+        <v>1856.52055293893</v>
       </c>
       <c r="E616">
-        <v>1616.814225650179</v>
+        <v>1759.351667801504</v>
       </c>
       <c r="F616">
-        <v>2063.176297986063</v>
+        <v>1953.689438076355</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -12873,13 +12783,13 @@
         <v>24</v>
       </c>
       <c r="D617">
-        <v>1839.995261818121</v>
+        <v>1905.035108289721</v>
       </c>
       <c r="E617">
-        <v>1602.698960271473</v>
+        <v>1807.427217412225</v>
       </c>
       <c r="F617">
-        <v>2077.29156336477</v>
+        <v>2002.642999167217</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -12893,13 +12803,13 @@
         <v>24</v>
       </c>
       <c r="D618">
-        <v>1839.995261818121</v>
+        <v>1874.691356248372</v>
       </c>
       <c r="E618">
-        <v>1589.377436134393</v>
+        <v>1775.879742729702</v>
       </c>
       <c r="F618">
-        <v>2090.613087501849</v>
+        <v>1973.502969767043</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -12913,13 +12823,13 @@
         <v>24</v>
       </c>
       <c r="D619">
-        <v>1839.995261818121</v>
+        <v>1959.050096932785</v>
       </c>
       <c r="E619">
-        <v>1576.729133398301</v>
+        <v>1860.210598960058</v>
       </c>
       <c r="F619">
-        <v>2103.261390237942</v>
+        <v>2057.889594905511</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -12933,13 +12843,13 @@
         <v>24</v>
       </c>
       <c r="D620">
-        <v>1839.995261818121</v>
+        <v>1955.021613935073</v>
       </c>
       <c r="E620">
-        <v>1564.661257024156</v>
+        <v>1851.574040333033</v>
       </c>
       <c r="F620">
-        <v>2115.329266612086</v>
+        <v>2058.469187537114</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -12953,13 +12863,13 @@
         <v>24</v>
       </c>
       <c r="D621">
-        <v>1839.995261818121</v>
+        <v>2008.23114103893</v>
       </c>
       <c r="E621">
-        <v>1553.100552876662</v>
+        <v>1903.224473027578</v>
       </c>
       <c r="F621">
-        <v>2126.889970759581</v>
+        <v>2113.237809050281</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -13393,13 +13303,13 @@
         <v>25</v>
       </c>
       <c r="D643">
-        <v>1014.022954765935</v>
+        <v>1025.775688096832</v>
       </c>
       <c r="E643">
-        <v>954.5123358754196</v>
+        <v>956.1347851683382</v>
       </c>
       <c r="F643">
-        <v>1073.53357365645</v>
+        <v>1095.416591025325</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -13413,13 +13323,13 @@
         <v>25</v>
       </c>
       <c r="D644">
-        <v>995.1025970992232</v>
+        <v>1048.10498486602</v>
       </c>
       <c r="E644">
-        <v>935.583677740375</v>
+        <v>976.3683327537797</v>
       </c>
       <c r="F644">
-        <v>1054.621516458071</v>
+        <v>1119.841636978259</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -13433,13 +13343,13 @@
         <v>25</v>
       </c>
       <c r="D645">
-        <v>984.2512701385177</v>
+        <v>1045.644283929787</v>
       </c>
       <c r="E645">
-        <v>906.9792679023773</v>
+        <v>955.6068853265029</v>
       </c>
       <c r="F645">
-        <v>1061.523272374658</v>
+        <v>1135.681682533072</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -13453,13 +13363,13 @@
         <v>25</v>
       </c>
       <c r="D646">
-        <v>979.4291251959974</v>
+        <v>1074.371049416554</v>
       </c>
       <c r="E646">
-        <v>896.5273453034667</v>
+        <v>971.853236949519</v>
       </c>
       <c r="F646">
-        <v>1062.330905088528</v>
+        <v>1176.888861883589</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -13473,13 +13383,13 @@
         <v>25</v>
       </c>
       <c r="D647">
-        <v>988.7570024627827</v>
+        <v>1072.538863227887</v>
       </c>
       <c r="E647">
-        <v>902.6766881828336</v>
+        <v>958.7749182439993</v>
       </c>
       <c r="F647">
-        <v>1074.837316742732</v>
+        <v>1186.302808211775</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -13493,13 +13403,13 @@
         <v>25</v>
       </c>
       <c r="D648">
-        <v>1004.1777439798</v>
+        <v>1100.71464336752</v>
       </c>
       <c r="E648">
-        <v>913.2593375201768</v>
+        <v>969.3164443216579</v>
       </c>
       <c r="F648">
-        <v>1095.096150439423</v>
+        <v>1232.112842413383</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -13513,13 +13423,13 @@
         <v>25</v>
       </c>
       <c r="D649">
-        <v>1014.624843941908</v>
+        <v>1103.890458772969</v>
       </c>
       <c r="E649">
-        <v>922.3485461131852</v>
+        <v>961.186534102056</v>
       </c>
       <c r="F649">
-        <v>1106.901141770632</v>
+        <v>1246.594383443881</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -13533,13 +13443,13 @@
         <v>25</v>
       </c>
       <c r="D650">
-        <v>1015.356462256817</v>
+        <v>1130.046627583289</v>
       </c>
       <c r="E650">
-        <v>919.5476328995273</v>
+        <v>969.0542664766419</v>
       </c>
       <c r="F650">
-        <v>1111.165291614107</v>
+        <v>1291.038988689936</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -13553,13 +13463,13 @@
         <v>25</v>
       </c>
       <c r="D651">
-        <v>1004.654283297465</v>
+        <v>1138.695344095868</v>
       </c>
       <c r="E651">
-        <v>904.8261542396374</v>
+        <v>964.8171192078341</v>
       </c>
       <c r="F651">
-        <v>1104.482412355292</v>
+        <v>1312.573568983902</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -13573,13 +13483,13 @@
         <v>25</v>
       </c>
       <c r="D652">
-        <v>990.7367574698762</v>
+        <v>1163.636529357773</v>
       </c>
       <c r="E652">
-        <v>886.0304965878006</v>
+        <v>971.7814932079183</v>
       </c>
       <c r="F652">
-        <v>1095.443018351952</v>
+        <v>1355.491565507627</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -14013,13 +13923,13 @@
         <v>26</v>
       </c>
       <c r="D674">
-        <v>575.70170783155</v>
+        <v>583.8720921610387</v>
       </c>
       <c r="E674">
-        <v>499.6124980590109</v>
+        <v>509.9777794930956</v>
       </c>
       <c r="F674">
-        <v>651.7909176040891</v>
+        <v>657.7664048289819</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -14033,13 +13943,13 @@
         <v>26</v>
       </c>
       <c r="D675">
-        <v>586.002224455444</v>
+        <v>599.9732025084654</v>
       </c>
       <c r="E675">
-        <v>501.1841414660743</v>
+        <v>518.7281998523212</v>
       </c>
       <c r="F675">
-        <v>670.8203074448137</v>
+        <v>681.2182051646097</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -14053,13 +13963,13 @@
         <v>26</v>
       </c>
       <c r="D676">
-        <v>580.7751520574996</v>
+        <v>600.7896955224529</v>
       </c>
       <c r="E676">
-        <v>478.5439333379789</v>
+        <v>502.4614523922094</v>
       </c>
       <c r="F676">
-        <v>683.0063707770203</v>
+        <v>699.1179386526965</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -14073,13 +13983,13 @@
         <v>26</v>
       </c>
       <c r="D677">
-        <v>583.4276681254775</v>
+        <v>609.8843963048764</v>
       </c>
       <c r="E677">
-        <v>470.8564703444902</v>
+        <v>502.335158222048</v>
       </c>
       <c r="F677">
-        <v>695.9988659064647</v>
+        <v>717.4336343877048</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -14093,13 +14003,13 @@
         <v>26</v>
       </c>
       <c r="D678">
-        <v>582.0816294722443</v>
+        <v>614.4979278721576</v>
       </c>
       <c r="E678">
-        <v>458.0075640973134</v>
+        <v>495.9536373852136</v>
       </c>
       <c r="F678">
-        <v>706.1556948471753</v>
+        <v>733.0422183591015</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -14113,13 +14023,13 @@
         <v>26</v>
       </c>
       <c r="D679">
-        <v>582.7646866185781</v>
+        <v>621.5395474003199</v>
       </c>
       <c r="E679">
-        <v>449.1389042882483</v>
+        <v>494.2584040460208</v>
       </c>
       <c r="F679">
-        <v>716.3904689489079</v>
+        <v>748.8206907546189</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -14133,13 +14043,13 @@
         <v>26</v>
       </c>
       <c r="D680">
-        <v>582.4180642804773</v>
+        <v>627.2678590955193</v>
       </c>
       <c r="E680">
-        <v>439.4217630273957</v>
+        <v>491.1881255957113</v>
       </c>
       <c r="F680">
-        <v>725.4143655335589</v>
+        <v>763.3475925953272</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -14153,13 +14063,13 @@
         <v>26</v>
       </c>
       <c r="D681">
-        <v>582.5939603177493</v>
+        <v>633.708843173205</v>
       </c>
       <c r="E681">
-        <v>431.0244040405906</v>
+        <v>489.722737993092</v>
       </c>
       <c r="F681">
-        <v>734.1635165949079</v>
+        <v>777.694948353318</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -14173,13 +14083,13 @@
         <v>26</v>
       </c>
       <c r="D682">
-        <v>582.5047005888538</v>
+        <v>639.7654200635785</v>
       </c>
       <c r="E682">
-        <v>422.7159040352933</v>
+        <v>488.136566325992</v>
       </c>
       <c r="F682">
-        <v>742.2934971424143</v>
+        <v>791.394273801165</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -14193,13 +14103,13 @@
         <v>26</v>
       </c>
       <c r="D683">
-        <v>582.5499960902537</v>
+        <v>646.0316609795647</v>
       </c>
       <c r="E683">
-        <v>414.9957106430943</v>
+        <v>487.2366222473952</v>
       </c>
       <c r="F683">
-        <v>750.104281537413</v>
+        <v>804.8266997117341</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -15253,13 +15163,13 @@
         <v>28</v>
       </c>
       <c r="D736">
-        <v>785.1765777217896</v>
+        <v>783.0481654800922</v>
       </c>
       <c r="E736">
-        <v>702.0595828950318</v>
+        <v>681.8253066980378</v>
       </c>
       <c r="F736">
-        <v>868.2935725485474</v>
+        <v>884.2710242621465</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -15273,13 +15183,13 @@
         <v>28</v>
       </c>
       <c r="D737">
-        <v>774.6252069104718</v>
+        <v>791.579023729659</v>
       </c>
       <c r="E737">
-        <v>689.8026297872583</v>
+        <v>675.277487667577</v>
       </c>
       <c r="F737">
-        <v>859.4477840336853</v>
+        <v>907.8805597917409</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -15293,13 +15203,13 @@
         <v>28</v>
       </c>
       <c r="D738">
-        <v>796.1793061558925</v>
+        <v>796.7017495767017</v>
       </c>
       <c r="E738">
-        <v>706.1083935070288</v>
+        <v>653.1626264514134</v>
       </c>
       <c r="F738">
-        <v>886.2502188047562</v>
+        <v>940.2408727019899</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -15313,13 +15223,13 @@
         <v>28</v>
       </c>
       <c r="D739">
-        <v>807.301641169338</v>
+        <v>813.4547833204003</v>
       </c>
       <c r="E739">
-        <v>715.4591179136809</v>
+        <v>654.8016599280108</v>
       </c>
       <c r="F739">
-        <v>899.1441644249952</v>
+        <v>972.1079067127898</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -15333,13 +15243,13 @@
         <v>28</v>
       </c>
       <c r="D740">
-        <v>819.9658643994384</v>
+        <v>813.6102161651226</v>
       </c>
       <c r="E740">
-        <v>711.3453358317058</v>
+        <v>637.6791283083926</v>
       </c>
       <c r="F740">
-        <v>928.5863929671709</v>
+        <v>989.5413040218525</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -15353,13 +15263,13 @@
         <v>28</v>
       </c>
       <c r="D741">
-        <v>822.5273465259237</v>
+        <v>833.225978462536</v>
       </c>
       <c r="E741">
-        <v>704.8373743166819</v>
+        <v>643.217448444687</v>
       </c>
       <c r="F741">
-        <v>940.2173187351655</v>
+        <v>1023.234508480385</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -15373,13 +15283,13 @@
         <v>28</v>
       </c>
       <c r="D742">
-        <v>832.9015115319028</v>
+        <v>832.00072778855</v>
       </c>
       <c r="E742">
-        <v>707.1142143697781</v>
+        <v>628.7663281535979</v>
       </c>
       <c r="F742">
-        <v>958.6888086940274</v>
+        <v>1035.235127423502</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -15393,13 +15303,13 @@
         <v>28</v>
       </c>
       <c r="D743">
-        <v>843.8416213676792</v>
+        <v>852.0993088174494</v>
       </c>
       <c r="E743">
-        <v>712.0886317992801</v>
+        <v>636.1049423485771</v>
       </c>
       <c r="F743">
-        <v>975.5946109360783</v>
+        <v>1068.093675286322</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -15413,13 +15323,13 @@
         <v>28</v>
       </c>
       <c r="D744">
-        <v>854.7837329131449</v>
+        <v>851.0519561719811</v>
       </c>
       <c r="E744">
-        <v>712.2296154843982</v>
+        <v>623.9572434805214</v>
       </c>
       <c r="F744">
-        <v>997.3378503418917</v>
+        <v>1078.146668863441</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -15433,13 +15343,13 @@
         <v>28</v>
       </c>
       <c r="D745">
-        <v>861.5634641439888</v>
+        <v>870.6312586692936</v>
       </c>
       <c r="E745">
-        <v>708.0159955203056</v>
+        <v>632.0262343570613</v>
       </c>
       <c r="F745">
-        <v>1015.110932767672</v>
+        <v>1109.236282981526</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -15873,13 +15783,13 @@
         <v>29</v>
       </c>
       <c r="D767">
-        <v>474.6668813058686</v>
+        <v>479.8368772275985</v>
       </c>
       <c r="E767">
-        <v>412.024903508659</v>
+        <v>417.9978646297811</v>
       </c>
       <c r="F767">
-        <v>537.3088591030781</v>
+        <v>541.6758898254159</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -15893,13 +15803,13 @@
         <v>29</v>
       </c>
       <c r="D768">
-        <v>472.4258782206472</v>
+        <v>479.3674322332225</v>
       </c>
       <c r="E768">
-        <v>405.2146047590275</v>
+        <v>413.3719050685514</v>
       </c>
       <c r="F768">
-        <v>539.6371516822669</v>
+        <v>545.3629593978936</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -15913,13 +15823,13 @@
         <v>29</v>
       </c>
       <c r="D769">
-        <v>473.7954602739126</v>
+        <v>484.7353094711903</v>
       </c>
       <c r="E769">
-        <v>391.3459138933304</v>
+        <v>403.4929615172085</v>
       </c>
       <c r="F769">
-        <v>556.2450066544948</v>
+        <v>565.9776574251721</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -15933,13 +15843,13 @@
         <v>29</v>
       </c>
       <c r="D770">
-        <v>472.9584444692506</v>
+        <v>486.4417692306448</v>
       </c>
       <c r="E770">
-        <v>383.9794479811693</v>
+        <v>399.0803890087258</v>
       </c>
       <c r="F770">
-        <v>561.9374409573319</v>
+        <v>573.8031494525637</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -15953,13 +15863,13 @@
         <v>29</v>
       </c>
       <c r="D771">
-        <v>473.4699840703892</v>
+        <v>490.4448261999779</v>
       </c>
       <c r="E771">
-        <v>374.9931118939661</v>
+        <v>393.6448568245306</v>
       </c>
       <c r="F771">
-        <v>571.9468562468123</v>
+        <v>587.2447955754251</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -15973,13 +15883,13 @@
         <v>29</v>
       </c>
       <c r="D772">
-        <v>473.1573582369514</v>
+        <v>493.0073594444491</v>
       </c>
       <c r="E772">
-        <v>368.0100771077473</v>
+        <v>389.8382360378422</v>
       </c>
       <c r="F772">
-        <v>578.3046393661555</v>
+        <v>596.176482851056</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -15993,13 +15903,13 @@
         <v>29</v>
       </c>
       <c r="D773">
-        <v>473.3484185410122</v>
+        <v>496.4734506105985</v>
       </c>
       <c r="E773">
-        <v>360.807579323166</v>
+        <v>386.0176499959441</v>
       </c>
       <c r="F773">
-        <v>585.8892577588583</v>
+        <v>606.9292512252529</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -16013,13 +15923,13 @@
         <v>29</v>
       </c>
       <c r="D774">
-        <v>473.2316526314698</v>
+        <v>499.3727917095766</v>
       </c>
       <c r="E774">
-        <v>354.4088514961883</v>
+        <v>382.8554735351015</v>
       </c>
       <c r="F774">
-        <v>592.0544537667514</v>
+        <v>615.8901098840516</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -16033,13 +15943,13 @@
         <v>29</v>
       </c>
       <c r="D775">
-        <v>473.3030137532804</v>
+        <v>502.6276226237977</v>
       </c>
       <c r="E775">
-        <v>348.1362725948647</v>
+        <v>379.8913329203241</v>
       </c>
       <c r="F775">
-        <v>598.4697549116961</v>
+        <v>625.3639123272712</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -16053,13 +15963,13 @@
         <v>29</v>
       </c>
       <c r="D776">
-        <v>473.2594016260249</v>
+        <v>505.6594751634907</v>
       </c>
       <c r="E776">
-        <v>342.2765791331761</v>
+        <v>377.2800576691538</v>
       </c>
       <c r="F776">
-        <v>604.2422241188737</v>
+        <v>634.0388926578275</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -16493,13 +16403,13 @@
         <v>30</v>
       </c>
       <c r="D798">
-        <v>1373.546419608841</v>
+        <v>1386.404770268965</v>
       </c>
       <c r="E798">
-        <v>1192.978236990914</v>
+        <v>1207.359626614909</v>
       </c>
       <c r="F798">
-        <v>1554.114602226768</v>
+        <v>1565.449913923021</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -16513,13 +16423,13 @@
         <v>30</v>
       </c>
       <c r="D799">
-        <v>1372.148964937511</v>
+        <v>1392.337607153222</v>
       </c>
       <c r="E799">
-        <v>1161.016997328234</v>
+        <v>1184.652586865775</v>
       </c>
       <c r="F799">
-        <v>1583.280932546787</v>
+        <v>1600.02262744067</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -16533,13 +16443,13 @@
         <v>30</v>
       </c>
       <c r="D800">
-        <v>1372.69962723183</v>
+        <v>1402.587010873265</v>
       </c>
       <c r="E800">
-        <v>1120.766908976946</v>
+        <v>1154.518908906331</v>
       </c>
       <c r="F800">
-        <v>1624.632345486714</v>
+        <v>1650.655112840198</v>
       </c>
     </row>
     <row r="801" spans="1:6">
@@ -16553,13 +16463,13 @@
         <v>30</v>
       </c>
       <c r="D801">
-        <v>1372.482640614227</v>
+        <v>1411.057110947716</v>
       </c>
       <c r="E801">
-        <v>1090.616766809719</v>
+        <v>1134.114338649962</v>
       </c>
       <c r="F801">
-        <v>1654.348514418735</v>
+        <v>1687.999883245469</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -16573,13 +16483,13 @@
         <v>30</v>
       </c>
       <c r="D802">
-        <v>1372.568143458174</v>
+        <v>1420.260646083792</v>
       </c>
       <c r="E802">
-        <v>1061.849312097708</v>
+        <v>1115.045317623034</v>
       </c>
       <c r="F802">
-        <v>1683.28697481864</v>
+        <v>1725.475974544551</v>
       </c>
     </row>
     <row r="803" spans="1:6">
@@ -16593,13 +16503,13 @@
         <v>30</v>
       </c>
       <c r="D803">
-        <v>1372.534451351243</v>
+        <v>1429.161856773474</v>
       </c>
       <c r="E803">
-        <v>1036.084848543046</v>
+        <v>1098.899342184398</v>
       </c>
       <c r="F803">
-        <v>1708.98405415944</v>
+        <v>1759.42437136255</v>
       </c>
     </row>
     <row r="804" spans="1:6">
@@ -16613,13 +16523,13 @@
         <v>30</v>
       </c>
       <c r="D804">
-        <v>1372.547727612208</v>
+        <v>1438.187686636236</v>
       </c>
       <c r="E804">
-        <v>1011.957387117514</v>
+        <v>1084.333701233479</v>
       </c>
       <c r="F804">
-        <v>1733.138068106902</v>
+        <v>1792.041672038993</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -16633,13 +16543,13 @@
         <v>30</v>
       </c>
       <c r="D805">
-        <v>1372.542496146406</v>
+        <v>1447.162148048698</v>
       </c>
       <c r="E805">
-        <v>989.4192546493249</v>
+        <v>1071.316297134271</v>
       </c>
       <c r="F805">
-        <v>1755.665737643486</v>
+        <v>1823.007998963124</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -16653,13 +16563,13 @@
         <v>30</v>
       </c>
       <c r="D806">
-        <v>1372.544557587839</v>
+        <v>1456.157783712449</v>
       </c>
       <c r="E806">
-        <v>968.1083718538266</v>
+        <v>1059.489918868193</v>
       </c>
       <c r="F806">
-        <v>1776.980743321852</v>
+        <v>1852.825648556705</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -16673,13 +16583,13 @@
         <v>30</v>
       </c>
       <c r="D807">
-        <v>1372.543745283803</v>
+        <v>1465.144691277239</v>
       </c>
       <c r="E807">
-        <v>947.8754942367777</v>
+        <v>1048.713319961012</v>
       </c>
       <c r="F807">
-        <v>1797.211996330829</v>
+        <v>1881.576062593466</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -17113,13 +17023,13 @@
         <v>31</v>
       </c>
       <c r="D829">
-        <v>469.5495763495663</v>
+        <v>470.6240776201711</v>
       </c>
       <c r="E829">
-        <v>412.0274800067813</v>
+        <v>413.1282530116437</v>
       </c>
       <c r="F829">
-        <v>527.0716726923513</v>
+        <v>528.1199022286986</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -17133,13 +17043,13 @@
         <v>31</v>
       </c>
       <c r="D830">
-        <v>466.1275988318257</v>
+        <v>467.5990941342494</v>
       </c>
       <c r="E830">
-        <v>404.5230574098287</v>
+        <v>406.0596406636272</v>
       </c>
       <c r="F830">
-        <v>527.7321402538228</v>
+        <v>529.1385476048716</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -17153,13 +17063,13 @@
         <v>31</v>
       </c>
       <c r="D831">
-        <v>468.237657220848</v>
+        <v>470.5339120898096</v>
       </c>
       <c r="E831">
-        <v>392.5777155172873</v>
+        <v>394.9683282949019</v>
       </c>
       <c r="F831">
-        <v>543.8975989244087</v>
+        <v>546.0994958847174</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -17173,13 +17083,13 @@
         <v>31</v>
       </c>
       <c r="D832">
-        <v>466.9365538728567</v>
+        <v>469.7883910811748</v>
       </c>
       <c r="E832">
-        <v>385.3835975200724</v>
+        <v>388.3846721612844</v>
       </c>
       <c r="F832">
-        <v>548.489510225641</v>
+        <v>551.1921100010652</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -17193,13 +17103,13 @@
         <v>31</v>
       </c>
       <c r="D833">
-        <v>467.7388396915627</v>
+        <v>471.316347218735</v>
       </c>
       <c r="E833">
-        <v>377.4464042532223</v>
+        <v>381.2190079483204</v>
       </c>
       <c r="F833">
-        <v>558.0312751299031</v>
+        <v>561.4136864891495</v>
       </c>
     </row>
     <row r="834" spans="1:6">
@@ -17213,13 +17123,13 @@
         <v>31</v>
       </c>
       <c r="D834">
-        <v>467.2441345354424</v>
+        <v>471.4406626602631</v>
       </c>
       <c r="E834">
-        <v>370.8936074076462</v>
+        <v>375.3464173189058</v>
       </c>
       <c r="F834">
-        <v>563.5946616632385</v>
+        <v>567.5349080016205</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -17233,13 +17143,13 @@
         <v>31</v>
       </c>
       <c r="D835">
-        <v>467.549179428155</v>
+        <v>472.4323500916634</v>
       </c>
       <c r="E835">
-        <v>364.4145094220355</v>
+        <v>369.6115320610625</v>
       </c>
       <c r="F835">
-        <v>570.6838494342746</v>
+        <v>575.2531681222642</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -17253,13 +17163,13 @@
         <v>31</v>
       </c>
       <c r="D836">
-        <v>467.3610827701379</v>
+        <v>472.8888161966722</v>
       </c>
       <c r="E836">
-        <v>358.5013048526019</v>
+        <v>364.4093516950315</v>
       </c>
       <c r="F836">
-        <v>576.2208606876738</v>
+        <v>581.3682806983128</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -17273,13 +17183,13 @@
         <v>31</v>
       </c>
       <c r="D837">
-        <v>467.4770668551117</v>
+        <v>473.676311793892</v>
       </c>
       <c r="E837">
-        <v>352.806444678177</v>
+        <v>359.4523532532666</v>
       </c>
       <c r="F837">
-        <v>582.1476890320464</v>
+        <v>587.9002703345174</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -17293,13 +17203,13 @@
         <v>31</v>
       </c>
       <c r="D838">
-        <v>467.4055487956787</v>
+        <v>474.2598340826141</v>
       </c>
       <c r="E838">
-        <v>347.4248479351012</v>
+        <v>354.7977453331993</v>
       </c>
       <c r="F838">
-        <v>587.3862496562563</v>
+        <v>593.7219228320289</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -17733,13 +17643,13 @@
         <v>32</v>
       </c>
       <c r="D860">
-        <v>330.9020285117776</v>
+        <v>338.2727694552711</v>
       </c>
       <c r="E860">
-        <v>295.157135194603</v>
+        <v>301.733440933466</v>
       </c>
       <c r="F860">
-        <v>366.6469218289522</v>
+        <v>374.8120979770762</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -17753,13 +17663,13 @@
         <v>32</v>
       </c>
       <c r="D861">
-        <v>345.5156256114993</v>
+        <v>341.9602723006401</v>
       </c>
       <c r="E861">
-        <v>309.6382925953677</v>
+        <v>304.8386788801222</v>
       </c>
       <c r="F861">
-        <v>381.3929586276308</v>
+        <v>379.081865721158</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -17773,13 +17683,13 @@
         <v>32</v>
       </c>
       <c r="D862">
-        <v>335.5751703597236</v>
+        <v>344.5810488408421</v>
       </c>
       <c r="E862">
-        <v>299.2195193907864</v>
+        <v>307.2916094815035</v>
       </c>
       <c r="F862">
-        <v>371.9308213286609</v>
+        <v>381.8704882001807</v>
       </c>
     </row>
     <row r="863" spans="1:6">
@@ -17793,13 +17703,13 @@
         <v>32</v>
       </c>
       <c r="D863">
-        <v>348.5806329928149</v>
+        <v>346.6542408688682</v>
       </c>
       <c r="E863">
-        <v>311.0168987625966</v>
+        <v>308.1324241673757</v>
       </c>
       <c r="F863">
-        <v>386.1443672230331</v>
+        <v>385.1760575703607</v>
       </c>
     </row>
     <row r="864" spans="1:6">
@@ -17813,13 +17723,13 @@
         <v>32</v>
       </c>
       <c r="D864">
-        <v>337.587339267641</v>
+        <v>348.4463488762745</v>
       </c>
       <c r="E864">
-        <v>297.1788633965024</v>
+        <v>307.8967096567465</v>
       </c>
       <c r="F864">
-        <v>377.9958151387795</v>
+        <v>388.9959880958025</v>
       </c>
     </row>
     <row r="865" spans="1:6">
@@ -17833,13 +17743,13 @@
         <v>32</v>
       </c>
       <c r="D865">
-        <v>349.899715418069</v>
+        <v>350.0941804008998</v>
       </c>
       <c r="E865">
-        <v>306.7973677656196</v>
+        <v>307.1339440698031</v>
       </c>
       <c r="F865">
-        <v>393.0020630705185</v>
+        <v>393.0544167319965</v>
       </c>
     </row>
     <row r="866" spans="1:6">
@@ -17853,13 +17763,13 @@
         <v>32</v>
       </c>
       <c r="D866">
-        <v>338.4539668208312</v>
+        <v>351.6679653380985</v>
       </c>
       <c r="E866">
-        <v>291.5088457550871</v>
+        <v>306.1751273504836</v>
       </c>
       <c r="F866">
-        <v>385.3990878865752</v>
+        <v>397.1608033257133</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -17873,13 +17783,13 @@
         <v>32</v>
       </c>
       <c r="D867">
-        <v>350.4671821448087</v>
+        <v>353.2037560712509</v>
       </c>
       <c r="E867">
-        <v>300.4072810140497</v>
+        <v>305.1865645022958</v>
       </c>
       <c r="F867">
-        <v>400.5270832755677</v>
+        <v>401.220947640206</v>
       </c>
     </row>
     <row r="868" spans="1:6">
@@ -17893,13 +17803,13 @@
         <v>32</v>
       </c>
       <c r="D868">
-        <v>338.8274420213926</v>
+        <v>354.7200600199764</v>
       </c>
       <c r="E868">
-        <v>284.8498416916283</v>
+        <v>304.2431400169878</v>
       </c>
       <c r="F868">
-        <v>392.805042351157</v>
+        <v>405.196980022965</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -17913,13 +17823,13 @@
         <v>32</v>
       </c>
       <c r="D869">
-        <v>350.7110804901059</v>
+        <v>356.2263779285818</v>
       </c>
       <c r="E869">
-        <v>293.6809142702688</v>
+        <v>303.3744359201704</v>
       </c>
       <c r="F869">
-        <v>407.741246709943</v>
+        <v>409.0783199369932</v>
       </c>
     </row>
     <row r="870" spans="1:6">
@@ -18353,13 +18263,13 @@
         <v>33</v>
       </c>
       <c r="D891">
-        <v>2667</v>
+        <v>2846.809375044032</v>
       </c>
       <c r="E891">
-        <v>2453.829822772003</v>
+        <v>2608.035340281461</v>
       </c>
       <c r="F891">
-        <v>2880.170177227997</v>
+        <v>3085.583409806603</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -18373,13 +18283,13 @@
         <v>33</v>
       </c>
       <c r="D892">
-        <v>2667</v>
+        <v>2698.828655883309</v>
       </c>
       <c r="E892">
-        <v>2365.53184427069</v>
+        <v>2244.260554009734</v>
       </c>
       <c r="F892">
-        <v>2968.46815572931</v>
+        <v>3153.396757756885</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -18393,13 +18303,13 @@
         <v>33</v>
       </c>
       <c r="D893">
-        <v>2667</v>
+        <v>2849.808666546373</v>
       </c>
       <c r="E893">
-        <v>2297.778422382647</v>
+        <v>2198.995131826701</v>
       </c>
       <c r="F893">
-        <v>3036.221577617353</v>
+        <v>3500.622201266045</v>
       </c>
     </row>
     <row r="894" spans="1:6">
@@ -18413,13 +18323,13 @@
         <v>33</v>
       </c>
       <c r="D894">
-        <v>2667</v>
+        <v>2724.255476138332</v>
       </c>
       <c r="E894">
-        <v>2240.659645544006</v>
+        <v>1965.774706303149</v>
       </c>
       <c r="F894">
-        <v>3093.340354455994</v>
+        <v>3482.736245973515</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -18433,13 +18343,13 @@
         <v>33</v>
       </c>
       <c r="D895">
-        <v>2667</v>
+        <v>2854.622763883706</v>
       </c>
       <c r="E895">
-        <v>2190.336992942521</v>
+        <v>1969.164056673484</v>
       </c>
       <c r="F895">
-        <v>3143.663007057479</v>
+        <v>3740.081471093929</v>
       </c>
     </row>
     <row r="896" spans="1:6">
@@ -18453,13 +18363,13 @@
         <v>33</v>
       </c>
       <c r="D896">
-        <v>2667</v>
+        <v>2748.277680730689</v>
       </c>
       <c r="E896">
-        <v>2144.841837412749</v>
+        <v>1780.165306178717</v>
       </c>
       <c r="F896">
-        <v>3189.158162587251</v>
+        <v>3716.390055282661</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -18473,13 +18383,13 @@
         <v>33</v>
       </c>
       <c r="D897">
-        <v>2667</v>
+        <v>2861.009832845555</v>
       </c>
       <c r="E897">
-        <v>2103.004724119156</v>
+        <v>1793.909421191435</v>
       </c>
       <c r="F897">
-        <v>3230.995275880844</v>
+        <v>3928.110244499676</v>
       </c>
     </row>
     <row r="898" spans="1:6">
@@ -18493,13 +18403,13 @@
         <v>33</v>
       </c>
       <c r="D898">
-        <v>2667</v>
+        <v>2771.116900852369</v>
       </c>
       <c r="E898">
-        <v>2064.063688541381</v>
+        <v>1634.094506840308</v>
       </c>
       <c r="F898">
-        <v>3269.936311458619</v>
+        <v>3908.13929486443</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -18513,13 +18423,13 @@
         <v>33</v>
       </c>
       <c r="D899">
-        <v>2667</v>
+        <v>2868.762709006265</v>
       </c>
       <c r="E899">
-        <v>2027.489468316009</v>
+        <v>1649.026280449637</v>
       </c>
       <c r="F899">
-        <v>3306.510531683991</v>
+        <v>4088.499137562892</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -18533,13 +18443,13 @@
         <v>33</v>
       </c>
       <c r="D900">
-        <v>2667</v>
+        <v>2792.962707116014</v>
       </c>
       <c r="E900">
-        <v>1992.89671073777</v>
+        <v>1511.437279770382</v>
       </c>
       <c r="F900">
-        <v>3341.10328926223</v>
+        <v>4074.488134461646</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -18973,13 +18883,13 @@
         <v>34</v>
       </c>
       <c r="D922">
-        <v>3380.927466587113</v>
+        <v>3385.686389280748</v>
       </c>
       <c r="E922">
-        <v>3274.052681049689</v>
+        <v>3278.308778384936</v>
       </c>
       <c r="F922">
-        <v>3487.802252124536</v>
+        <v>3493.064000176559</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -18993,13 +18903,13 @@
         <v>34</v>
       </c>
       <c r="D923">
-        <v>3458.48391689982</v>
+        <v>3468.888424708941</v>
       </c>
       <c r="E923">
-        <v>3339.925705913442</v>
+        <v>3350.307530980952</v>
       </c>
       <c r="F923">
-        <v>3577.042127886197</v>
+        <v>3587.46931843693</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -19013,13 +18923,13 @@
         <v>34</v>
       </c>
       <c r="D924">
-        <v>3424.275789555244</v>
+        <v>3442.394455307559</v>
       </c>
       <c r="E924">
-        <v>3292.344921494881</v>
+        <v>3310.729410042112</v>
       </c>
       <c r="F924">
-        <v>3556.206657615607</v>
+        <v>3574.059500573007</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -19033,13 +18943,13 @@
         <v>34</v>
       </c>
       <c r="D925">
-        <v>3499.193649660606</v>
+        <v>3528.375068229831</v>
       </c>
       <c r="E925">
-        <v>3333.12220022382</v>
+        <v>3362.454051459787</v>
       </c>
       <c r="F925">
-        <v>3665.265099097393</v>
+        <v>3694.296084999876</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -19053,13 +18963,13 @@
         <v>34</v>
       </c>
       <c r="D926">
-        <v>3498.684204975559</v>
+        <v>3541.040868753685</v>
       </c>
       <c r="E926">
-        <v>3327.986005680144</v>
+        <v>3370.870211474124</v>
       </c>
       <c r="F926">
-        <v>3669.382404270975</v>
+        <v>3711.211526033246</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -19073,13 +18983,13 @@
         <v>34</v>
       </c>
       <c r="D927">
-        <v>3525.420140957185</v>
+        <v>3584.134582852588</v>
       </c>
       <c r="E927">
-        <v>3324.696461749366</v>
+        <v>3384.182032867335</v>
       </c>
       <c r="F927">
-        <v>3726.143820165003</v>
+        <v>3784.087132837842</v>
       </c>
     </row>
     <row r="928" spans="1:6">
@@ -19093,13 +19003,13 @@
         <v>34</v>
       </c>
       <c r="D928">
-        <v>3570.426758586344</v>
+        <v>3649.17358392939</v>
       </c>
       <c r="E928">
-        <v>3360.155473940253</v>
+        <v>3440.134213835231</v>
       </c>
       <c r="F928">
-        <v>3780.698043232435</v>
+        <v>3858.212954023549</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -19113,13 +19023,13 @@
         <v>34</v>
       </c>
       <c r="D929">
-        <v>3566.92136946194</v>
+        <v>3668.61426897185</v>
       </c>
       <c r="E929">
-        <v>3340.867314609139</v>
+        <v>3444.600819033479</v>
       </c>
       <c r="F929">
-        <v>3792.975424314741</v>
+        <v>3892.627718910221</v>
       </c>
     </row>
     <row r="930" spans="1:6">
@@ -19133,13 +19043,13 @@
         <v>34</v>
       </c>
       <c r="D930">
-        <v>3621.47149453087</v>
+        <v>3750.306276975884</v>
       </c>
       <c r="E930">
-        <v>3376.533540047357</v>
+        <v>3508.074571749556</v>
       </c>
       <c r="F930">
-        <v>3866.409449014383</v>
+        <v>3992.537982202211</v>
       </c>
     </row>
     <row r="931" spans="1:6">
@@ -19153,13 +19063,13 @@
         <v>34</v>
       </c>
       <c r="D931">
-        <v>3627.34589397034</v>
+        <v>3787.340423814846</v>
       </c>
       <c r="E931">
-        <v>3372.99754074134</v>
+        <v>3536.726066340651</v>
       </c>
       <c r="F931">
-        <v>3881.694247199339</v>
+        <v>4037.954781289041</v>
       </c>
     </row>
     <row r="932" spans="1:6">
@@ -19593,13 +19503,13 @@
         <v>35</v>
       </c>
       <c r="D953">
-        <v>1909.911579607486</v>
+        <v>1996.961728266883</v>
       </c>
       <c r="E953">
-        <v>1795.740791261466</v>
+        <v>1836.560558458589</v>
       </c>
       <c r="F953">
-        <v>2024.082367953506</v>
+        <v>2157.362898075177</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -19613,13 +19523,13 @@
         <v>35</v>
       </c>
       <c r="D954">
-        <v>1956.079624584042</v>
+        <v>2021.551089299119</v>
       </c>
       <c r="E954">
-        <v>1833.064979551829</v>
+        <v>1840.256161915353</v>
       </c>
       <c r="F954">
-        <v>2079.094269616254</v>
+        <v>2202.846016682884</v>
       </c>
     </row>
     <row r="955" spans="1:6">
@@ -19633,13 +19543,13 @@
         <v>35</v>
       </c>
       <c r="D955">
-        <v>1937.559182912432</v>
+        <v>2059.114283566666</v>
       </c>
       <c r="E955">
-        <v>1813.180078231683</v>
+        <v>1840.480231833128</v>
       </c>
       <c r="F955">
-        <v>2061.938287593181</v>
+        <v>2277.748335300203</v>
       </c>
     </row>
     <row r="956" spans="1:6">
@@ -19653,13 +19563,13 @@
         <v>35</v>
       </c>
       <c r="D956">
-        <v>1944.988710411066</v>
+        <v>2083.073966052755</v>
       </c>
       <c r="E956">
-        <v>1820.391427723991</v>
+        <v>1819.107754969245</v>
       </c>
       <c r="F956">
-        <v>2069.585993098141</v>
+        <v>2347.040177136265</v>
       </c>
     </row>
     <row r="957" spans="1:6">
@@ -19673,13 +19583,13 @@
         <v>35</v>
       </c>
       <c r="D957">
-        <v>1942.008334465844</v>
+        <v>2124.962970051251</v>
       </c>
       <c r="E957">
-        <v>1817.37597746761</v>
+        <v>1807.30873348679</v>
       </c>
       <c r="F957">
-        <v>2066.640691464077</v>
+        <v>2442.617206615712</v>
       </c>
     </row>
     <row r="958" spans="1:6">
@@ -19693,13 +19603,13 @@
         <v>35</v>
       </c>
       <c r="D958">
-        <v>1943.203920696125</v>
+        <v>2152.789136940803</v>
       </c>
       <c r="E958">
-        <v>1818.565920335834</v>
+        <v>1776.378996431519</v>
       </c>
       <c r="F958">
-        <v>2067.841921056415</v>
+        <v>2529.199277450086</v>
       </c>
     </row>
     <row r="959" spans="1:6">
@@ -19713,13 +19623,13 @@
         <v>35</v>
       </c>
       <c r="D959">
-        <v>1942.724307902199</v>
+        <v>2198.498234796303</v>
       </c>
       <c r="E959">
-        <v>1818.0853994157</v>
+        <v>1757.565014487816</v>
       </c>
       <c r="F959">
-        <v>2067.363216388698</v>
+        <v>2639.431455104789</v>
       </c>
     </row>
     <row r="960" spans="1:6">
@@ -19733,13 +19643,13 @@
         <v>35</v>
       </c>
       <c r="D960">
-        <v>1942.916705929435</v>
+        <v>2230.068959974767</v>
       </c>
       <c r="E960">
-        <v>1818.277651304626</v>
+        <v>1721.282906196382</v>
       </c>
       <c r="F960">
-        <v>2067.555760554245</v>
+        <v>2738.855013753152</v>
       </c>
     </row>
     <row r="961" spans="1:6">
@@ -19753,13 +19663,13 @@
         <v>35</v>
       </c>
       <c r="D961">
-        <v>1942.839524917266</v>
+        <v>2279.450116266479</v>
       </c>
       <c r="E961">
-        <v>1818.200446775371</v>
+        <v>1698.441866463285</v>
       </c>
       <c r="F961">
-        <v>2067.478603059161</v>
+        <v>2860.458366069673</v>
       </c>
     </row>
     <row r="962" spans="1:6">
@@ -19773,13 +19683,13 @@
         <v>35</v>
       </c>
       <c r="D962">
-        <v>1942.870486298342</v>
+        <v>2314.622387687645</v>
       </c>
       <c r="E962">
-        <v>1818.231404371993</v>
+        <v>1658.998078236333</v>
       </c>
       <c r="F962">
-        <v>2067.509568224691</v>
+        <v>2970.246697138957</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -20213,13 +20123,13 @@
         <v>36</v>
       </c>
       <c r="D984">
-        <v>1392</v>
+        <v>1342.670114961059</v>
       </c>
       <c r="E984">
-        <v>1237.088302158838</v>
+        <v>1297.485936698872</v>
       </c>
       <c r="F984">
-        <v>1546.911697841162</v>
+        <v>1387.854293223246</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -20233,13 +20143,13 @@
         <v>36</v>
       </c>
       <c r="D985">
-        <v>1392</v>
+        <v>1384.81961303182</v>
       </c>
       <c r="E985">
-        <v>1172.921775942785</v>
+        <v>1320.764619885424</v>
       </c>
       <c r="F985">
-        <v>1611.078224057215</v>
+        <v>1448.874606178216</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -20253,13 +20163,13 @@
         <v>36</v>
       </c>
       <c r="D986">
-        <v>1392</v>
+        <v>1296.342725096205</v>
       </c>
       <c r="E986">
-        <v>1123.685068652348</v>
+        <v>1231.53878572131</v>
       </c>
       <c r="F986">
-        <v>1660.314931347652</v>
+        <v>1361.146664471099</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -20273,13 +20183,13 @@
         <v>36</v>
       </c>
       <c r="D987">
-        <v>1392</v>
+        <v>1341.665946672603</v>
       </c>
       <c r="E987">
-        <v>1082.176604317674</v>
+        <v>1276.899124596195</v>
       </c>
       <c r="F987">
-        <v>1701.823395682326</v>
+        <v>1406.432768749011</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -20293,13 +20203,13 @@
         <v>36</v>
       </c>
       <c r="D988">
-        <v>1392</v>
+        <v>1375.723341322128</v>
       </c>
       <c r="E988">
-        <v>1045.606913117251</v>
+        <v>1310.889177972745</v>
       </c>
       <c r="F988">
-        <v>1738.393086882749</v>
+        <v>1440.55750467151</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -20313,13 +20223,13 @@
         <v>36</v>
       </c>
       <c r="D989">
-        <v>1392</v>
+        <v>1374.149503992355</v>
       </c>
       <c r="E989">
-        <v>1012.545385100943</v>
+        <v>1301.58806719008</v>
       </c>
       <c r="F989">
-        <v>1771.454614899057</v>
+        <v>1446.710940794631</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -20333,13 +20243,13 @@
         <v>36</v>
       </c>
       <c r="D990">
-        <v>1392</v>
+        <v>1445.136216421649</v>
       </c>
       <c r="E990">
-        <v>982.1421723375003</v>
+        <v>1368.719016210596</v>
       </c>
       <c r="F990">
-        <v>1801.8578276625</v>
+        <v>1521.553416632702</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -20353,13 +20263,13 @@
         <v>36</v>
       </c>
       <c r="D991">
-        <v>1392</v>
+        <v>1407.588544491021</v>
       </c>
       <c r="E991">
-        <v>953.8435518855676</v>
+        <v>1330.6824855989</v>
       </c>
       <c r="F991">
-        <v>1830.156448114432</v>
+        <v>1484.494603383141</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -20373,13 +20283,13 @@
         <v>36</v>
       </c>
       <c r="D992">
-        <v>1392</v>
+        <v>1438.369455542448</v>
       </c>
       <c r="E992">
-        <v>927.2649064765096</v>
+        <v>1360.28002323869</v>
       </c>
       <c r="F992">
-        <v>1856.73509352349</v>
+        <v>1516.458887846206</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -20393,13 +20303,13 @@
         <v>36</v>
       </c>
       <c r="D993">
-        <v>1392</v>
+        <v>1436.566982231785</v>
       </c>
       <c r="E993">
-        <v>902.1261986181346</v>
+        <v>1358.333656645075</v>
       </c>
       <c r="F993">
-        <v>1881.873801381865</v>
+        <v>1514.800307818496</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -20833,13 +20743,13 @@
         <v>37</v>
       </c>
       <c r="D1015">
-        <v>2562.732979179134</v>
+        <v>2542.921818231707</v>
       </c>
       <c r="E1015">
-        <v>2319.681878552701</v>
+        <v>2283.431895133805</v>
       </c>
       <c r="F1015">
-        <v>2805.784079805568</v>
+        <v>2802.411741329608</v>
       </c>
     </row>
     <row r="1016" spans="1:6">
@@ -20853,13 +20763,13 @@
         <v>37</v>
       </c>
       <c r="D1016">
-        <v>2740.198922717547</v>
+        <v>2764.906632851035</v>
       </c>
       <c r="E1016">
-        <v>2452.949414642543</v>
+        <v>2370.528815129803</v>
       </c>
       <c r="F1016">
-        <v>3027.44843079255</v>
+        <v>3159.284450572267</v>
       </c>
     </row>
     <row r="1017" spans="1:6">
@@ -20873,13 +20783,13 @@
         <v>37</v>
       </c>
       <c r="D1017">
-        <v>2658.611769755552</v>
+        <v>2760.826586569024</v>
       </c>
       <c r="E1017">
-        <v>2361.671800453282</v>
+        <v>2318.568047279663</v>
       </c>
       <c r="F1017">
-        <v>2955.551739057822</v>
+        <v>3203.085125858385</v>
       </c>
     </row>
     <row r="1018" spans="1:6">
@@ -20893,13 +20803,13 @@
         <v>37</v>
       </c>
       <c r="D1018">
-        <v>2641.59832934221</v>
+        <v>2817.890948370609</v>
       </c>
       <c r="E1018">
-        <v>2283.239544160923</v>
+        <v>2244.076818894182</v>
       </c>
       <c r="F1018">
-        <v>2999.957114523496</v>
+        <v>3391.705077847037</v>
       </c>
     </row>
     <row r="1019" spans="1:6">
@@ -20913,13 +20823,13 @@
         <v>37</v>
       </c>
       <c r="D1019">
-        <v>2660.108434412918</v>
+        <v>2915.102711571757</v>
       </c>
       <c r="E1019">
-        <v>2246.22915363932</v>
+        <v>2175.356137300256</v>
       </c>
       <c r="F1019">
-        <v>3073.987715186517</v>
+        <v>3654.849285843259</v>
       </c>
     </row>
     <row r="1020" spans="1:6">
@@ -20933,13 +20843,13 @@
         <v>37</v>
       </c>
       <c r="D1020">
-        <v>2654.585639486018</v>
+        <v>3038.560917426355</v>
       </c>
       <c r="E1020">
-        <v>2188.871607014383</v>
+        <v>2130.636939105211</v>
       </c>
       <c r="F1020">
-        <v>3120.299671957653</v>
+        <v>3946.484895747499</v>
       </c>
     </row>
     <row r="1021" spans="1:6">
@@ -20953,13 +20863,13 @@
         <v>37</v>
       </c>
       <c r="D1021">
-        <v>2703.103373374543</v>
+        <v>3179.066235854631</v>
       </c>
       <c r="E1021">
-        <v>2200.707953640474</v>
+        <v>2113.050432428272</v>
       </c>
       <c r="F1021">
-        <v>3205.498793108611</v>
+        <v>4245.082039280989</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -20973,13 +20883,13 @@
         <v>37</v>
       </c>
       <c r="D1022">
-        <v>2656.382715808989</v>
+        <v>3330.534371542083</v>
       </c>
       <c r="E1022">
-        <v>2121.230679068674</v>
+        <v>2120.275427569278</v>
       </c>
       <c r="F1022">
-        <v>3191.534752549303</v>
+        <v>4540.793315514888</v>
       </c>
     </row>
     <row r="1023" spans="1:6">
@@ -20993,13 +20903,13 @@
         <v>37</v>
       </c>
       <c r="D1023">
-        <v>2646.248988890832</v>
+        <v>3488.944756664634</v>
       </c>
       <c r="E1023">
-        <v>2055.445339258724</v>
+        <v>2148.693275154852</v>
       </c>
       <c r="F1023">
-        <v>3237.05263852294</v>
+        <v>4829.196238174414</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -21013,13 +20923,13 @@
         <v>37</v>
       </c>
       <c r="D1024">
-        <v>2689.028267477637</v>
+        <v>3651.643938666585</v>
       </c>
       <c r="E1024">
-        <v>2056.595842776118</v>
+        <v>2194.770614552082</v>
       </c>
       <c r="F1024">
-        <v>3321.460692179155</v>
+        <v>5108.517262781088</v>
       </c>
     </row>
     <row r="1025" spans="1:6">
@@ -21453,13 +21363,13 @@
         <v>38</v>
       </c>
       <c r="D1046">
-        <v>233.6332460263478</v>
+        <v>232.9743899596596</v>
       </c>
       <c r="E1046">
-        <v>196.9983469896191</v>
+        <v>196.2372839514283</v>
       </c>
       <c r="F1046">
-        <v>270.2681450630764</v>
+        <v>269.7114959678909</v>
       </c>
     </row>
     <row r="1047" spans="1:6">
@@ -21473,13 +21383,13 @@
         <v>38</v>
       </c>
       <c r="D1047">
-        <v>232.6533597944859</v>
+        <v>233.0654868108693</v>
       </c>
       <c r="E1047">
-        <v>195.9177272195953</v>
+        <v>196.282413967809</v>
       </c>
       <c r="F1047">
-        <v>269.3889923693765</v>
+        <v>269.8485596539296</v>
       </c>
     </row>
     <row r="1048" spans="1:6">
@@ -21493,13 +21403,13 @@
         <v>38</v>
       </c>
       <c r="D1048">
-        <v>233.8256509528911</v>
+        <v>233.9353409403062</v>
       </c>
       <c r="E1048">
-        <v>196.8881936934705</v>
+        <v>197.1519672251074</v>
       </c>
       <c r="F1048">
-        <v>270.7631082123117</v>
+        <v>270.718714655505</v>
       </c>
     </row>
     <row r="1049" spans="1:6">
@@ -21513,13 +21423,13 @@
         <v>38</v>
       </c>
       <c r="D1049">
-        <v>233.4305221000026</v>
+        <v>233.5519297794958</v>
       </c>
       <c r="E1049">
-        <v>196.0951469226935</v>
+        <v>196.4087876350221</v>
       </c>
       <c r="F1049">
-        <v>270.7658972773116</v>
+        <v>270.6950719239695</v>
       </c>
     </row>
     <row r="1050" spans="1:6">
@@ -21533,13 +21443,13 @@
         <v>38</v>
       </c>
       <c r="D1050">
-        <v>233.4305221000026</v>
+        <v>233.5398794701927</v>
       </c>
       <c r="E1050">
-        <v>196.0951469226935</v>
+        <v>196.3931243004286</v>
       </c>
       <c r="F1050">
-        <v>270.7658972773116</v>
+        <v>270.6866346399568</v>
       </c>
     </row>
     <row r="1051" spans="1:6">
@@ -21553,13 +21463,13 @@
         <v>38</v>
       </c>
       <c r="D1051">
-        <v>233.4305221000026</v>
+        <v>233.6643613380101</v>
       </c>
       <c r="E1051">
-        <v>196.0951469226935</v>
+        <v>196.5175949745005</v>
       </c>
       <c r="F1051">
-        <v>270.7658972773116</v>
+        <v>270.8111277015196</v>
       </c>
     </row>
     <row r="1052" spans="1:6">
@@ -21573,13 +21483,13 @@
         <v>38</v>
       </c>
       <c r="D1052">
-        <v>233.4305221000026</v>
+        <v>233.6166425540204</v>
       </c>
       <c r="E1052">
-        <v>196.0951469226935</v>
+        <v>196.4628629447957</v>
       </c>
       <c r="F1052">
-        <v>270.7658972773116</v>
+        <v>270.7704221632451</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -21593,13 +21503,13 @@
         <v>38</v>
       </c>
       <c r="D1053">
-        <v>233.4305221000026</v>
+        <v>233.6117408402941</v>
       </c>
       <c r="E1053">
-        <v>196.0951469226935</v>
+        <v>196.4578004159336</v>
       </c>
       <c r="F1053">
-        <v>270.7658972773116</v>
+        <v>270.7656812646546</v>
       </c>
     </row>
     <row r="1054" spans="1:6">
@@ -21613,13 +21523,13 @@
         <v>38</v>
       </c>
       <c r="D1054">
-        <v>233.4305221000026</v>
+        <v>233.6293491685387</v>
       </c>
       <c r="E1054">
-        <v>196.0951469226935</v>
+        <v>196.4754085954565</v>
       </c>
       <c r="F1054">
-        <v>270.7658972773116</v>
+        <v>270.7832897416209</v>
       </c>
     </row>
     <row r="1055" spans="1:6">
@@ -21633,13 +21543,13 @@
         <v>38</v>
       </c>
       <c r="D1055">
-        <v>233.4305221000026</v>
+        <v>233.6235383155253</v>
       </c>
       <c r="E1055">
-        <v>196.0951469226935</v>
+        <v>196.469460908262</v>
       </c>
       <c r="F1055">
-        <v>270.7658972773116</v>
+        <v>270.7776157227885</v>
       </c>
     </row>
     <row r="1056" spans="1:6">
@@ -22073,13 +21983,13 @@
         <v>39</v>
       </c>
       <c r="D1077">
-        <v>2086.844233881694</v>
+        <v>2105.170219392845</v>
       </c>
       <c r="E1077">
-        <v>1997.447933896396</v>
+        <v>1990.017411056332</v>
       </c>
       <c r="F1077">
-        <v>2176.240533866993</v>
+        <v>2220.323027729358</v>
       </c>
     </row>
     <row r="1078" spans="1:6">
@@ -22093,13 +22003,13 @@
         <v>39</v>
       </c>
       <c r="D1078">
-        <v>2106.880739233329</v>
+        <v>2117.107943784447</v>
       </c>
       <c r="E1078">
-        <v>2011.627926368035</v>
+        <v>1977.755225470697</v>
       </c>
       <c r="F1078">
-        <v>2202.133552098623</v>
+        <v>2256.460662098197</v>
       </c>
     </row>
     <row r="1079" spans="1:6">
@@ -22113,13 +22023,13 @@
         <v>39</v>
       </c>
       <c r="D1079">
-        <v>2125.390613579544</v>
+        <v>2127.845807047004</v>
       </c>
       <c r="E1079">
-        <v>2027.99829610476</v>
+        <v>1961.870437333956</v>
       </c>
       <c r="F1079">
-        <v>2222.782931054328</v>
+        <v>2293.821176760053</v>
       </c>
     </row>
     <row r="1080" spans="1:6">
@@ -22133,13 +22043,13 @@
         <v>39</v>
       </c>
       <c r="D1080">
-        <v>2131.502139734564</v>
+        <v>2138.965797666915</v>
       </c>
       <c r="E1080">
-        <v>2015.479352379408</v>
+        <v>1951.830614279472</v>
       </c>
       <c r="F1080">
-        <v>2247.524927089719</v>
+        <v>2326.100981054358</v>
       </c>
     </row>
     <row r="1081" spans="1:6">
@@ -22153,13 +22063,13 @@
         <v>39</v>
       </c>
       <c r="D1081">
-        <v>2133.520022257419</v>
+        <v>2149.964089772137</v>
       </c>
       <c r="E1081">
-        <v>1994.292830909488</v>
+        <v>1943.3302805902</v>
       </c>
       <c r="F1081">
-        <v>2272.74721360535</v>
+        <v>2356.597898954073</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -22173,13 +22083,13 @@
         <v>39</v>
       </c>
       <c r="D1082">
-        <v>2134.186279714684</v>
+        <v>2161.001139972513</v>
       </c>
       <c r="E1082">
-        <v>1972.835979504447</v>
+        <v>1936.703323023268</v>
       </c>
       <c r="F1082">
-        <v>2295.53657992492</v>
+        <v>2385.298956921758</v>
       </c>
     </row>
     <row r="1083" spans="1:6">
@@ -22193,13 +22103,13 @@
         <v>39</v>
       </c>
       <c r="D1083">
-        <v>2134.406262292625</v>
+        <v>2172.025846637359</v>
       </c>
       <c r="E1083">
-        <v>1952.932438360307</v>
+        <v>1931.313423303969</v>
       </c>
       <c r="F1083">
-        <v>2315.880086224943</v>
+        <v>2412.73826997075</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -22213,13 +22123,13 @@
         <v>39</v>
       </c>
       <c r="D1084">
-        <v>2134.478895377733</v>
+        <v>2183.054484425982</v>
       </c>
       <c r="E1084">
-        <v>1934.69193408917</v>
+        <v>1926.990535596397</v>
       </c>
       <c r="F1084">
-        <v>2334.265856666297</v>
+        <v>2439.118433255568</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -22233,13 +22143,13 @@
         <v>39</v>
       </c>
       <c r="D1085">
-        <v>2134.502877118023</v>
+        <v>2194.08187024477</v>
       </c>
       <c r="E1085">
-        <v>1917.882223477273</v>
+        <v>1923.532152627309</v>
       </c>
       <c r="F1085">
-        <v>2351.123530758773</v>
+        <v>2464.63158786223</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -22253,13 +22163,13 @@
         <v>39</v>
       </c>
       <c r="D1086">
-        <v>2134.510795325909</v>
+        <v>2205.109654786303</v>
       </c>
       <c r="E1086">
-        <v>1902.253806495143</v>
+        <v>1920.812494138324</v>
       </c>
       <c r="F1086">
-        <v>2366.767784156675</v>
+        <v>2489.406815434283</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -23313,13 +23223,13 @@
         <v>41</v>
       </c>
       <c r="D1139">
-        <v>1271.954861304915</v>
+        <v>1275.493050252995</v>
       </c>
       <c r="E1139">
-        <v>1189.922270328481</v>
+        <v>1205.043532434087</v>
       </c>
       <c r="F1139">
-        <v>1353.987452281348</v>
+        <v>1345.942568071903</v>
       </c>
     </row>
     <row r="1140" spans="1:6">
@@ -23333,13 +23243,13 @@
         <v>41</v>
       </c>
       <c r="D1140">
-        <v>1284.105503501012</v>
+        <v>1277.77814531993</v>
       </c>
       <c r="E1140">
-        <v>1202.315352242494</v>
+        <v>1205.387495645545</v>
       </c>
       <c r="F1140">
-        <v>1365.895654759531</v>
+        <v>1350.168794994315</v>
       </c>
     </row>
     <row r="1141" spans="1:6">
@@ -23353,13 +23263,13 @@
         <v>41</v>
       </c>
       <c r="D1141">
-        <v>1298.866440717625</v>
+        <v>1301.677884253029</v>
       </c>
       <c r="E1141">
-        <v>1215.927808920289</v>
+        <v>1226.368711335926</v>
       </c>
       <c r="F1141">
-        <v>1381.805072514962</v>
+        <v>1376.987057170131</v>
       </c>
     </row>
     <row r="1142" spans="1:6">
@@ -23373,13 +23283,13 @@
         <v>41</v>
       </c>
       <c r="D1142">
-        <v>1311.201189357449</v>
+        <v>1313.553882477548</v>
       </c>
       <c r="E1142">
-        <v>1228.227992227163</v>
+        <v>1236.902760673657</v>
       </c>
       <c r="F1142">
-        <v>1394.174386487735</v>
+        <v>1390.20500428144</v>
       </c>
     </row>
     <row r="1143" spans="1:6">
@@ -23393,13 +23303,13 @@
         <v>41</v>
       </c>
       <c r="D1143">
-        <v>1325.686005254395</v>
+        <v>1321.538440623526</v>
       </c>
       <c r="E1143">
-        <v>1241.086267492005</v>
+        <v>1244.642709187373</v>
       </c>
       <c r="F1143">
-        <v>1410.285743016785</v>
+        <v>1398.434172059679</v>
       </c>
     </row>
     <row r="1144" spans="1:6">
@@ -23413,13 +23323,13 @@
         <v>41</v>
       </c>
       <c r="D1144">
-        <v>1338.163024592415</v>
+        <v>1338.63840209999</v>
       </c>
       <c r="E1144">
-        <v>1253.062717222639</v>
+        <v>1260.892600836878</v>
       </c>
       <c r="F1144">
-        <v>1423.263331962192</v>
+        <v>1416.384203363102</v>
       </c>
     </row>
     <row r="1145" spans="1:6">
@@ -23433,13 +23343,13 @@
         <v>41</v>
       </c>
       <c r="D1145">
-        <v>1352.41019021644</v>
+        <v>1351.872606987195</v>
       </c>
       <c r="E1145">
-        <v>1265.140560256071</v>
+        <v>1274.180958793944</v>
       </c>
       <c r="F1145">
-        <v>1439.679820176808</v>
+        <v>1429.564255180447</v>
       </c>
     </row>
     <row r="1146" spans="1:6">
@@ -23453,13 +23363,13 @@
         <v>41</v>
       </c>
       <c r="D1146">
-        <v>1364.994983709095</v>
+        <v>1362.674097463096</v>
       </c>
       <c r="E1146">
-        <v>1276.619883596877</v>
+        <v>1284.94878524773</v>
       </c>
       <c r="F1146">
-        <v>1453.370083821313</v>
+        <v>1440.399409678463</v>
       </c>
     </row>
     <row r="1147" spans="1:6">
@@ -23473,13 +23383,13 @@
         <v>41</v>
       </c>
       <c r="D1147">
-        <v>1379.036299783007</v>
+        <v>1377.182539270243</v>
       </c>
       <c r="E1147">
-        <v>1287.907822926098</v>
+        <v>1299.184078483968</v>
       </c>
       <c r="F1147">
-        <v>1470.164776639917</v>
+        <v>1455.181000056517</v>
       </c>
     </row>
     <row r="1148" spans="1:6">
@@ -23493,13 +23403,13 @@
         <v>41</v>
       </c>
       <c r="D1148">
-        <v>1391.70042959933</v>
+        <v>1390.58266840991</v>
       </c>
       <c r="E1148">
-        <v>1298.775783541368</v>
+        <v>1312.681048277509</v>
       </c>
       <c r="F1148">
-        <v>1484.625075657292</v>
+        <v>1468.484288542311</v>
       </c>
     </row>
     <row r="1149" spans="1:6">
@@ -23933,13 +23843,13 @@
         <v>42</v>
       </c>
       <c r="D1170">
-        <v>1172.455026247633</v>
+        <v>1186.488368241415</v>
       </c>
       <c r="E1170">
-        <v>1078.755412303571</v>
+        <v>1086.998313988988</v>
       </c>
       <c r="F1170">
-        <v>1266.154640191695</v>
+        <v>1285.978422493841</v>
       </c>
     </row>
     <row r="1171" spans="1:6">
@@ -23953,13 +23863,13 @@
         <v>42</v>
       </c>
       <c r="D1171">
-        <v>1173.199476243721</v>
+        <v>1179.633409493737</v>
       </c>
       <c r="E1171">
-        <v>1078.078147780026</v>
+        <v>1072.118058291961</v>
       </c>
       <c r="F1171">
-        <v>1268.320804707416</v>
+        <v>1287.148760695512</v>
       </c>
     </row>
     <row r="1172" spans="1:6">
@@ -23973,13 +23883,13 @@
         <v>42</v>
       </c>
       <c r="D1172">
-        <v>1214.717310609749</v>
+        <v>1212.204795673805</v>
       </c>
       <c r="E1172">
-        <v>1118.777700285702</v>
+        <v>1094.274403952903</v>
       </c>
       <c r="F1172">
-        <v>1310.656920933797</v>
+        <v>1330.135187394707</v>
       </c>
     </row>
     <row r="1173" spans="1:6">
@@ -23993,13 +23903,13 @@
         <v>42</v>
       </c>
       <c r="D1173">
-        <v>1265.495462999308</v>
+        <v>1277.108654132626</v>
       </c>
       <c r="E1173">
-        <v>1167.736127413388</v>
+        <v>1148.724747634697</v>
       </c>
       <c r="F1173">
-        <v>1363.254798585227</v>
+        <v>1405.492560630555</v>
       </c>
     </row>
     <row r="1174" spans="1:6">
@@ -24013,13 +23923,13 @@
         <v>42</v>
       </c>
       <c r="D1174">
-        <v>1253.209338704301</v>
+        <v>1273.824876679808</v>
       </c>
       <c r="E1174">
-        <v>1146.844486927695</v>
+        <v>1124.088180832006</v>
       </c>
       <c r="F1174">
-        <v>1359.574190480908</v>
+        <v>1423.561572527609</v>
       </c>
     </row>
     <row r="1175" spans="1:6">
@@ -24033,13 +23943,13 @@
         <v>42</v>
       </c>
       <c r="D1175">
-        <v>1265.239006359303</v>
+        <v>1241.166413162001</v>
       </c>
       <c r="E1175">
-        <v>1158.710517002729</v>
+        <v>1076.878012843731</v>
       </c>
       <c r="F1175">
-        <v>1371.767495715877</v>
+        <v>1405.454813480271</v>
       </c>
     </row>
     <row r="1176" spans="1:6">
@@ -24053,13 +23963,13 @@
         <v>42</v>
       </c>
       <c r="D1176">
-        <v>1291.020237517237</v>
+        <v>1270.845651339504</v>
       </c>
       <c r="E1176">
-        <v>1184.680451337218</v>
+        <v>1103.641277103432</v>
       </c>
       <c r="F1176">
-        <v>1397.360023697255</v>
+        <v>1438.050025575577</v>
       </c>
     </row>
     <row r="1177" spans="1:6">
@@ -24073,13 +23983,13 @@
         <v>42</v>
       </c>
       <c r="D1177">
-        <v>1311.449530845333</v>
+        <v>1296.121296740482</v>
       </c>
       <c r="E1177">
-        <v>1205.246464453678</v>
+        <v>1122.886314556643</v>
       </c>
       <c r="F1177">
-        <v>1417.652597236988</v>
+        <v>1469.356278924322</v>
       </c>
     </row>
     <row r="1178" spans="1:6">
@@ -24093,13 +24003,13 @@
         <v>42</v>
       </c>
       <c r="D1178">
-        <v>1308.810085344424</v>
+        <v>1292.365077133074</v>
       </c>
       <c r="E1178">
-        <v>1202.635231324497</v>
+        <v>1113.860230302092</v>
       </c>
       <c r="F1178">
-        <v>1414.984939364351</v>
+        <v>1470.869923964057</v>
       </c>
     </row>
     <row r="1179" spans="1:6">
@@ -24113,13 +24023,13 @@
         <v>42</v>
       </c>
       <c r="D1179">
-        <v>1313.991295987105</v>
+        <v>1263.598106491359</v>
       </c>
       <c r="E1179">
-        <v>1207.847879461829</v>
+        <v>1081.658009736966</v>
       </c>
       <c r="F1179">
-        <v>1420.134712512382</v>
+        <v>1445.538203245752</v>
       </c>
     </row>
     <row r="1180" spans="1:6">
@@ -24553,13 +24463,13 @@
         <v>43</v>
       </c>
       <c r="D1201">
-        <v>1874.744875429167</v>
+        <v>1830.693716902425</v>
       </c>
       <c r="E1201">
-        <v>1744.931656953085</v>
+        <v>1715.0264294256</v>
       </c>
       <c r="F1201">
-        <v>2004.55809390525</v>
+        <v>1946.36100437925</v>
       </c>
     </row>
     <row r="1202" spans="1:6">
@@ -24573,13 +24483,13 @@
         <v>43</v>
       </c>
       <c r="D1202">
-        <v>1931.27897008474</v>
+        <v>1899.963463678107</v>
       </c>
       <c r="E1202">
-        <v>1801.444105802325</v>
+        <v>1782.050372539978</v>
       </c>
       <c r="F1202">
-        <v>2061.113834367154</v>
+        <v>2017.876554816237</v>
       </c>
     </row>
     <row r="1203" spans="1:6">
@@ -24593,13 +24503,13 @@
         <v>43</v>
       </c>
       <c r="D1203">
-        <v>1944.610999584841</v>
+        <v>1891.564068585405</v>
       </c>
       <c r="E1203">
-        <v>1813.597518514121</v>
+        <v>1773.270052413385</v>
       </c>
       <c r="F1203">
-        <v>2075.624480655561</v>
+        <v>2009.858084757424</v>
       </c>
     </row>
     <row r="1204" spans="1:6">
@@ -24613,13 +24523,13 @@
         <v>43</v>
       </c>
       <c r="D1204">
-        <v>1952.082768552621</v>
+        <v>1939.37652830736</v>
       </c>
       <c r="E1204">
-        <v>1808.587287200362</v>
+        <v>1819.820146922745</v>
       </c>
       <c r="F1204">
-        <v>2095.578249904881</v>
+        <v>2058.932909691976</v>
       </c>
     </row>
     <row r="1205" spans="1:6">
@@ -24633,13 +24543,13 @@
         <v>43</v>
       </c>
       <c r="D1205">
-        <v>1983.304867956139</v>
+        <v>1939.240040077087</v>
       </c>
       <c r="E1205">
-        <v>1832.081435290693</v>
+        <v>1819.607523872462</v>
       </c>
       <c r="F1205">
-        <v>2134.528300621586</v>
+        <v>2058.872556281711</v>
       </c>
     </row>
     <row r="1206" spans="1:6">
@@ -24653,13 +24563,13 @@
         <v>43</v>
       </c>
       <c r="D1206">
-        <v>2006.646933852001</v>
+        <v>1980.004205584466</v>
       </c>
       <c r="E1206">
-        <v>1846.546119367325</v>
+        <v>1859.604767142105</v>
       </c>
       <c r="F1206">
-        <v>2166.747748336678</v>
+        <v>2100.403644026828</v>
       </c>
     </row>
     <row r="1207" spans="1:6">
@@ -24673,13 +24583,13 @@
         <v>43</v>
       </c>
       <c r="D1207">
-        <v>2029.937477371095</v>
+        <v>1985.87994188514</v>
       </c>
       <c r="E1207">
-        <v>1865.390084063921</v>
+        <v>1865.529375384474</v>
       </c>
       <c r="F1207">
-        <v>2194.484870678269</v>
+        <v>2106.230508385806</v>
       </c>
     </row>
     <row r="1208" spans="1:6">
@@ -24693,13 +24603,13 @@
         <v>43</v>
       </c>
       <c r="D1208">
-        <v>2049.004715198783</v>
+        <v>2021.515654647774</v>
       </c>
       <c r="E1208">
-        <v>1876.919452969905</v>
+        <v>1900.685184686413</v>
       </c>
       <c r="F1208">
-        <v>2221.089977427661</v>
+        <v>2142.346124609135</v>
       </c>
     </row>
     <row r="1209" spans="1:6">
@@ -24713,13 +24623,13 @@
         <v>43</v>
       </c>
       <c r="D1209">
-        <v>2070.786922987084</v>
+        <v>2031.765982652352</v>
       </c>
       <c r="E1209">
-        <v>1889.253883476382</v>
+        <v>1911.02576304558</v>
       </c>
       <c r="F1209">
-        <v>2252.319962497786</v>
+        <v>2152.506202259123</v>
       </c>
     </row>
     <row r="1210" spans="1:6">
@@ -24733,13 +24643,13 @@
         <v>43</v>
       </c>
       <c r="D1210">
-        <v>2095.827618481625</v>
+        <v>2063.670150341186</v>
       </c>
       <c r="E1210">
-        <v>1907.244399588218</v>
+        <v>1942.62146027875</v>
       </c>
       <c r="F1210">
-        <v>2284.410837375032</v>
+        <v>2184.718840403623</v>
       </c>
     </row>
     <row r="1211" spans="1:6">
@@ -26353,13 +26263,13 @@
         <v>46</v>
       </c>
       <c r="D1294">
-        <v>1269.649669288349</v>
+        <v>1273.486086136025</v>
       </c>
       <c r="E1294">
-        <v>1173.175291704478</v>
+        <v>1207.637437824969</v>
       </c>
       <c r="F1294">
-        <v>1366.12404687222</v>
+        <v>1339.334734447081</v>
       </c>
     </row>
     <row r="1295" spans="1:6">
@@ -26373,13 +26283,13 @@
         <v>46</v>
       </c>
       <c r="D1295">
-        <v>1265.471857396017</v>
+        <v>1222.995784325816</v>
       </c>
       <c r="E1295">
-        <v>1157.5128929028</v>
+        <v>1155.021262154756</v>
       </c>
       <c r="F1295">
-        <v>1373.430821889235</v>
+        <v>1290.970306496875</v>
       </c>
     </row>
     <row r="1296" spans="1:6">
@@ -26393,13 +26303,13 @@
         <v>46</v>
       </c>
       <c r="D1296">
-        <v>1291.272912563635</v>
+        <v>1237.853735788604</v>
       </c>
       <c r="E1296">
-        <v>1178.381970585614</v>
+        <v>1169.898157707471</v>
       </c>
       <c r="F1296">
-        <v>1404.163854541657</v>
+        <v>1305.809313869737</v>
       </c>
     </row>
     <row r="1297" spans="1:6">
@@ -26413,13 +26323,13 @@
         <v>46</v>
       </c>
       <c r="D1297">
-        <v>1266.183921998958</v>
+        <v>1222.572587652577</v>
       </c>
       <c r="E1297">
-        <v>1125.812354101471</v>
+        <v>1145.820888226421</v>
       </c>
       <c r="F1297">
-        <v>1406.555489896445</v>
+        <v>1299.324287078732</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -26433,13 +26343,13 @@
         <v>46</v>
       </c>
       <c r="D1298">
-        <v>1275.349667293395</v>
+        <v>1228.621093916891</v>
       </c>
       <c r="E1298">
-        <v>1129.526350409289</v>
+        <v>1151.685236874187</v>
       </c>
       <c r="F1298">
-        <v>1421.1729841775</v>
+        <v>1305.556950959595</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -26453,13 +26363,13 @@
         <v>46</v>
       </c>
       <c r="D1299">
-        <v>1282.975306848673</v>
+        <v>1263.301703387853</v>
       </c>
       <c r="E1299">
-        <v>1128.201821401145</v>
+        <v>1181.74332015258</v>
       </c>
       <c r="F1299">
-        <v>1437.748792296202</v>
+        <v>1344.860086623125</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -26473,13 +26383,13 @@
         <v>46</v>
       </c>
       <c r="D1300">
-        <v>1268.273130624832</v>
+        <v>1244.67258449177</v>
       </c>
       <c r="E1300">
-        <v>1098.72842023259</v>
+        <v>1154.20853973794</v>
       </c>
       <c r="F1300">
-        <v>1437.817841017074</v>
+        <v>1335.136629245601</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -26493,13 +26403,13 @@
         <v>46</v>
       </c>
       <c r="D1301">
-        <v>1278.894707696859</v>
+        <v>1223.967255182886</v>
       </c>
       <c r="E1301">
-        <v>1104.293870606173</v>
+        <v>1133.50858145637</v>
       </c>
       <c r="F1301">
-        <v>1453.495544787545</v>
+        <v>1314.425928909403</v>
       </c>
     </row>
     <row r="1302" spans="1:6">
@@ -26513,13 +26423,13 @@
         <v>46</v>
       </c>
       <c r="D1302">
-        <v>1277.662141223116</v>
+        <v>1213.958279652253</v>
       </c>
       <c r="E1302">
-        <v>1093.226593983779</v>
+        <v>1122.653687263544</v>
       </c>
       <c r="F1302">
-        <v>1462.097688462452</v>
+        <v>1305.262872040962</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -26533,13 +26443,13 @@
         <v>46</v>
       </c>
       <c r="D1303">
-        <v>1271.558653646714</v>
+        <v>1191.816106599236</v>
       </c>
       <c r="E1303">
-        <v>1077.775010393732</v>
+        <v>1099.731383908795</v>
       </c>
       <c r="F1303">
-        <v>1465.342296899695</v>
+        <v>1283.900829289677</v>
       </c>
     </row>
     <row r="1304" spans="1:6">
@@ -28213,13 +28123,13 @@
         <v>49</v>
       </c>
       <c r="D1387">
-        <v>1731.529990618612</v>
+        <v>1765.288321133686</v>
       </c>
       <c r="E1387">
-        <v>1675.222992602485</v>
+        <v>1721.996722720199</v>
       </c>
       <c r="F1387">
-        <v>1787.836988634739</v>
+        <v>1808.579919547172</v>
       </c>
     </row>
     <row r="1388" spans="1:6">
@@ -28233,13 +28143,13 @@
         <v>49</v>
       </c>
       <c r="D1388">
-        <v>1740.950662367944</v>
+        <v>1740.955326595138</v>
       </c>
       <c r="E1388">
-        <v>1684.602319666944</v>
+        <v>1697.708973175014</v>
       </c>
       <c r="F1388">
-        <v>1797.299005068944</v>
+        <v>1784.201680015261</v>
       </c>
     </row>
     <row r="1389" spans="1:6">
@@ -28253,13 +28163,13 @@
         <v>49</v>
       </c>
       <c r="D1389">
-        <v>1781.108075483907</v>
+        <v>1815.529368143417</v>
       </c>
       <c r="E1389">
-        <v>1715.070208616818</v>
+        <v>1745.048326539968</v>
       </c>
       <c r="F1389">
-        <v>1847.145942350995</v>
+        <v>1886.010409746866</v>
       </c>
     </row>
     <row r="1390" spans="1:6">
@@ -28273,13 +28183,13 @@
         <v>49</v>
       </c>
       <c r="D1390">
-        <v>1878.802101942187</v>
+        <v>1881.860290802424</v>
       </c>
       <c r="E1390">
-        <v>1808.83990898739</v>
+        <v>1801.802714168583</v>
       </c>
       <c r="F1390">
-        <v>1948.764294896984</v>
+        <v>1961.917867436264</v>
       </c>
     </row>
     <row r="1391" spans="1:6">
@@ -28293,13 +28203,13 @@
         <v>49</v>
       </c>
       <c r="D1391">
-        <v>1785.710794278616</v>
+        <v>1855.403283642753</v>
       </c>
       <c r="E1391">
-        <v>1693.036663072808</v>
+        <v>1750.57341657931</v>
       </c>
       <c r="F1391">
-        <v>1878.384925484423</v>
+        <v>1960.233150706196</v>
       </c>
     </row>
     <row r="1392" spans="1:6">
@@ -28313,13 +28223,13 @@
         <v>49</v>
       </c>
       <c r="D1392">
-        <v>1865.591884169258</v>
+        <v>1868.215651135671</v>
       </c>
       <c r="E1392">
-        <v>1759.678983957477</v>
+        <v>1745.432788761577</v>
       </c>
       <c r="F1392">
-        <v>1971.504784381039</v>
+        <v>1990.998513509765</v>
       </c>
     </row>
     <row r="1393" spans="1:6">
@@ -28333,13 +28243,13 @@
         <v>49</v>
       </c>
       <c r="D1393">
-        <v>1865.772464547635</v>
+        <v>1922.356241669841</v>
       </c>
       <c r="E1393">
-        <v>1755.600161006113</v>
+        <v>1781.86051048123</v>
       </c>
       <c r="F1393">
-        <v>1975.944768089158</v>
+        <v>2062.851972858452</v>
       </c>
     </row>
     <row r="1394" spans="1:6">
@@ -28353,13 +28263,13 @@
         <v>49</v>
       </c>
       <c r="D1394">
-        <v>1950.983469426655</v>
+        <v>1978.426829415611</v>
       </c>
       <c r="E1394">
-        <v>1821.191080882194</v>
+        <v>1809.169948309625</v>
       </c>
       <c r="F1394">
-        <v>2080.775857971116</v>
+        <v>2147.683710521598</v>
       </c>
     </row>
     <row r="1395" spans="1:6">
@@ -28373,13 +28283,13 @@
         <v>49</v>
       </c>
       <c r="D1395">
-        <v>1923.936682934339</v>
+        <v>1997.776810520315</v>
       </c>
       <c r="E1395">
-        <v>1781.015958161298</v>
+        <v>1804.770416636227</v>
       </c>
       <c r="F1395">
-        <v>2066.857407707381</v>
+        <v>2190.783204404403</v>
       </c>
     </row>
     <row r="1396" spans="1:6">
@@ -28393,13 +28303,13 @@
         <v>49</v>
       </c>
       <c r="D1396">
-        <v>1912.896580423168</v>
+        <v>1957.535452189216</v>
       </c>
       <c r="E1396">
-        <v>1745.91981061979</v>
+        <v>1737.322036144031</v>
       </c>
       <c r="F1396">
-        <v>2079.873350226547</v>
+        <v>2177.748868234402</v>
       </c>
     </row>
     <row r="1397" spans="1:6">
@@ -28833,13 +28743,13 @@
         <v>50</v>
       </c>
       <c r="D1418">
-        <v>1219.471862539597</v>
+        <v>1227.996443972967</v>
       </c>
       <c r="E1418">
-        <v>1104.212797101148</v>
+        <v>1116.032323204783</v>
       </c>
       <c r="F1418">
-        <v>1334.730927978045</v>
+        <v>1339.96056474115</v>
       </c>
     </row>
     <row r="1419" spans="1:6">
@@ -28853,13 +28763,13 @@
         <v>50</v>
       </c>
       <c r="D1419">
-        <v>1218.790924994846</v>
+        <v>1235.003150497789</v>
       </c>
       <c r="E1419">
-        <v>1093.494517437367</v>
+        <v>1114.361501054374</v>
       </c>
       <c r="F1419">
-        <v>1344.087332552324</v>
+        <v>1355.644799941205</v>
       </c>
     </row>
     <row r="1420" spans="1:6">
@@ -28873,13 +28783,13 @@
         <v>50</v>
       </c>
       <c r="D1420">
-        <v>1226.141157719757</v>
+        <v>1244.490142525488</v>
       </c>
       <c r="E1420">
-        <v>1091.841432722283</v>
+        <v>1115.335428001221</v>
       </c>
       <c r="F1420">
-        <v>1360.440882717232</v>
+        <v>1373.644857049756</v>
       </c>
     </row>
     <row r="1421" spans="1:6">
@@ -28893,13 +28803,13 @@
         <v>50</v>
       </c>
       <c r="D1421">
-        <v>1229.23738967486</v>
+        <v>1257.747096309967</v>
       </c>
       <c r="E1421">
-        <v>1080.717872180542</v>
+        <v>1119.933713984381</v>
       </c>
       <c r="F1421">
-        <v>1377.756907169178</v>
+        <v>1395.560478635552</v>
       </c>
     </row>
     <row r="1422" spans="1:6">
@@ -28913,13 +28823,13 @@
         <v>50</v>
       </c>
       <c r="D1422">
-        <v>1230.541654815651</v>
+        <v>1262.165893040406</v>
       </c>
       <c r="E1422">
-        <v>1066.452616394484</v>
+        <v>1112.312791697281</v>
       </c>
       <c r="F1422">
-        <v>1394.630693236817</v>
+        <v>1412.018994383532</v>
       </c>
     </row>
     <row r="1423" spans="1:6">
@@ -28933,13 +28843,13 @@
         <v>50</v>
       </c>
       <c r="D1423">
-        <v>1231.091066998636</v>
+        <v>1270.107569114288</v>
       </c>
       <c r="E1423">
-        <v>1051.723610980598</v>
+        <v>1111.652230424367</v>
       </c>
       <c r="F1423">
-        <v>1410.458523016674</v>
+        <v>1428.56290780421</v>
       </c>
     </row>
     <row r="1424" spans="1:6">
@@ -28953,13 +28863,13 @@
         <v>50</v>
       </c>
       <c r="D1424">
-        <v>1231.322502875722</v>
+        <v>1278.31944468326</v>
       </c>
       <c r="E1424">
-        <v>1037.454921199551</v>
+        <v>1111.614846564724</v>
       </c>
       <c r="F1424">
-        <v>1425.190084551894</v>
+        <v>1445.024042801797</v>
       </c>
     </row>
     <row r="1425" spans="1:6">
@@ -28973,13 +28883,13 @@
         <v>50</v>
       </c>
       <c r="D1425">
-        <v>1231.41999355187</v>
+        <v>1286.773696577404</v>
       </c>
       <c r="E1425">
-        <v>1023.894955710506</v>
+        <v>1112.091232063026</v>
       </c>
       <c r="F1425">
-        <v>1438.945031393234</v>
+        <v>1461.456161091783</v>
       </c>
     </row>
     <row r="1426" spans="1:6">
@@ -28993,13 +28903,13 @@
         <v>50</v>
       </c>
       <c r="D1426">
-        <v>1231.461060788529</v>
+        <v>1294.339234707343</v>
       </c>
       <c r="E1426">
-        <v>1011.056239794265</v>
+        <v>1111.734053068467</v>
       </c>
       <c r="F1426">
-        <v>1451.865881782793</v>
+        <v>1476.944416346219</v>
       </c>
     </row>
     <row r="1427" spans="1:6">
@@ -29013,13 +28923,13 @@
         <v>50</v>
       </c>
       <c r="D1427">
-        <v>1231.478360062608</v>
+        <v>1302.302737031918</v>
       </c>
       <c r="E1427">
-        <v>998.8790497243604</v>
+        <v>1112.326940077905</v>
       </c>
       <c r="F1427">
-        <v>1464.077670400855</v>
+        <v>1492.278533985931</v>
       </c>
     </row>
     <row r="1428" spans="1:6">
@@ -30073,13 +29983,13 @@
         <v>52</v>
       </c>
       <c r="D1480">
-        <v>924.0645604228673</v>
+        <v>929.1691817283336</v>
       </c>
       <c r="E1480">
-        <v>859.4364976297268</v>
+        <v>872.6346841212379</v>
       </c>
       <c r="F1480">
-        <v>988.6926232160079</v>
+        <v>985.7036793354292</v>
       </c>
     </row>
     <row r="1481" spans="1:6">
@@ -30093,13 +30003,13 @@
         <v>52</v>
       </c>
       <c r="D1481">
-        <v>897.2919309310805</v>
+        <v>882.6336677782332</v>
       </c>
       <c r="E1481">
-        <v>829.5399889960497</v>
+        <v>808.7418200910445</v>
       </c>
       <c r="F1481">
-        <v>965.0438728661113</v>
+        <v>956.5255154654219</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -30113,13 +30023,13 @@
         <v>52</v>
       </c>
       <c r="D1482">
-        <v>915.6403695707462</v>
+        <v>953.5661675613017</v>
       </c>
       <c r="E1482">
-        <v>831.0240653606232</v>
+        <v>863.6873438586018</v>
       </c>
       <c r="F1482">
-        <v>1000.256673780869</v>
+        <v>1043.444991264001</v>
       </c>
     </row>
     <row r="1483" spans="1:6">
@@ -30133,13 +30043,13 @@
         <v>52</v>
       </c>
       <c r="D1483">
-        <v>903.0653925548779</v>
+        <v>906.981894259629</v>
       </c>
       <c r="E1483">
-        <v>813.3259631873362</v>
+        <v>808.7835211266438</v>
       </c>
       <c r="F1483">
-        <v>992.8048219224196</v>
+        <v>1005.180267392614</v>
       </c>
     </row>
     <row r="1484" spans="1:6">
@@ -30153,13 +30063,13 @@
         <v>52</v>
       </c>
       <c r="D1484">
-        <v>911.6835671066771</v>
+        <v>953.2917994908474</v>
       </c>
       <c r="E1484">
-        <v>811.6738113339869</v>
+        <v>825.9454830521045</v>
       </c>
       <c r="F1484">
-        <v>1011.693322879367</v>
+        <v>1080.63811592959</v>
       </c>
     </row>
     <row r="1485" spans="1:6">
@@ -30173,13 +30083,13 @@
         <v>52</v>
       </c>
       <c r="D1485">
-        <v>905.7771600801231</v>
+        <v>906.8069313723074</v>
       </c>
       <c r="E1485">
-        <v>800.0251285931657</v>
+        <v>757.5505476984113</v>
       </c>
       <c r="F1485">
-        <v>1011.52919156708</v>
+        <v>1056.063315046204</v>
       </c>
     </row>
     <row r="1486" spans="1:6">
@@ -30193,13 +30103,13 @@
         <v>52</v>
       </c>
       <c r="D1486">
-        <v>909.8250757673312</v>
+        <v>968.6957399251579</v>
       </c>
       <c r="E1486">
-        <v>796.3778689799683</v>
+        <v>794.7247036040376</v>
       </c>
       <c r="F1486">
-        <v>1023.272282554694</v>
+        <v>1142.666776246278</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -30213,13 +30123,13 @@
         <v>52</v>
       </c>
       <c r="D1487">
-        <v>907.0508644173379</v>
+        <v>928.7598271557101</v>
       </c>
       <c r="E1487">
-        <v>787.8824365569079</v>
+        <v>739.1750709107106</v>
       </c>
       <c r="F1487">
-        <v>1026.219292277768</v>
+        <v>1118.34458340071</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -30233,13 +30143,13 @@
         <v>52</v>
       </c>
       <c r="D1488">
-        <v>908.9521512051908</v>
+        <v>976.7239233275129</v>
       </c>
       <c r="E1488">
-        <v>783.3681074293938</v>
+        <v>759.3630371831169</v>
       </c>
       <c r="F1488">
-        <v>1034.536194980988</v>
+        <v>1194.084809471909</v>
       </c>
     </row>
     <row r="1489" spans="1:6">
@@ -30253,13 +30163,13 @@
         <v>52</v>
       </c>
       <c r="D1489">
-        <v>907.6491172998351</v>
+        <v>933.9529798604257</v>
       </c>
       <c r="E1489">
-        <v>776.5942038026045</v>
+        <v>693.0127244137377</v>
       </c>
       <c r="F1489">
-        <v>1038.704030797066</v>
+        <v>1174.893235307114</v>
       </c>
     </row>
     <row r="1490" spans="1:6">
@@ -30693,13 +30603,13 @@
         <v>53</v>
       </c>
       <c r="D1511">
-        <v>731.7518449294772</v>
+        <v>708.023749634433</v>
       </c>
       <c r="E1511">
-        <v>669.1369951047706</v>
+        <v>652.2345717300075</v>
       </c>
       <c r="F1511">
-        <v>794.3666947541839</v>
+        <v>763.8129275388585</v>
       </c>
     </row>
     <row r="1512" spans="1:6">
@@ -30713,13 +30623,13 @@
         <v>53</v>
       </c>
       <c r="D1512">
-        <v>770.2973769042588</v>
+        <v>732.7016240638907</v>
       </c>
       <c r="E1512">
-        <v>704.9773048335763</v>
+        <v>672.8101727819661</v>
       </c>
       <c r="F1512">
-        <v>835.6174489749413</v>
+        <v>792.5930753458152</v>
       </c>
     </row>
     <row r="1513" spans="1:6">
@@ -30733,13 +30643,13 @@
         <v>53</v>
       </c>
       <c r="D1513">
-        <v>714.1040167373494</v>
+        <v>689.3301025056406</v>
       </c>
       <c r="E1513">
-        <v>648.6490824397243</v>
+        <v>629.3330757698816</v>
       </c>
       <c r="F1513">
-        <v>779.5589510349745</v>
+        <v>749.3271292413997</v>
       </c>
     </row>
     <row r="1514" spans="1:6">
@@ -30753,13 +30663,13 @@
         <v>53</v>
       </c>
       <c r="D1514">
-        <v>715.9604800734041</v>
+        <v>696.2044629126042</v>
       </c>
       <c r="E1514">
-        <v>648.9272503395107</v>
+        <v>630.5860104867536</v>
       </c>
       <c r="F1514">
-        <v>782.9937098072976</v>
+        <v>761.8229153384548</v>
       </c>
     </row>
     <row r="1515" spans="1:6">
@@ -30773,13 +30683,13 @@
         <v>53</v>
       </c>
       <c r="D1515">
-        <v>747.7538185420805</v>
+        <v>739.8530710532872</v>
       </c>
       <c r="E1515">
-        <v>675.7415099818029</v>
+        <v>665.5200361283989</v>
       </c>
       <c r="F1515">
-        <v>819.766127102358</v>
+        <v>814.1861059781754</v>
       </c>
     </row>
     <row r="1516" spans="1:6">
@@ -30793,13 +30703,13 @@
         <v>53</v>
       </c>
       <c r="D1516">
-        <v>699.5868810698892</v>
+        <v>713.3362638732333</v>
       </c>
       <c r="E1516">
-        <v>624.5819935794698</v>
+        <v>638.2680632379457</v>
       </c>
       <c r="F1516">
-        <v>774.5917685603085</v>
+        <v>788.4044645085208</v>
       </c>
     </row>
     <row r="1517" spans="1:6">
@@ -30813,13 +30723,13 @@
         <v>53</v>
       </c>
       <c r="D1517">
-        <v>770.9238268368399</v>
+        <v>754.1580268717255</v>
       </c>
       <c r="E1517">
-        <v>691.8810250923066</v>
+        <v>678.4188709259109</v>
       </c>
       <c r="F1517">
-        <v>849.9666285813732</v>
+        <v>829.8971828175401</v>
       </c>
     </row>
     <row r="1518" spans="1:6">
@@ -30833,13 +30743,13 @@
         <v>53</v>
       </c>
       <c r="D1518">
-        <v>734.4830512706217</v>
+        <v>745.1746685191505</v>
       </c>
       <c r="E1518">
-        <v>654.844855587298</v>
+        <v>667.851492929576</v>
       </c>
       <c r="F1518">
-        <v>814.1212469539454</v>
+        <v>822.497844108725</v>
       </c>
     </row>
     <row r="1519" spans="1:6">
@@ -30853,13 +30763,13 @@
         <v>53</v>
       </c>
       <c r="D1519">
-        <v>754.0286549206378</v>
+        <v>755.0764455089542</v>
       </c>
       <c r="E1519">
-        <v>674.2539207057885</v>
+        <v>677.3340149649925</v>
       </c>
       <c r="F1519">
-        <v>833.8033891354871</v>
+        <v>832.8188760529158</v>
       </c>
     </row>
     <row r="1520" spans="1:6">
@@ -30873,13 +30783,13 @@
         <v>53</v>
       </c>
       <c r="D1520">
-        <v>781.8488329258113</v>
+        <v>785.3504152932907</v>
       </c>
       <c r="E1520">
-        <v>702.2136316405765</v>
+        <v>707.571786742712</v>
       </c>
       <c r="F1520">
-        <v>861.484034211046</v>
+        <v>863.1290438438693</v>
       </c>
     </row>
     <row r="1521" spans="1:6">
@@ -31313,13 +31223,13 @@
         <v>54</v>
       </c>
       <c r="D1542">
-        <v>1662.866031306961</v>
+        <v>1616.572711261415</v>
       </c>
       <c r="E1542">
-        <v>1503.928920855022</v>
+        <v>1521.643110425324</v>
       </c>
       <c r="F1542">
-        <v>1821.8031417589</v>
+        <v>1711.502312097505</v>
       </c>
     </row>
     <row r="1543" spans="1:6">
@@ -31333,13 +31243,13 @@
         <v>54</v>
       </c>
       <c r="D1543">
-        <v>1661.205342632916</v>
+        <v>1627.542291022284</v>
       </c>
       <c r="E1543">
-        <v>1478.227176513442</v>
+        <v>1530.586520921977</v>
       </c>
       <c r="F1543">
-        <v>1844.18350875239</v>
+        <v>1724.498061122591</v>
       </c>
     </row>
     <row r="1544" spans="1:6">
@@ -31353,13 +31263,13 @@
         <v>54</v>
       </c>
       <c r="D1544">
-        <v>1661.918706455691</v>
+        <v>1630.493514149199</v>
       </c>
       <c r="E1544">
-        <v>1443.106088962576</v>
+        <v>1533.085242564868</v>
       </c>
       <c r="F1544">
-        <v>1880.731323948806</v>
+        <v>1727.901785733529</v>
       </c>
     </row>
     <row r="1545" spans="1:6">
@@ -31373,13 +31283,13 @@
         <v>54</v>
       </c>
       <c r="D1545">
-        <v>1661.612274581013</v>
+        <v>1687.70504343227</v>
       </c>
       <c r="E1545">
-        <v>1417.865753469483</v>
+        <v>1585.06131005985</v>
       </c>
       <c r="F1545">
-        <v>1905.358795692543</v>
+        <v>1790.34877680469</v>
       </c>
     </row>
     <row r="1546" spans="1:6">
@@ -31393,13 +31303,13 @@
         <v>54</v>
       </c>
       <c r="D1546">
-        <v>1661.743905161119</v>
+        <v>1694.849660511105</v>
       </c>
       <c r="E1546">
-        <v>1393.159886276541</v>
+        <v>1592.158099819813</v>
       </c>
       <c r="F1546">
-        <v>1930.327924045697</v>
+        <v>1797.541221202397</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -31413,13 +31323,13 @@
         <v>54</v>
       </c>
       <c r="D1547">
-        <v>1661.68736205627</v>
+        <v>1665.419069356414</v>
       </c>
       <c r="E1547">
-        <v>1371.268106529731</v>
+        <v>1551.700714438662</v>
       </c>
       <c r="F1547">
-        <v>1952.106617582808</v>
+        <v>1779.137424274166</v>
       </c>
     </row>
     <row r="1548" spans="1:6">
@@ -31433,13 +31343,13 @@
         <v>54</v>
       </c>
       <c r="D1548">
-        <v>1661.711650657774</v>
+        <v>1684.815418064033</v>
       </c>
       <c r="E1548">
-        <v>1350.631360461055</v>
+        <v>1571.028820051759</v>
       </c>
       <c r="F1548">
-        <v>1972.791940854494</v>
+        <v>1798.602016076307</v>
       </c>
     </row>
     <row r="1549" spans="1:6">
@@ -31453,13 +31363,13 @@
         <v>54</v>
       </c>
       <c r="D1549">
-        <v>1661.701217269572</v>
+        <v>1713.911629159482</v>
       </c>
       <c r="E1549">
-        <v>1331.393632388764</v>
+        <v>1598.57232636117</v>
       </c>
       <c r="F1549">
-        <v>1992.008802150381</v>
+        <v>1829.250931957794</v>
       </c>
     </row>
     <row r="1550" spans="1:6">
@@ -31473,13 +31383,13 @@
         <v>54</v>
       </c>
       <c r="D1550">
-        <v>1661.705699025731</v>
+        <v>1728.629321150608</v>
       </c>
       <c r="E1550">
-        <v>1313.171324347575</v>
+        <v>1613.236729921449</v>
       </c>
       <c r="F1550">
-        <v>2010.240073703887</v>
+        <v>1844.021912379766</v>
       </c>
     </row>
     <row r="1551" spans="1:6">
@@ -31493,13 +31403,13 @@
         <v>54</v>
       </c>
       <c r="D1551">
-        <v>1661.703773846884</v>
+        <v>1729.465087935652</v>
       </c>
       <c r="E1551">
-        <v>1295.873596459715</v>
+        <v>1613.502830888438</v>
       </c>
       <c r="F1551">
-        <v>2027.533951234054</v>
+        <v>1845.427344982867</v>
       </c>
     </row>
     <row r="1552" spans="1:6">
@@ -31933,13 +31843,13 @@
         <v>55</v>
       </c>
       <c r="D1573">
-        <v>42801.42764568273</v>
+        <v>42336.61512979856</v>
       </c>
       <c r="E1573">
-        <v>40775.17840529727</v>
+        <v>40455.68727956792</v>
       </c>
       <c r="F1573">
-        <v>44827.67688606818</v>
+        <v>44217.5429800292</v>
       </c>
     </row>
     <row r="1574" spans="1:6">
@@ -31953,13 +31863,13 @@
         <v>55</v>
       </c>
       <c r="D1574">
-        <v>43181.13664266432</v>
+        <v>42991.33560764467</v>
       </c>
       <c r="E1574">
-        <v>40427.36293226368</v>
+        <v>40899.47907964139</v>
       </c>
       <c r="F1574">
-        <v>45934.91035306497</v>
+        <v>45083.19213564794</v>
       </c>
     </row>
     <row r="1575" spans="1:6">
@@ -31973,13 +31883,13 @@
         <v>55</v>
       </c>
       <c r="D1575">
-        <v>43746.69654148265</v>
+        <v>43297.07073411818</v>
       </c>
       <c r="E1575">
-        <v>40451.5204261344</v>
+        <v>40774.09754392227</v>
       </c>
       <c r="F1575">
-        <v>47041.8726568309</v>
+        <v>45820.04392431409</v>
       </c>
     </row>
     <row r="1576" spans="1:6">
@@ -31993,13 +31903,13 @@
         <v>55</v>
       </c>
       <c r="D1576">
-        <v>44137.44474103583</v>
+        <v>43781.88474860421</v>
       </c>
       <c r="E1576">
-        <v>40319.92864472319</v>
+        <v>41006.64034145465</v>
       </c>
       <c r="F1576">
-        <v>47954.96083734848</v>
+        <v>46557.12915575376</v>
       </c>
     </row>
     <row r="1577" spans="1:6">
@@ -32013,13 +31923,13 @@
         <v>55</v>
       </c>
       <c r="D1577">
-        <v>44692.45803047653</v>
+        <v>44174.80849206138</v>
       </c>
       <c r="E1577">
-        <v>40436.54138288742</v>
+        <v>41115.95881996892</v>
       </c>
       <c r="F1577">
-        <v>48948.37467806565</v>
+        <v>47233.65816415385</v>
       </c>
     </row>
     <row r="1578" spans="1:6">
@@ -32033,13 +31943,13 @@
         <v>55</v>
       </c>
       <c r="D1578">
-        <v>45092.95352732181</v>
+        <v>44614.88619325606</v>
       </c>
       <c r="E1578">
-        <v>40395.42976781459</v>
+        <v>41322.03161837911</v>
       </c>
       <c r="F1578">
-        <v>49790.47728682904</v>
+        <v>47907.74076813302</v>
       </c>
     </row>
     <row r="1579" spans="1:6">
@@ -32053,13 +31963,13 @@
         <v>55</v>
       </c>
       <c r="D1579">
-        <v>45638.63482218283</v>
+        <v>45030.76915055577</v>
       </c>
       <c r="E1579">
-        <v>40552.39752929241</v>
+        <v>41507.48024832492</v>
       </c>
       <c r="F1579">
-        <v>50724.87211507325</v>
+        <v>48554.05805278663</v>
       </c>
     </row>
     <row r="1580" spans="1:6">
@@ -32073,13 +31983,13 @@
         <v>55</v>
       </c>
       <c r="D1580">
-        <v>46047.7357273969</v>
+        <v>45459.06900332695</v>
       </c>
       <c r="E1580">
-        <v>40564.7321306913</v>
+        <v>41725.46283106528</v>
       </c>
       <c r="F1580">
-        <v>51530.73932410249</v>
+        <v>49192.67517558861</v>
       </c>
     </row>
     <row r="1581" spans="1:6">
@@ -32093,13 +32003,13 @@
         <v>55</v>
       </c>
       <c r="D1581">
-        <v>46585.15860466111</v>
+        <v>45880.99897423785</v>
       </c>
       <c r="E1581">
-        <v>40743.12931410799</v>
+        <v>41945.52919199524</v>
       </c>
       <c r="F1581">
-        <v>52427.18789521424</v>
+        <v>49816.46875648047</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -32113,13 +32023,13 @@
         <v>55</v>
       </c>
       <c r="D1582">
-        <v>47001.8556259532</v>
+        <v>46306.19924852726</v>
       </c>
       <c r="E1582">
-        <v>40791.91592370954</v>
+        <v>42180.19152596955</v>
       </c>
       <c r="F1582">
-        <v>53211.79532819685</v>
+        <v>50432.20697108497</v>
       </c>
     </row>
   </sheetData>

--- a/data/final_data/unrolled_deceases_timeseries.xlsx
+++ b/data/final_data/unrolled_deceases_timeseries.xlsx
@@ -1613,13 +1613,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>2162.973798025148</v>
+        <v>2014.763839933553</v>
       </c>
       <c r="E54">
-        <v>2010.942540169917</v>
+        <v>1877.56032067678</v>
       </c>
       <c r="F54">
-        <v>2315.005055880378</v>
+        <v>2151.967359190327</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1633,13 +1633,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>2339.898379798753</v>
+        <v>2098.758021712983</v>
       </c>
       <c r="E55">
-        <v>2161.030758821546</v>
+        <v>1957.855945718141</v>
       </c>
       <c r="F55">
-        <v>2518.766000775959</v>
+        <v>2239.660097707824</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1653,13 +1653,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>2485.91095234054</v>
+        <v>2188.507378654239</v>
       </c>
       <c r="E56">
-        <v>2270.056602747373</v>
+        <v>2037.067317703676</v>
       </c>
       <c r="F56">
-        <v>2701.765301933706</v>
+        <v>2339.947439604802</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1673,13 +1673,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>2671.197652871331</v>
+        <v>2284.202240767033</v>
       </c>
       <c r="E57">
-        <v>2428.903565314386</v>
+        <v>2113.906514874167</v>
       </c>
       <c r="F57">
-        <v>2913.491740428276</v>
+        <v>2454.497966659899</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1693,13 +1693,13 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>2866.590239773503</v>
+        <v>2385.991002463772</v>
       </c>
       <c r="E58">
-        <v>2599.495203850848</v>
+        <v>2188.811842229206</v>
       </c>
       <c r="F58">
-        <v>3133.685275696158</v>
+        <v>2583.170162698339</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1713,13 +1713,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>3083.557015009892</v>
+        <v>2493.979507679515</v>
       </c>
       <c r="E59">
-        <v>2795.861793563105</v>
+        <v>2263.175745742781</v>
       </c>
       <c r="F59">
-        <v>3371.252236456679</v>
+        <v>2724.783269616249</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1733,13 +1733,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>3316.471068282102</v>
+        <v>2608.230728203032</v>
       </c>
       <c r="E60">
-        <v>3011.119123177936</v>
+        <v>2338.548326623483</v>
       </c>
       <c r="F60">
-        <v>3621.823013386268</v>
+        <v>2877.913129782581</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1753,13 +1753,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>3566.433993450794</v>
+        <v>2728.764734680696</v>
       </c>
       <c r="E61">
-        <v>3246.627043371498</v>
+        <v>2416.268071763337</v>
       </c>
       <c r="F61">
-        <v>3886.24094353009</v>
+        <v>3041.261397598056</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1773,13 +1773,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>3831.466067338196</v>
+        <v>2855.558957782222</v>
       </c>
       <c r="E62">
-        <v>3500.128856384001</v>
+        <v>2497.392300532123</v>
       </c>
       <c r="F62">
-        <v>4162.803278292391</v>
+        <v>3213.725615032321</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1793,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>4110.572616001107</v>
+        <v>2988.548735079835</v>
       </c>
       <c r="E63">
-        <v>3770.532108406276</v>
+        <v>2582.734002177512</v>
       </c>
       <c r="F63">
-        <v>4450.613123595939</v>
+        <v>3394.363467982158</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2233,7 +2233,13 @@
         <v>7</v>
       </c>
       <c r="D85">
-        <v>19536.42757995087</v>
+        <v>1995.272704068444</v>
+      </c>
+      <c r="E85">
+        <v>1886.190439890184</v>
+      </c>
+      <c r="F85">
+        <v>2104.354968246704</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2247,13 +2253,13 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>2150.643039340763</v>
+        <v>2034.512357182267</v>
       </c>
       <c r="E86">
-        <v>1226.421687197299</v>
+        <v>1916.101827374996</v>
       </c>
       <c r="F86">
-        <v>3074.864391484226</v>
+        <v>2152.922886989538</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2267,7 +2273,13 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>21342.25380984863</v>
+        <v>2043.167060317796</v>
+      </c>
+      <c r="E87">
+        <v>1898.892401030345</v>
+      </c>
+      <c r="F87">
+        <v>2187.441719605246</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2281,13 +2293,13 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>2326.080731863627</v>
+        <v>2069.482822308353</v>
       </c>
       <c r="E88">
-        <v>148.5126496245603</v>
+        <v>1912.685104292935</v>
       </c>
       <c r="F88">
-        <v>4503.648814102694</v>
+        <v>2226.280540323771</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2301,7 +2313,13 @@
         <v>7</v>
       </c>
       <c r="D89">
-        <v>23114.84943265772</v>
+        <v>2085.600583086595</v>
+      </c>
+      <c r="E89">
+        <v>1912.424359832104</v>
+      </c>
+      <c r="F89">
+        <v>2258.776806341087</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2315,13 +2333,13 @@
         <v>7</v>
       </c>
       <c r="D90">
-        <v>2534.194089552388</v>
+        <v>2107.60721167126</v>
       </c>
       <c r="E90">
-        <v>-1155.822766680332</v>
+        <v>1922.104103438638</v>
       </c>
       <c r="F90">
-        <v>6224.210945785107</v>
+        <v>2293.110319903883</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2335,7 +2353,13 @@
         <v>7</v>
       </c>
       <c r="D91">
-        <v>24855.31537404534</v>
+        <v>2126.21354482549</v>
+      </c>
+      <c r="E91">
+        <v>1927.758152560148</v>
+      </c>
+      <c r="F91">
+        <v>2324.668937090832</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2349,13 +2373,13 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <v>2773.899959442246</v>
+        <v>2146.78349472645</v>
       </c>
       <c r="E92">
-        <v>-2629.649618228686</v>
+        <v>1936.946978932461</v>
       </c>
       <c r="F92">
-        <v>8177.449537113178</v>
+        <v>2356.62001052044</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2369,7 +2393,13 @@
         <v>7</v>
       </c>
       <c r="D93">
-        <v>26564.71729928184</v>
+        <v>2166.219736706791</v>
+      </c>
+      <c r="E93">
+        <v>1945.173535513269</v>
+      </c>
+      <c r="F93">
+        <v>2387.265937900313</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2383,13 +2413,13 @@
         <v>7</v>
       </c>
       <c r="D94">
-        <v>3044.149883513766</v>
+        <v>2186.310782479335</v>
       </c>
       <c r="E94">
-        <v>-4235.66427998073</v>
+        <v>1954.834115488446</v>
       </c>
       <c r="F94">
-        <v>10323.96404700826</v>
+        <v>2417.787449470225</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2823,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>1235.39601553023</v>
+        <v>1274.500750005696</v>
       </c>
       <c r="E116">
-        <v>1122.194456698403</v>
+        <v>1171.468721047641</v>
       </c>
       <c r="F116">
-        <v>1348.597574362057</v>
+        <v>1377.532778963752</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2843,13 +2873,13 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <v>1416.200287078104</v>
+        <v>1415.991268920234</v>
       </c>
       <c r="E117">
-        <v>1279.178667481919</v>
+        <v>1278.560776828935</v>
       </c>
       <c r="F117">
-        <v>1553.22190667429</v>
+        <v>1553.421761011533</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2863,13 +2893,13 @@
         <v>8</v>
       </c>
       <c r="D118">
-        <v>1443.709904799191</v>
+        <v>1520.138947767443</v>
       </c>
       <c r="E118">
-        <v>1244.923226279969</v>
+        <v>1319.933729152934</v>
       </c>
       <c r="F118">
-        <v>1642.496583318413</v>
+        <v>1720.344166381952</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2883,13 +2913,13 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>1361.994760091937</v>
+        <v>1564.572479042049</v>
       </c>
       <c r="E119">
-        <v>1090.324645591051</v>
+        <v>1292.432680018747</v>
       </c>
       <c r="F119">
-        <v>1633.664874592823</v>
+        <v>1836.71227806535</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2903,13 +2933,13 @@
         <v>8</v>
       </c>
       <c r="D120">
-        <v>1494.947871006993</v>
+        <v>1681.84482175537</v>
       </c>
       <c r="E120">
-        <v>1206.272449107585</v>
+        <v>1350.425640341893</v>
       </c>
       <c r="F120">
-        <v>1783.623292906401</v>
+        <v>2013.264003168847</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2923,13 +2953,13 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>1441.43451349511</v>
+        <v>1734.064160439636</v>
       </c>
       <c r="E121">
-        <v>1104.192982557763</v>
+        <v>1323.963850439706</v>
       </c>
       <c r="F121">
-        <v>1778.676044432456</v>
+        <v>2144.164470439566</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2943,13 +2973,13 @@
         <v>8</v>
       </c>
       <c r="D122">
-        <v>1481.269525313272</v>
+        <v>1878.238266998676</v>
       </c>
       <c r="E122">
-        <v>1118.296497145467</v>
+        <v>1406.29072757013</v>
       </c>
       <c r="F122">
-        <v>1844.242553481077</v>
+        <v>2350.185806427222</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2963,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <v>1519.709623244461</v>
+        <v>1903.100654581942</v>
       </c>
       <c r="E123">
-        <v>1132.292645476286</v>
+        <v>1355.282348579743</v>
       </c>
       <c r="F123">
-        <v>1907.126601012636</v>
+        <v>2450.918960584141</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2983,13 +3013,13 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>1506.281236413256</v>
+        <v>2000.927163793127</v>
       </c>
       <c r="E124">
-        <v>1088.778199752569</v>
+        <v>1385.057143776769</v>
       </c>
       <c r="F124">
-        <v>1923.784273073942</v>
+        <v>2616.797183809485</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3003,13 +3033,13 @@
         <v>8</v>
       </c>
       <c r="D125">
-        <v>1553.874646709018</v>
+        <v>2142.253551489644</v>
       </c>
       <c r="E125">
-        <v>1116.569022540551</v>
+        <v>1463.871402597814</v>
       </c>
       <c r="F125">
-        <v>1991.180270877485</v>
+        <v>2820.635700381473</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4063,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="D178">
-        <v>1896.318692382041</v>
+        <v>1869.564536579986</v>
       </c>
       <c r="E178">
-        <v>1755.988656570975</v>
+        <v>1735.763677953638</v>
       </c>
       <c r="F178">
-        <v>2036.648728193107</v>
+        <v>2003.365395206333</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4083,13 +4113,13 @@
         <v>10</v>
       </c>
       <c r="D179">
-        <v>1907.060260345429</v>
+        <v>1835.148456328631</v>
       </c>
       <c r="E179">
-        <v>1755.531766360398</v>
+        <v>1691.664478170152</v>
       </c>
       <c r="F179">
-        <v>2058.588754330459</v>
+        <v>1978.632434487109</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4103,13 +4133,13 @@
         <v>10</v>
       </c>
       <c r="D180">
-        <v>2004.791467130346</v>
+        <v>1959.831253047142</v>
       </c>
       <c r="E180">
-        <v>1853.782039973255</v>
+        <v>1814.615700975712</v>
       </c>
       <c r="F180">
-        <v>2155.800894287437</v>
+        <v>2105.046805118573</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4123,13 +4153,13 @@
         <v>10</v>
       </c>
       <c r="D181">
-        <v>1988.835717230747</v>
+        <v>1985.586404227325</v>
       </c>
       <c r="E181">
-        <v>1804.167602230101</v>
+        <v>1814.686551007311</v>
       </c>
       <c r="F181">
-        <v>2173.503832231394</v>
+        <v>2156.486257447339</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4143,13 +4173,13 @@
         <v>10</v>
       </c>
       <c r="D182">
-        <v>2026.597589547459</v>
+        <v>2011.342025251656</v>
       </c>
       <c r="E182">
-        <v>1824.377343520886</v>
+        <v>1818.16778211705</v>
       </c>
       <c r="F182">
-        <v>2228.817835574032</v>
+        <v>2204.516268386261</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4163,13 +4193,13 @@
         <v>10</v>
       </c>
       <c r="D183">
-        <v>2051.667691022139</v>
+        <v>2037.098115840117</v>
       </c>
       <c r="E183">
-        <v>1823.186749074519</v>
+        <v>1823.987456247325</v>
       </c>
       <c r="F183">
-        <v>2280.14863296976</v>
+        <v>2250.20877543291</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4183,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="D184">
-        <v>2067.461120209885</v>
+        <v>2062.854675712859</v>
       </c>
       <c r="E184">
-        <v>1804.881196652988</v>
+        <v>1831.540243802795</v>
       </c>
       <c r="F184">
-        <v>2330.041043766782</v>
+        <v>2294.169107622923</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4203,13 +4233,13 @@
         <v>10</v>
       </c>
       <c r="D185">
-        <v>2089.611956128545</v>
+        <v>2088.611704590195</v>
       </c>
       <c r="E185">
-        <v>1793.244452459139</v>
+        <v>1840.444544705533</v>
       </c>
       <c r="F185">
-        <v>2385.979459797952</v>
+        <v>2336.778864474857</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4223,13 +4253,13 @@
         <v>10</v>
       </c>
       <c r="D186">
-        <v>2106.271576538312</v>
+        <v>2114.36920219261</v>
       </c>
       <c r="E186">
-        <v>1772.361638443288</v>
+        <v>1850.441402926237</v>
       </c>
       <c r="F186">
-        <v>2440.181514633336</v>
+        <v>2378.297001458983</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4243,13 +4273,13 @@
         <v>10</v>
       </c>
       <c r="D187">
-        <v>2122.073710162988</v>
+        <v>2140.127168240751</v>
       </c>
       <c r="E187">
-        <v>1749.262193899129</v>
+        <v>1861.345515643621</v>
       </c>
       <c r="F187">
-        <v>2494.885226426847</v>
+        <v>2418.908820837882</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5303,13 +5333,13 @@
         <v>12</v>
       </c>
       <c r="D240">
-        <v>1265.63400812691</v>
+        <v>1261.302355633769</v>
       </c>
       <c r="E240">
-        <v>1171.501509253697</v>
+        <v>1175.24281571139</v>
       </c>
       <c r="F240">
-        <v>1359.766507000123</v>
+        <v>1347.361895556147</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5323,13 +5353,13 @@
         <v>12</v>
       </c>
       <c r="D241">
-        <v>1275.467576096748</v>
+        <v>1285.458699149636</v>
       </c>
       <c r="E241">
-        <v>1165.999508213389</v>
+        <v>1190.625761399496</v>
       </c>
       <c r="F241">
-        <v>1384.935643980106</v>
+        <v>1380.291636899776</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5343,13 +5373,13 @@
         <v>12</v>
       </c>
       <c r="D242">
-        <v>1381.628654516115</v>
+        <v>1347.187900024468</v>
       </c>
       <c r="E242">
-        <v>1268.861966729792</v>
+        <v>1252.11758281136</v>
       </c>
       <c r="F242">
-        <v>1494.395342302437</v>
+        <v>1442.258217237576</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5363,13 +5393,13 @@
         <v>12</v>
       </c>
       <c r="D243">
-        <v>1297.242915054472</v>
+        <v>1270.029481806925</v>
       </c>
       <c r="E243">
-        <v>1151.772800258997</v>
+        <v>1169.378767631534</v>
       </c>
       <c r="F243">
-        <v>1442.713029849948</v>
+        <v>1370.680195982315</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5383,13 +5413,13 @@
         <v>12</v>
       </c>
       <c r="D244">
-        <v>1347.383348825813</v>
+        <v>1380.617667616356</v>
       </c>
       <c r="E244">
-        <v>1194.864065361418</v>
+        <v>1279.966762309584</v>
       </c>
       <c r="F244">
-        <v>1499.902632290209</v>
+        <v>1481.268572923128</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5403,13 +5433,13 @@
         <v>12</v>
       </c>
       <c r="D245">
-        <v>1398.658778701525</v>
+        <v>1396.319643285866</v>
       </c>
       <c r="E245">
-        <v>1238.596104966997</v>
+        <v>1288.965583671545</v>
       </c>
       <c r="F245">
-        <v>1558.721452436053</v>
+        <v>1503.673702900187</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5423,13 +5453,13 @@
         <v>12</v>
       </c>
       <c r="D246">
-        <v>1342.961601072564</v>
+        <v>1349.803657268904</v>
       </c>
       <c r="E246">
-        <v>1161.912880889171</v>
+        <v>1230.054862041072</v>
       </c>
       <c r="F246">
-        <v>1524.010321255956</v>
+        <v>1469.552452496737</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5443,13 +5473,13 @@
         <v>12</v>
       </c>
       <c r="D247">
-        <v>1404.333302112038</v>
+        <v>1437.096843607394</v>
       </c>
       <c r="E247">
-        <v>1217.707588101852</v>
+        <v>1316.752035726994</v>
       </c>
       <c r="F247">
-        <v>1590.959016122224</v>
+        <v>1557.441651487794</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5463,13 +5493,13 @@
         <v>12</v>
       </c>
       <c r="D248">
-        <v>1420.468747575101</v>
+        <v>1403.383644471293</v>
       </c>
       <c r="E248">
-        <v>1223.482684999763</v>
+        <v>1278.330608008668</v>
       </c>
       <c r="F248">
-        <v>1617.454810150438</v>
+        <v>1528.436680933918</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5483,13 +5513,13 @@
         <v>12</v>
       </c>
       <c r="D249">
-        <v>1394.5070820825</v>
+        <v>1419.475010744264</v>
       </c>
       <c r="E249">
-        <v>1182.975633616226</v>
+        <v>1292.365675258853</v>
       </c>
       <c r="F249">
-        <v>1606.038530548774</v>
+        <v>1546.584346229675</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9023,13 +9053,13 @@
         <v>18</v>
       </c>
       <c r="D426">
-        <v>523.7940626648025</v>
+        <v>530.9644736906104</v>
       </c>
       <c r="E426">
-        <v>457.3518808279986</v>
+        <v>476.4095790325615</v>
       </c>
       <c r="F426">
-        <v>590.2362445016064</v>
+        <v>585.5193683486592</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9043,13 +9073,13 @@
         <v>18</v>
       </c>
       <c r="D427">
-        <v>702.3748171471598</v>
+        <v>672.5223030046509</v>
       </c>
       <c r="E427">
-        <v>635.8525769218272</v>
+        <v>614.2592774135121</v>
       </c>
       <c r="F427">
-        <v>768.8970573724923</v>
+        <v>730.7853285957897</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9063,13 +9093,13 @@
         <v>18</v>
       </c>
       <c r="D428">
-        <v>578.8445136900475</v>
+        <v>608.0934424495596</v>
       </c>
       <c r="E428">
-        <v>493.8225542895953</v>
+        <v>537.5920137585526</v>
       </c>
       <c r="F428">
-        <v>663.8664730904998</v>
+        <v>678.5948711405665</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9083,13 +9113,13 @@
         <v>18</v>
       </c>
       <c r="D429">
-        <v>664.1511893078132</v>
+        <v>605.1149691023064</v>
       </c>
       <c r="E429">
-        <v>566.6950595881862</v>
+        <v>532.8079020924785</v>
       </c>
       <c r="F429">
-        <v>761.6073190274402</v>
+        <v>677.4220361121344</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9103,13 +9133,13 @@
         <v>18</v>
       </c>
       <c r="D430">
-        <v>637.7206134005872</v>
+        <v>679.8530530680247</v>
       </c>
       <c r="E430">
-        <v>539.7560170797422</v>
+        <v>607.5363034657547</v>
       </c>
       <c r="F430">
-        <v>735.6852097214323</v>
+        <v>752.1698026702946</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9123,13 +9153,13 @@
         <v>18</v>
       </c>
       <c r="D431">
-        <v>613.3415413453542</v>
+        <v>599.3647920060843</v>
       </c>
       <c r="E431">
-        <v>497.2583866521787</v>
+        <v>516.608102679844</v>
       </c>
       <c r="F431">
-        <v>729.4246960385298</v>
+        <v>682.1214813323245</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9143,13 +9173,13 @@
         <v>18</v>
       </c>
       <c r="D432">
-        <v>710.2590797335085</v>
+        <v>671.0781240192963</v>
       </c>
       <c r="E432">
-        <v>594.2037320273066</v>
+        <v>588.3029658511911</v>
       </c>
       <c r="F432">
-        <v>826.3144274397105</v>
+        <v>753.8532821874015</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9163,13 +9193,13 @@
         <v>18</v>
       </c>
       <c r="D433">
-        <v>596.8387617227947</v>
+        <v>655.7797532964546</v>
       </c>
       <c r="E433">
-        <v>460.9791848691769</v>
+        <v>569.250826969615</v>
       </c>
       <c r="F433">
-        <v>732.6983385764125</v>
+        <v>742.3086796232942</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9183,13 +9213,13 @@
         <v>18</v>
       </c>
       <c r="D434">
-        <v>722.0880591785369</v>
+        <v>640.2557104556051</v>
       </c>
       <c r="E434">
-        <v>585.6391173577452</v>
+        <v>551.1678969232445</v>
       </c>
       <c r="F434">
-        <v>858.5370009993286</v>
+        <v>729.3435239879658</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9203,13 +9233,13 @@
         <v>18</v>
       </c>
       <c r="D435">
-        <v>625.0488451060634</v>
+        <v>693.5553548904943</v>
       </c>
       <c r="E435">
-        <v>482.4512011307705</v>
+        <v>604.2993851312918</v>
       </c>
       <c r="F435">
-        <v>767.6464890813562</v>
+        <v>782.8113246496968</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -10883,13 +10913,13 @@
         <v>21</v>
       </c>
       <c r="D519">
-        <v>1742.787458156606</v>
+        <v>1718.701320955121</v>
       </c>
       <c r="E519">
-        <v>1628.232552911662</v>
+        <v>1617.070070389516</v>
       </c>
       <c r="F519">
-        <v>1857.34236340155</v>
+        <v>1820.332571520727</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -10903,13 +10933,13 @@
         <v>21</v>
       </c>
       <c r="D520">
-        <v>1659.583862906983</v>
+        <v>1636.238703248618</v>
       </c>
       <c r="E520">
-        <v>1541.946130245509</v>
+        <v>1531.513628601317</v>
       </c>
       <c r="F520">
-        <v>1777.221595568458</v>
+        <v>1740.963777895919</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -10923,13 +10953,13 @@
         <v>21</v>
       </c>
       <c r="D521">
-        <v>1586.889187004135</v>
+        <v>1575.181933978658</v>
       </c>
       <c r="E521">
-        <v>1469.614289996359</v>
+        <v>1466.957184589176</v>
       </c>
       <c r="F521">
-        <v>1704.164084011912</v>
+        <v>1683.406683368139</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -10943,13 +10973,13 @@
         <v>21</v>
       </c>
       <c r="D522">
-        <v>1676.565325958104</v>
+        <v>1711.762733717471</v>
       </c>
       <c r="E522">
-        <v>1556.500257218279</v>
+        <v>1595.36091718452</v>
       </c>
       <c r="F522">
-        <v>1796.63039469793</v>
+        <v>1828.164550250423</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -10963,13 +10993,13 @@
         <v>21</v>
       </c>
       <c r="D523">
-        <v>1769.75461288793</v>
+        <v>1723.824108928059</v>
       </c>
       <c r="E523">
-        <v>1649.679434279228</v>
+        <v>1606.023771045702</v>
       </c>
       <c r="F523">
-        <v>1889.829791496631</v>
+        <v>1841.624446810415</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -10983,13 +11013,13 @@
         <v>21</v>
       </c>
       <c r="D524">
-        <v>1716.970106560899</v>
+        <v>1696.617892721851</v>
       </c>
       <c r="E524">
-        <v>1592.061816223025</v>
+        <v>1570.927292983895</v>
       </c>
       <c r="F524">
-        <v>1841.878396898774</v>
+        <v>1822.308492459807</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -11003,13 +11033,13 @@
         <v>21</v>
       </c>
       <c r="D525">
-        <v>1636.831471406376</v>
+        <v>1696.889092711093</v>
       </c>
       <c r="E525">
-        <v>1511.207155644569</v>
+        <v>1571.025562616657</v>
       </c>
       <c r="F525">
-        <v>1762.455787168184</v>
+        <v>1822.75262280553</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -11023,13 +11053,13 @@
         <v>21</v>
       </c>
       <c r="D526">
-        <v>1685.751469955235</v>
+        <v>1666.026595265316</v>
       </c>
       <c r="E526">
-        <v>1559.205916147872</v>
+        <v>1540.320754299262</v>
       </c>
       <c r="F526">
-        <v>1812.297023762597</v>
+        <v>1791.73243623137</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -11043,13 +11073,13 @@
         <v>21</v>
       </c>
       <c r="D527">
-        <v>1780.77730568738</v>
+        <v>1748.7986900699</v>
       </c>
       <c r="E527">
-        <v>1653.919704235797</v>
+        <v>1622.686076237721</v>
       </c>
       <c r="F527">
-        <v>1907.634907138964</v>
+        <v>1874.911303902078</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -11063,13 +11093,13 @@
         <v>21</v>
       </c>
       <c r="D528">
-        <v>1765.319511482155</v>
+        <v>1733.721632815481</v>
       </c>
       <c r="E528">
-        <v>1635.911099462847</v>
+        <v>1607.012753788272</v>
       </c>
       <c r="F528">
-        <v>1894.727923501464</v>
+        <v>1860.430511842691</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -12123,7 +12153,13 @@
         <v>23</v>
       </c>
       <c r="D581">
-        <v>-9561.413960931612</v>
+        <v>2647.287526757496</v>
+      </c>
+      <c r="E581">
+        <v>2381.37805860563</v>
+      </c>
+      <c r="F581">
+        <v>2913.196994909363</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -12137,7 +12173,13 @@
         <v>23</v>
       </c>
       <c r="D582">
-        <v>-9632.340585330472</v>
+        <v>2720.119466214548</v>
+      </c>
+      <c r="E582">
+        <v>2359.258942318364</v>
+      </c>
+      <c r="F582">
+        <v>3080.979990110733</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -12151,7 +12193,13 @@
         <v>23</v>
       </c>
       <c r="D583">
-        <v>-9827.49314136945</v>
+        <v>2732.848073759783</v>
+      </c>
+      <c r="E583">
+        <v>2282.627423176636</v>
+      </c>
+      <c r="F583">
+        <v>3183.06872434293</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -12165,7 +12213,13 @@
         <v>23</v>
       </c>
       <c r="D584">
-        <v>-9621.368127398222</v>
+        <v>2766.118143023503</v>
+      </c>
+      <c r="E584">
+        <v>2254.451977375883</v>
+      </c>
+      <c r="F584">
+        <v>3277.784308671124</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -12179,7 +12233,13 @@
         <v>23</v>
       </c>
       <c r="D585">
-        <v>-9533.068456418032</v>
+        <v>2820.53555486262</v>
+      </c>
+      <c r="E585">
+        <v>2243.826446914272</v>
+      </c>
+      <c r="F585">
+        <v>3397.244662810967</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -12193,7 +12253,13 @@
         <v>23</v>
       </c>
       <c r="D586">
-        <v>-9042.086321627772</v>
+        <v>2815.201822519648</v>
+      </c>
+      <c r="E586">
+        <v>2187.25689382675</v>
+      </c>
+      <c r="F586">
+        <v>3443.146751212546</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -12207,7 +12273,13 @@
         <v>23</v>
       </c>
       <c r="D587">
-        <v>-8672.538253131344</v>
+        <v>2900.374207735532</v>
+      </c>
+      <c r="E587">
+        <v>2221.453761245152</v>
+      </c>
+      <c r="F587">
+        <v>3579.294654225912</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -12221,7 +12293,13 @@
         <v>23</v>
       </c>
       <c r="D588">
-        <v>-7908.859915252378</v>
+        <v>2875.878020696026</v>
+      </c>
+      <c r="E588">
+        <v>2149.885472852971</v>
+      </c>
+      <c r="F588">
+        <v>3601.870568539081</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -12235,7 +12313,13 @@
         <v>23</v>
       </c>
       <c r="D589">
-        <v>-7279.954444399581</v>
+        <v>2966.366902102404</v>
+      </c>
+      <c r="E589">
+        <v>2198.833960444502</v>
+      </c>
+      <c r="F589">
+        <v>3733.899843760305</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -12249,7 +12333,13 @@
         <v>23</v>
       </c>
       <c r="D590">
-        <v>-6274.803398585475</v>
+        <v>2950.91487080584</v>
+      </c>
+      <c r="E590">
+        <v>2138.999925948156</v>
+      </c>
+      <c r="F590">
+        <v>3762.829815663524</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -14543,13 +14633,13 @@
         <v>27</v>
       </c>
       <c r="D705">
-        <v>1824.571843650917</v>
+        <v>1840.71148009339</v>
       </c>
       <c r="E705">
-        <v>1739.634650962887</v>
+        <v>1748.275871742236</v>
       </c>
       <c r="F705">
-        <v>1909.509036338946</v>
+        <v>1933.147088444544</v>
       </c>
     </row>
     <row r="706" spans="1:6">
@@ -14563,13 +14653,13 @@
         <v>27</v>
       </c>
       <c r="D706">
-        <v>1826.348019928516</v>
+        <v>1789.116783172724</v>
       </c>
       <c r="E706">
-        <v>1703.729230522576</v>
+        <v>1673.521446646647</v>
       </c>
       <c r="F706">
-        <v>1948.966809334456</v>
+        <v>1904.712119698801</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -14583,13 +14673,13 @@
         <v>27</v>
       </c>
       <c r="D707">
-        <v>1805.582387866124</v>
+        <v>1779.103302764139</v>
       </c>
       <c r="E707">
-        <v>1674.670416631121</v>
+        <v>1645.173993039589</v>
       </c>
       <c r="F707">
-        <v>1936.494359101126</v>
+        <v>1913.032612488689</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -14603,13 +14693,13 @@
         <v>27</v>
       </c>
       <c r="D708">
-        <v>1860.26325662507</v>
+        <v>1826.477934752699</v>
       </c>
       <c r="E708">
-        <v>1723.189326292121</v>
+        <v>1677.235593870521</v>
       </c>
       <c r="F708">
-        <v>1997.337186958018</v>
+        <v>1975.720275634878</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -14623,13 +14713,13 @@
         <v>27</v>
       </c>
       <c r="D709">
-        <v>1826.709797057737</v>
+        <v>1847.61995926456</v>
       </c>
       <c r="E709">
-        <v>1675.509569998204</v>
+        <v>1681.111482845435</v>
       </c>
       <c r="F709">
-        <v>1977.91002411727</v>
+        <v>2014.128435683684</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -14643,13 +14733,13 @@
         <v>27</v>
       </c>
       <c r="D710">
-        <v>1848.86707651807</v>
+        <v>1805.084143567686</v>
       </c>
       <c r="E710">
-        <v>1678.781438431469</v>
+        <v>1621.97923513048</v>
       </c>
       <c r="F710">
-        <v>2018.952714604671</v>
+        <v>1988.189052004892</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -14663,13 +14753,13 @@
         <v>27</v>
       </c>
       <c r="D711">
-        <v>1847.636912598632</v>
+        <v>1776.206639400274</v>
       </c>
       <c r="E711">
-        <v>1667.638490422208</v>
+        <v>1580.508515868115</v>
       </c>
       <c r="F711">
-        <v>2027.635334775055</v>
+        <v>1971.904762932433</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -14683,13 +14773,13 @@
         <v>27</v>
       </c>
       <c r="D712">
-        <v>1843.209031368289</v>
+        <v>1813.687611847501</v>
       </c>
       <c r="E712">
-        <v>1653.774401948107</v>
+        <v>1607.2380750698</v>
       </c>
       <c r="F712">
-        <v>2032.643660788471</v>
+        <v>2020.137148625201</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -14703,13 +14793,13 @@
         <v>27</v>
       </c>
       <c r="D713">
-        <v>1877.378282842968</v>
+        <v>1850.903817727533</v>
       </c>
       <c r="E713">
-        <v>1676.716647104406</v>
+        <v>1632.126496533304</v>
       </c>
       <c r="F713">
-        <v>2078.039918581529</v>
+        <v>2069.681138921762</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -14723,13 +14813,13 @@
         <v>27</v>
       </c>
       <c r="D714">
-        <v>1841.544825197327</v>
+        <v>1821.701984316127</v>
       </c>
       <c r="E714">
-        <v>1628.909670860272</v>
+        <v>1589.626307388067</v>
       </c>
       <c r="F714">
-        <v>2054.179979534382</v>
+        <v>2053.777661244188</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -15163,13 +15253,13 @@
         <v>28</v>
       </c>
       <c r="D736">
-        <v>783.0481654800922</v>
+        <v>784.4235883950041</v>
       </c>
       <c r="E736">
-        <v>681.8253066980378</v>
+        <v>687.6079962644195</v>
       </c>
       <c r="F736">
-        <v>884.2710242621465</v>
+        <v>881.2391805255887</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -15183,13 +15273,13 @@
         <v>28</v>
       </c>
       <c r="D737">
-        <v>791.579023729659</v>
+        <v>788.9147841667982</v>
       </c>
       <c r="E737">
-        <v>675.277487667577</v>
+        <v>683.3088903450699</v>
       </c>
       <c r="F737">
-        <v>907.8805597917409</v>
+        <v>894.5206779885265</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -15203,13 +15293,13 @@
         <v>28</v>
       </c>
       <c r="D738">
-        <v>796.7017495767017</v>
+        <v>801.8368650571044</v>
       </c>
       <c r="E738">
-        <v>653.1626264514134</v>
+        <v>673.3878662785519</v>
       </c>
       <c r="F738">
-        <v>940.2408727019899</v>
+        <v>930.285863835657</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -15223,13 +15313,13 @@
         <v>28</v>
       </c>
       <c r="D739">
-        <v>813.4547833204003</v>
+        <v>809.9929402748187</v>
       </c>
       <c r="E739">
-        <v>654.8016599280108</v>
+        <v>669.9844626829665</v>
       </c>
       <c r="F739">
-        <v>972.1079067127898</v>
+        <v>950.0014178666709</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -15243,13 +15333,13 @@
         <v>28</v>
       </c>
       <c r="D740">
-        <v>813.6102161651226</v>
+        <v>820.835668356856</v>
       </c>
       <c r="E740">
-        <v>637.6791283083926</v>
+        <v>666.2161466972406</v>
       </c>
       <c r="F740">
-        <v>989.5413040218525</v>
+        <v>975.4551900164714</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -15263,13 +15353,13 @@
         <v>28</v>
       </c>
       <c r="D741">
-        <v>833.225978462536</v>
+        <v>830.1580726260828</v>
       </c>
       <c r="E741">
-        <v>643.217448444687</v>
+        <v>664.2764516437668</v>
       </c>
       <c r="F741">
-        <v>1023.234508480385</v>
+        <v>996.0396936083988</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -15283,13 +15373,13 @@
         <v>28</v>
       </c>
       <c r="D742">
-        <v>832.00072778855</v>
+        <v>840.3332761010327</v>
       </c>
       <c r="E742">
-        <v>628.7663281535979</v>
+        <v>662.7960313019707</v>
       </c>
       <c r="F742">
-        <v>1035.235127423502</v>
+        <v>1017.870520900095</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -15303,13 +15393,13 @@
         <v>28</v>
       </c>
       <c r="D743">
-        <v>852.0993088174494</v>
+        <v>850.0243718835345</v>
       </c>
       <c r="E743">
-        <v>636.1049423485771</v>
+        <v>662.1278122768404</v>
       </c>
       <c r="F743">
-        <v>1068.093675286322</v>
+        <v>1037.920931490229</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -15323,13 +15413,13 @@
         <v>28</v>
       </c>
       <c r="D744">
-        <v>851.0519561719811</v>
+        <v>859.9828188887811</v>
       </c>
       <c r="E744">
-        <v>623.9572434805214</v>
+        <v>661.9420681222188</v>
       </c>
       <c r="F744">
-        <v>1078.146668863441</v>
+        <v>1058.023569655344</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -15343,13 +15433,13 @@
         <v>28</v>
       </c>
       <c r="D745">
-        <v>870.6312586692936</v>
+        <v>869.7879926011997</v>
       </c>
       <c r="E745">
-        <v>632.0262343570613</v>
+        <v>662.2570841539231</v>
       </c>
       <c r="F745">
-        <v>1109.236282981526</v>
+        <v>1077.318901048476</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -18263,13 +18353,13 @@
         <v>33</v>
       </c>
       <c r="D891">
-        <v>2846.809375044032</v>
+        <v>2575.276382083917</v>
       </c>
       <c r="E891">
-        <v>2608.035340281461</v>
+        <v>2414.960834309086</v>
       </c>
       <c r="F891">
-        <v>3085.583409806603</v>
+        <v>2735.591929858747</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -18283,13 +18373,13 @@
         <v>33</v>
       </c>
       <c r="D892">
-        <v>2698.828655883309</v>
+        <v>2669.682022922984</v>
       </c>
       <c r="E892">
-        <v>2244.260554009734</v>
+        <v>2502.653360539859</v>
       </c>
       <c r="F892">
-        <v>3153.396757756885</v>
+        <v>2836.710685306108</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -18303,13 +18393,13 @@
         <v>33</v>
       </c>
       <c r="D893">
-        <v>2849.808666546373</v>
+        <v>2692.981321661869</v>
       </c>
       <c r="E893">
-        <v>2198.995131826701</v>
+        <v>2525.992933675246</v>
       </c>
       <c r="F893">
-        <v>3500.622201266045</v>
+        <v>2859.969709648492</v>
       </c>
     </row>
     <row r="894" spans="1:6">
@@ -18323,13 +18413,13 @@
         <v>33</v>
       </c>
       <c r="D894">
-        <v>2724.255476138332</v>
+        <v>2731.494696470156</v>
       </c>
       <c r="E894">
-        <v>1965.774706303149</v>
+        <v>2556.539958134927</v>
       </c>
       <c r="F894">
-        <v>3482.736245973515</v>
+        <v>2906.449434805384</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -18343,13 +18433,13 @@
         <v>33</v>
       </c>
       <c r="D895">
-        <v>2854.622763883706</v>
+        <v>2739.914752499498</v>
       </c>
       <c r="E895">
-        <v>1969.164056673484</v>
+        <v>2560.785189821576</v>
       </c>
       <c r="F895">
-        <v>3740.081471093929</v>
+        <v>2919.044315177421</v>
       </c>
     </row>
     <row r="896" spans="1:6">
@@ -18363,13 +18453,13 @@
         <v>33</v>
       </c>
       <c r="D896">
-        <v>2748.277680730689</v>
+        <v>2770.393029136572</v>
       </c>
       <c r="E896">
-        <v>1780.165306178717</v>
+        <v>2580.944080258331</v>
       </c>
       <c r="F896">
-        <v>3716.390055282661</v>
+        <v>2959.841978014813</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -18383,13 +18473,13 @@
         <v>33</v>
       </c>
       <c r="D897">
-        <v>2861.009832845555</v>
+        <v>2779.045119753068</v>
       </c>
       <c r="E897">
-        <v>1793.909421191435</v>
+        <v>2584.55233792571</v>
       </c>
       <c r="F897">
-        <v>3928.110244499676</v>
+        <v>2973.537901580426</v>
       </c>
     </row>
     <row r="898" spans="1:6">
@@ -18403,13 +18493,13 @@
         <v>33</v>
       </c>
       <c r="D898">
-        <v>2771.116900852369</v>
+        <v>2806.988388566317</v>
       </c>
       <c r="E898">
-        <v>1634.094506840308</v>
+        <v>2603.085330891433</v>
       </c>
       <c r="F898">
-        <v>3908.13929486443</v>
+        <v>3010.891446241201</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -18423,13 +18513,13 @@
         <v>33</v>
       </c>
       <c r="D899">
-        <v>2868.762709006265</v>
+        <v>2817.185185013177</v>
       </c>
       <c r="E899">
-        <v>1649.026280449637</v>
+        <v>2608.174712180443</v>
       </c>
       <c r="F899">
-        <v>4088.499137562892</v>
+        <v>3026.195657845911</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -18443,13 +18533,13 @@
         <v>33</v>
       </c>
       <c r="D900">
-        <v>2792.962707116014</v>
+        <v>2843.47233228166</v>
       </c>
       <c r="E900">
-        <v>1511.437279770382</v>
+        <v>2626.028364544314</v>
       </c>
       <c r="F900">
-        <v>4074.488134461646</v>
+        <v>3060.916300019006</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -22603,13 +22693,13 @@
         <v>40</v>
       </c>
       <c r="D1108">
-        <v>519.0510790359647</v>
+        <v>486.4112131966326</v>
       </c>
       <c r="E1108">
-        <v>471.4479564141927</v>
+        <v>438.4707456468761</v>
       </c>
       <c r="F1108">
-        <v>566.6542016577366</v>
+        <v>534.3516807463891</v>
       </c>
     </row>
     <row r="1109" spans="1:6">
@@ -22623,13 +22713,13 @@
         <v>40</v>
       </c>
       <c r="D1109">
-        <v>477.9811176648158</v>
+        <v>481.353488557023</v>
       </c>
       <c r="E1109">
-        <v>422.7403315405569</v>
+        <v>428.229375822516</v>
       </c>
       <c r="F1109">
-        <v>533.2219037890746</v>
+        <v>534.4776012915298</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -22643,13 +22733,13 @@
         <v>40</v>
       </c>
       <c r="D1110">
-        <v>488.4804312855521</v>
+        <v>481.7113104332084</v>
       </c>
       <c r="E1110">
-        <v>430.5935799171297</v>
+        <v>427.4289106937493</v>
       </c>
       <c r="F1110">
-        <v>546.3672826539745</v>
+        <v>535.9937101726676</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -22663,13 +22753,13 @@
         <v>40</v>
       </c>
       <c r="D1111">
-        <v>481.9224972258666</v>
+        <v>484.1482484024405</v>
       </c>
       <c r="E1111">
-        <v>423.0355625492733</v>
+        <v>428.2208514017914</v>
       </c>
       <c r="F1111">
-        <v>540.8094319024599</v>
+        <v>540.0756454030897</v>
       </c>
     </row>
     <row r="1112" spans="1:6">
@@ -22683,13 +22773,13 @@
         <v>40</v>
       </c>
       <c r="D1112">
-        <v>486.0186220474211</v>
+        <v>483.5070154358946</v>
       </c>
       <c r="E1112">
-        <v>426.7460977633883</v>
+        <v>427.5017330498173</v>
       </c>
       <c r="F1112">
-        <v>545.2911463314539</v>
+        <v>539.5122978219719</v>
       </c>
     </row>
     <row r="1113" spans="1:6">
@@ -22703,13 +22793,13 @@
         <v>40</v>
       </c>
       <c r="D1113">
-        <v>483.4601579944051</v>
+        <v>482.4221046413039</v>
       </c>
       <c r="E1113">
-        <v>424.0378811037805</v>
+        <v>425.9515343144449</v>
       </c>
       <c r="F1113">
-        <v>542.8824348850295</v>
+        <v>538.892674968163</v>
       </c>
     </row>
     <row r="1114" spans="1:6">
@@ -22723,13 +22813,13 @@
         <v>40</v>
       </c>
       <c r="D1114">
-        <v>485.0581899381902</v>
+        <v>482.9462770627725</v>
       </c>
       <c r="E1114">
-        <v>425.5775919073373</v>
+        <v>426.4758219285636</v>
       </c>
       <c r="F1114">
-        <v>544.5387879690431</v>
+        <v>539.4167321969815</v>
       </c>
     </row>
     <row r="1115" spans="1:6">
@@ -22743,13 +22833,13 @@
         <v>40</v>
       </c>
       <c r="D1115">
-        <v>484.0600496319595</v>
+        <v>483.3838235854599</v>
       </c>
       <c r="E1115">
-        <v>424.5567141219884</v>
+        <v>426.7987001605131</v>
       </c>
       <c r="F1115">
-        <v>543.5633851419306</v>
+        <v>539.9689470104069</v>
       </c>
     </row>
     <row r="1116" spans="1:6">
@@ -22763,13 +22853,13 @@
         <v>40</v>
       </c>
       <c r="D1116">
-        <v>484.6834940348057</v>
+        <v>483.0408921833485</v>
       </c>
       <c r="E1116">
-        <v>425.1712902480225</v>
+        <v>426.452191338873</v>
       </c>
       <c r="F1116">
-        <v>544.195697821589</v>
+        <v>539.6295930278241</v>
       </c>
     </row>
     <row r="1117" spans="1:6">
@@ -22783,13 +22873,13 @@
         <v>40</v>
       </c>
       <c r="D1117">
-        <v>484.2940869334053</v>
+        <v>482.8894731666962</v>
       </c>
       <c r="E1117">
-        <v>424.7784237008101</v>
+        <v>426.2763906056593</v>
       </c>
       <c r="F1117">
-        <v>543.8097501660004</v>
+        <v>539.502555727733</v>
       </c>
     </row>
     <row r="1118" spans="1:6">
@@ -25083,7 +25173,13 @@
         <v>44</v>
       </c>
       <c r="D1232">
-        <v>0</v>
+        <v>1157.495206558959</v>
+      </c>
+      <c r="E1232">
+        <v>1000.210426711535</v>
+      </c>
+      <c r="F1232">
+        <v>1314.779986406382</v>
       </c>
     </row>
     <row r="1233" spans="1:6">
@@ -25097,7 +25193,13 @@
         <v>44</v>
       </c>
       <c r="D1233">
-        <v>0</v>
+        <v>1124.677264861194</v>
+      </c>
+      <c r="E1233">
+        <v>952.1264167402815</v>
+      </c>
+      <c r="F1233">
+        <v>1297.228112982106</v>
       </c>
     </row>
     <row r="1234" spans="1:6">
@@ -25111,7 +25213,13 @@
         <v>44</v>
       </c>
       <c r="D1234">
-        <v>0</v>
+        <v>1135.459543308276</v>
+      </c>
+      <c r="E1234">
+        <v>925.0749925652997</v>
+      </c>
+      <c r="F1234">
+        <v>1345.844094051253</v>
       </c>
     </row>
     <row r="1235" spans="1:6">
@@ -25125,7 +25233,13 @@
         <v>44</v>
       </c>
       <c r="D1235">
-        <v>0</v>
+        <v>1121.915738120758</v>
+      </c>
+      <c r="E1235">
+        <v>891.4390707700597</v>
+      </c>
+      <c r="F1235">
+        <v>1352.392405471456</v>
       </c>
     </row>
     <row r="1236" spans="1:6">
@@ -25139,7 +25253,13 @@
         <v>44</v>
       </c>
       <c r="D1236">
-        <v>0</v>
+        <v>1121.89237704674</v>
+      </c>
+      <c r="E1236">
+        <v>866.5057343130786</v>
+      </c>
+      <c r="F1236">
+        <v>1377.2790197804</v>
       </c>
     </row>
     <row r="1237" spans="1:6">
@@ -25153,7 +25273,13 @@
         <v>44</v>
       </c>
       <c r="D1237">
-        <v>0</v>
+        <v>1114.302617386976</v>
+      </c>
+      <c r="E1237">
+        <v>839.1505194487946</v>
+      </c>
+      <c r="F1237">
+        <v>1389.454715325157</v>
       </c>
     </row>
     <row r="1238" spans="1:6">
@@ -25167,7 +25293,13 @@
         <v>44</v>
       </c>
       <c r="D1238">
-        <v>0</v>
+        <v>1110.895479798283</v>
+      </c>
+      <c r="E1238">
+        <v>815.3509969531067</v>
+      </c>
+      <c r="F1238">
+        <v>1406.43996264346</v>
       </c>
     </row>
     <row r="1239" spans="1:6">
@@ -25181,7 +25313,13 @@
         <v>44</v>
       </c>
       <c r="D1239">
-        <v>0</v>
+        <v>1105.124851570776</v>
+      </c>
+      <c r="E1239">
+        <v>791.131250580195</v>
+      </c>
+      <c r="F1239">
+        <v>1419.118452561356</v>
       </c>
     </row>
     <row r="1240" spans="1:6">
@@ -25195,7 +25333,13 @@
         <v>44</v>
       </c>
       <c r="D1240">
-        <v>0</v>
+        <v>1100.638106584811</v>
+      </c>
+      <c r="E1240">
+        <v>768.502095698527</v>
+      </c>
+      <c r="F1240">
+        <v>1432.774117471095</v>
       </c>
     </row>
     <row r="1241" spans="1:6">
@@ -25209,7 +25353,13 @@
         <v>44</v>
       </c>
       <c r="D1241">
-        <v>0</v>
+        <v>1095.403121812964</v>
+      </c>
+      <c r="E1241">
+        <v>746.0821598337851</v>
+      </c>
+      <c r="F1241">
+        <v>1444.724083792144</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -25643,13 +25793,13 @@
         <v>45</v>
       </c>
       <c r="D1263">
-        <v>2090.303255984334</v>
+        <v>2120.138869934105</v>
       </c>
       <c r="E1263">
-        <v>1889.441952705607</v>
+        <v>1865.626026285632</v>
       </c>
       <c r="F1263">
-        <v>2291.16455926306</v>
+        <v>2374.651713582577</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -25663,13 +25813,13 @@
         <v>45</v>
       </c>
       <c r="D1264">
-        <v>2086.33015238393</v>
+        <v>2076.041007838163</v>
       </c>
       <c r="E1264">
-        <v>1872.183443197008</v>
+        <v>1722.832840695445</v>
       </c>
       <c r="F1264">
-        <v>2300.476861570852</v>
+        <v>2429.249174980881</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -25683,13 +25833,13 @@
         <v>45</v>
       </c>
       <c r="D1265">
-        <v>2088.834501288492</v>
+        <v>2112.18602604234</v>
       </c>
       <c r="E1265">
-        <v>1825.030512534554</v>
+        <v>1677.347418207496</v>
       </c>
       <c r="F1265">
-        <v>2352.63849004243</v>
+        <v>2547.024633877183</v>
       </c>
     </row>
     <row r="1266" spans="1:6">
@@ -25703,13 +25853,13 @@
         <v>45</v>
       </c>
       <c r="D1266">
-        <v>2087.255946066538</v>
+        <v>2068.108223697416</v>
       </c>
       <c r="E1266">
-        <v>1803.781750284409</v>
+        <v>1569.475964217281</v>
       </c>
       <c r="F1266">
-        <v>2370.730141848668</v>
+        <v>2566.740483177551</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -25723,13 +25873,13 @@
         <v>45</v>
       </c>
       <c r="D1267">
-        <v>2088.250949831477</v>
+        <v>2104.259345152017</v>
       </c>
       <c r="E1267">
-        <v>1774.073359040848</v>
+        <v>1545.226538215549</v>
       </c>
       <c r="F1267">
-        <v>2402.428540622105</v>
+        <v>2663.292152088485</v>
       </c>
     </row>
     <row r="1268" spans="1:6">
@@ -25743,13 +25893,13 @@
         <v>45</v>
       </c>
       <c r="D1268">
-        <v>2087.623773487898</v>
+        <v>2060.201555200199</v>
       </c>
       <c r="E1268">
-        <v>1752.896564239149</v>
+        <v>1450.57827791441</v>
       </c>
       <c r="F1268">
-        <v>2422.350982736648</v>
+        <v>2669.824832485989</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -25763,13 +25913,13 @@
         <v>45</v>
       </c>
       <c r="D1269">
-        <v>2088.019098791987</v>
+        <v>2096.358735048317</v>
       </c>
       <c r="E1269">
-        <v>1729.626602321326</v>
+        <v>1436.751172607234</v>
       </c>
       <c r="F1269">
-        <v>2446.411595262648</v>
+        <v>2755.9662974894</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -25783,13 +25933,13 @@
         <v>45</v>
       </c>
       <c r="D1270">
-        <v>2087.769915133111</v>
+        <v>2052.320910294563</v>
       </c>
       <c r="E1270">
-        <v>1709.778965595284</v>
+        <v>1349.625120110349</v>
       </c>
       <c r="F1270">
-        <v>2465.760864670939</v>
+        <v>2755.016700478777</v>
       </c>
     </row>
     <row r="1271" spans="1:6">
@@ -25803,13 +25953,13 @@
         <v>45</v>
       </c>
       <c r="D1271">
-        <v>2087.926981972012</v>
+        <v>2088.484103841446</v>
       </c>
       <c r="E1271">
-        <v>1689.76024402676</v>
+        <v>1342.304434535762</v>
       </c>
       <c r="F1271">
-        <v>2486.093719917264</v>
+        <v>2834.66377314713</v>
       </c>
     </row>
     <row r="1272" spans="1:6">
@@ -25823,13 +25973,13 @@
         <v>45</v>
       </c>
       <c r="D1272">
-        <v>2087.827978722788</v>
+        <v>2044.466197253009</v>
       </c>
       <c r="E1272">
-        <v>1671.394660183872</v>
+        <v>1260.20685163232</v>
       </c>
       <c r="F1272">
-        <v>2504.261297261703</v>
+        <v>2828.725542873697</v>
       </c>
     </row>
     <row r="1273" spans="1:6">
@@ -27503,13 +27653,13 @@
         <v>48</v>
       </c>
       <c r="D1356">
-        <v>583.2082857108668</v>
+        <v>602.0035024689917</v>
       </c>
       <c r="E1356">
-        <v>514.6391411438444</v>
+        <v>528.6414014530383</v>
       </c>
       <c r="F1356">
-        <v>651.7774302778892</v>
+        <v>675.365603484945</v>
       </c>
     </row>
     <row r="1357" spans="1:6">
@@ -27523,13 +27673,13 @@
         <v>48</v>
       </c>
       <c r="D1357">
-        <v>624.6332931487939</v>
+        <v>606.5370575819865</v>
       </c>
       <c r="E1357">
-        <v>553.1997648413941</v>
+        <v>530.349469925239</v>
       </c>
       <c r="F1357">
-        <v>696.0668214561937</v>
+        <v>682.724645238734</v>
       </c>
     </row>
     <row r="1358" spans="1:6">
@@ -27543,13 +27693,13 @@
         <v>48</v>
       </c>
       <c r="D1358">
-        <v>600.1593997523632</v>
+        <v>608.2759560690982</v>
       </c>
       <c r="E1358">
-        <v>525.5635635777807</v>
+        <v>531.9539691723736</v>
       </c>
       <c r="F1358">
-        <v>674.7552359269458</v>
+        <v>684.5979429658229</v>
       </c>
     </row>
     <row r="1359" spans="1:6">
@@ -27563,13 +27713,13 @@
         <v>48</v>
       </c>
       <c r="D1359">
-        <v>615.5905019731297</v>
+        <v>608.1311985624878</v>
       </c>
       <c r="E1359">
-        <v>541.0377093847443</v>
+        <v>531.6914108407137</v>
       </c>
       <c r="F1359">
-        <v>690.1432945615151</v>
+        <v>684.5709862842619</v>
       </c>
     </row>
     <row r="1360" spans="1:6">
@@ -27583,13 +27733,13 @@
         <v>48</v>
       </c>
       <c r="D1360">
-        <v>604.2122983706549</v>
+        <v>607.8411731222152</v>
       </c>
       <c r="E1360">
-        <v>528.638832200349</v>
+        <v>531.3991902783035</v>
       </c>
       <c r="F1360">
-        <v>679.7857645409608</v>
+        <v>684.2831559661269</v>
       </c>
     </row>
     <row r="1361" spans="1:6">
@@ -27603,13 +27753,13 @@
         <v>48</v>
       </c>
       <c r="D1361">
-        <v>611.1094125040497</v>
+        <v>607.7780479724654</v>
       </c>
       <c r="E1361">
-        <v>535.5114695677712</v>
+        <v>531.3348094617409</v>
       </c>
       <c r="F1361">
-        <v>686.7073554403282</v>
+        <v>684.2212864831899</v>
       </c>
     </row>
     <row r="1362" spans="1:6">
@@ -27623,13 +27773,13 @@
         <v>48</v>
       </c>
       <c r="D1362">
-        <v>605.7730152443271</v>
+        <v>607.8012087454078</v>
       </c>
       <c r="E1362">
-        <v>529.8068379349611</v>
+        <v>531.3576837941214</v>
       </c>
       <c r="F1362">
-        <v>681.7391925536931</v>
+        <v>684.2447336966943</v>
       </c>
     </row>
     <row r="1363" spans="1:6">
@@ -27643,13 +27793,13 @@
         <v>48</v>
       </c>
       <c r="D1363">
-        <v>608.8136309945683</v>
+        <v>607.8169101290576</v>
       </c>
       <c r="E1363">
-        <v>532.8066764346177</v>
+        <v>531.373385149388</v>
       </c>
       <c r="F1363">
-        <v>684.8205855545189</v>
+        <v>684.2604351087273</v>
       </c>
     </row>
     <row r="1364" spans="1:6">
@@ -27663,13 +27813,13 @@
         <v>48</v>
       </c>
       <c r="D1364">
-        <v>606.2782345457176</v>
+        <v>607.8181403045744</v>
       </c>
       <c r="E1364">
-        <v>530.1259718473805</v>
+        <v>531.3746092514733</v>
       </c>
       <c r="F1364">
-        <v>682.4304972440548</v>
+        <v>684.2616713576755</v>
       </c>
     </row>
     <row r="1365" spans="1:6">
@@ -27683,13 +27833,13 @@
         <v>48</v>
       </c>
       <c r="D1365">
-        <v>607.5879842126367</v>
+        <v>607.8162545263025</v>
       </c>
       <c r="E1365">
-        <v>531.4030117394099</v>
+        <v>531.3727229999681</v>
       </c>
       <c r="F1365">
-        <v>683.7729566858635</v>
+        <v>684.2597860526369</v>
       </c>
     </row>
     <row r="1366" spans="1:6">
@@ -28743,13 +28893,13 @@
         <v>50</v>
       </c>
       <c r="D1418">
-        <v>1227.996443972967</v>
+        <v>1228.057315508075</v>
       </c>
       <c r="E1418">
-        <v>1116.032323204783</v>
+        <v>1120.118802499556</v>
       </c>
       <c r="F1418">
-        <v>1339.96056474115</v>
+        <v>1335.995828516593</v>
       </c>
     </row>
     <row r="1419" spans="1:6">
@@ -28763,13 +28913,13 @@
         <v>50</v>
       </c>
       <c r="D1419">
-        <v>1235.003150497789</v>
+        <v>1235.843190302595</v>
       </c>
       <c r="E1419">
-        <v>1114.361501054374</v>
+        <v>1117.6100656227</v>
       </c>
       <c r="F1419">
-        <v>1355.644799941205</v>
+        <v>1354.07631498249</v>
       </c>
     </row>
     <row r="1420" spans="1:6">
@@ -28783,13 +28933,13 @@
         <v>50</v>
       </c>
       <c r="D1420">
-        <v>1244.490142525488</v>
+        <v>1249.091827847118</v>
       </c>
       <c r="E1420">
-        <v>1115.335428001221</v>
+        <v>1125.789773066637</v>
       </c>
       <c r="F1420">
-        <v>1373.644857049756</v>
+        <v>1372.393882627599</v>
       </c>
     </row>
     <row r="1421" spans="1:6">
@@ -28803,13 +28953,13 @@
         <v>50</v>
       </c>
       <c r="D1421">
-        <v>1257.747096309967</v>
+        <v>1252.843128633719</v>
       </c>
       <c r="E1421">
-        <v>1119.933713984381</v>
+        <v>1117.504663964432</v>
       </c>
       <c r="F1421">
-        <v>1395.560478635552</v>
+        <v>1388.181593303007</v>
       </c>
     </row>
     <row r="1422" spans="1:6">
@@ -28823,13 +28973,13 @@
         <v>50</v>
       </c>
       <c r="D1422">
-        <v>1262.165893040406</v>
+        <v>1265.123583684385</v>
       </c>
       <c r="E1422">
-        <v>1112.312791697281</v>
+        <v>1124.732587838519</v>
       </c>
       <c r="F1422">
-        <v>1412.018994383532</v>
+        <v>1405.514579530251</v>
       </c>
     </row>
     <row r="1423" spans="1:6">
@@ -28843,13 +28993,13 @@
         <v>50</v>
       </c>
       <c r="D1423">
-        <v>1270.107569114288</v>
+        <v>1270.348930967913</v>
       </c>
       <c r="E1423">
-        <v>1111.652230424367</v>
+        <v>1120.429262378517</v>
       </c>
       <c r="F1423">
-        <v>1428.56290780421</v>
+        <v>1420.268599557309</v>
       </c>
     </row>
     <row r="1424" spans="1:6">
@@ -28863,13 +29013,13 @@
         <v>50</v>
       </c>
       <c r="D1424">
-        <v>1278.31944468326</v>
+        <v>1281.321451175811</v>
       </c>
       <c r="E1424">
-        <v>1111.614846564724</v>
+        <v>1126.111828001512</v>
       </c>
       <c r="F1424">
-        <v>1445.024042801797</v>
+        <v>1436.531074350111</v>
       </c>
     </row>
     <row r="1425" spans="1:6">
@@ -28883,13 +29033,13 @@
         <v>50</v>
       </c>
       <c r="D1425">
-        <v>1286.773696577404</v>
+        <v>1287.626367209587</v>
       </c>
       <c r="E1425">
-        <v>1112.091232063026</v>
+        <v>1124.478926864295</v>
       </c>
       <c r="F1425">
-        <v>1461.456161091783</v>
+        <v>1450.773807554879</v>
       </c>
     </row>
     <row r="1426" spans="1:6">
@@ -28903,13 +29053,13 @@
         <v>50</v>
       </c>
       <c r="D1426">
-        <v>1294.339234707343</v>
+        <v>1297.719827916961</v>
       </c>
       <c r="E1426">
-        <v>1111.734053068467</v>
+        <v>1129.232044111578</v>
       </c>
       <c r="F1426">
-        <v>1476.944416346219</v>
+        <v>1466.207611722344</v>
       </c>
     </row>
     <row r="1427" spans="1:6">
@@ -28923,13 +29073,13 @@
         <v>50</v>
       </c>
       <c r="D1427">
-        <v>1302.302737031918</v>
+        <v>1304.738618119259</v>
       </c>
       <c r="E1427">
-        <v>1112.326940077905</v>
+        <v>1129.345237795496</v>
       </c>
       <c r="F1427">
-        <v>1492.278533985931</v>
+        <v>1480.131998443022</v>
       </c>
     </row>
     <row r="1428" spans="1:6">
@@ -29363,13 +29513,13 @@
         <v>51</v>
       </c>
       <c r="D1449">
-        <v>2958.42104014096</v>
+        <v>3070.406399747475</v>
       </c>
       <c r="E1449">
-        <v>2769.533530202879</v>
+        <v>2861.814155969057</v>
       </c>
       <c r="F1449">
-        <v>3147.30855007904</v>
+        <v>3278.998643525893</v>
       </c>
     </row>
     <row r="1450" spans="1:6">
@@ -29383,13 +29533,13 @@
         <v>51</v>
       </c>
       <c r="D1450">
-        <v>3021.173094389059</v>
+        <v>3078.718686466927</v>
       </c>
       <c r="E1450">
-        <v>2799.835109711474</v>
+        <v>2845.77674905746</v>
       </c>
       <c r="F1450">
-        <v>3242.511079066644</v>
+        <v>3311.660623876395</v>
       </c>
     </row>
     <row r="1451" spans="1:6">
@@ -29403,13 +29553,13 @@
         <v>51</v>
       </c>
       <c r="D1451">
-        <v>2977.475310995551</v>
+        <v>3126.380047756957</v>
       </c>
       <c r="E1451">
-        <v>2684.059428011529</v>
+        <v>2818.170802499092</v>
       </c>
       <c r="F1451">
-        <v>3270.891193979573</v>
+        <v>3434.589293014822</v>
       </c>
     </row>
     <row r="1452" spans="1:6">
@@ -29423,13 +29573,13 @@
         <v>51</v>
       </c>
       <c r="D1452">
-        <v>2978.93619703247</v>
+        <v>3145.377560144625</v>
       </c>
       <c r="E1452">
-        <v>2656.999246572389</v>
+        <v>2798.78974219887</v>
       </c>
       <c r="F1452">
-        <v>3300.873147492551</v>
+        <v>3491.96537809038</v>
       </c>
     </row>
     <row r="1453" spans="1:6">
@@ -29443,13 +29593,13 @@
         <v>51</v>
       </c>
       <c r="D1453">
-        <v>3013.935297748947</v>
+        <v>3182.521712343068</v>
       </c>
       <c r="E1453">
-        <v>2661.933437872664</v>
+        <v>2776.661782932078</v>
       </c>
       <c r="F1453">
-        <v>3365.93715762523</v>
+        <v>3588.381641754057</v>
       </c>
     </row>
     <row r="1454" spans="1:6">
@@ -29463,13 +29613,13 @@
         <v>51</v>
       </c>
       <c r="D1454">
-        <v>2969.190040605601</v>
+        <v>3205.722481712401</v>
       </c>
       <c r="E1454">
-        <v>2573.407033478031</v>
+        <v>2754.666134481212</v>
       </c>
       <c r="F1454">
-        <v>3364.973047733171</v>
+        <v>3656.778828943589</v>
       </c>
     </row>
     <row r="1455" spans="1:6">
@@ -29483,13 +29633,13 @@
         <v>51</v>
       </c>
       <c r="D1455">
-        <v>2995.335142490506</v>
+        <v>3237.091349052255</v>
       </c>
       <c r="E1455">
-        <v>2580.404639832115</v>
+        <v>2731.95756876225</v>
       </c>
       <c r="F1455">
-        <v>3410.265645148897</v>
+        <v>3742.22512934226</v>
       </c>
     </row>
     <row r="1456" spans="1:6">
@@ -29503,13 +29653,13 @@
         <v>51</v>
       </c>
       <c r="D1456">
-        <v>3000.526800697804</v>
+        <v>3261.500955182871</v>
       </c>
       <c r="E1456">
-        <v>2555.069296957777</v>
+        <v>2708.09659499092</v>
       </c>
       <c r="F1456">
-        <v>3445.984304437831</v>
+        <v>3814.905315374822</v>
       </c>
     </row>
     <row r="1457" spans="1:6">
@@ -29523,13 +29673,13 @@
         <v>51</v>
       </c>
       <c r="D1457">
-        <v>2972.044727675947</v>
+        <v>3289.404888981313</v>
       </c>
       <c r="E1457">
-        <v>2497.679310671516</v>
+        <v>2683.9341082308</v>
       </c>
       <c r="F1457">
-        <v>3446.410144680379</v>
+        <v>3894.875669731827</v>
       </c>
     </row>
     <row r="1458" spans="1:6">
@@ -29543,13 +29693,13 @@
         <v>51</v>
       </c>
       <c r="D1458">
-        <v>3003.082575106278</v>
+        <v>3313.680468796711</v>
       </c>
       <c r="E1458">
-        <v>2511.131430966113</v>
+        <v>2658.674423508524</v>
       </c>
       <c r="F1458">
-        <v>3495.033719246443</v>
+        <v>3968.686514084898</v>
       </c>
     </row>
     <row r="1459" spans="1:6">
@@ -29983,13 +30133,13 @@
         <v>52</v>
       </c>
       <c r="D1480">
-        <v>929.1691817283336</v>
+        <v>929.8825814121135</v>
       </c>
       <c r="E1480">
-        <v>872.6346841212379</v>
+        <v>871.0719098470785</v>
       </c>
       <c r="F1480">
-        <v>985.7036793354292</v>
+        <v>988.6932529771485</v>
       </c>
     </row>
     <row r="1481" spans="1:6">
@@ -30003,13 +30153,13 @@
         <v>52</v>
       </c>
       <c r="D1481">
-        <v>882.6336677782332</v>
+        <v>890.7844196888756</v>
       </c>
       <c r="E1481">
-        <v>808.7418200910445</v>
+        <v>820.9223624169471</v>
       </c>
       <c r="F1481">
-        <v>956.5255154654219</v>
+        <v>960.6464769608041</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -30023,13 +30173,13 @@
         <v>52</v>
       </c>
       <c r="D1482">
-        <v>953.5661675613017</v>
+        <v>927.9084887284959</v>
       </c>
       <c r="E1482">
-        <v>863.6873438586018</v>
+        <v>839.6538723135462</v>
       </c>
       <c r="F1482">
-        <v>1043.444991264001</v>
+        <v>1016.163105143445</v>
       </c>
     </row>
     <row r="1483" spans="1:6">
@@ -30043,13 +30193,13 @@
         <v>52</v>
       </c>
       <c r="D1483">
-        <v>906.981894259629</v>
+        <v>895.087467518879</v>
       </c>
       <c r="E1483">
-        <v>808.7835211266438</v>
+        <v>798.4856617328539</v>
       </c>
       <c r="F1483">
-        <v>1005.180267392614</v>
+        <v>991.689273304904</v>
       </c>
     </row>
     <row r="1484" spans="1:6">
@@ -30063,13 +30213,13 @@
         <v>52</v>
       </c>
       <c r="D1484">
-        <v>953.2917994908474</v>
+        <v>926.5397971760391</v>
       </c>
       <c r="E1484">
-        <v>825.9454830521045</v>
+        <v>816.5351484938777</v>
       </c>
       <c r="F1484">
-        <v>1080.63811592959</v>
+        <v>1036.5444458582</v>
       </c>
     </row>
     <row r="1485" spans="1:6">
@@ -30083,13 +30233,13 @@
         <v>52</v>
       </c>
       <c r="D1485">
-        <v>906.8069313723074</v>
+        <v>898.9238775223041</v>
       </c>
       <c r="E1485">
-        <v>757.5505476984113</v>
+        <v>781.775315721824</v>
       </c>
       <c r="F1485">
-        <v>1056.063315046204</v>
+        <v>1016.072439322784</v>
       </c>
     </row>
     <row r="1486" spans="1:6">
@@ -30103,13 +30253,13 @@
         <v>52</v>
       </c>
       <c r="D1486">
-        <v>968.6957399251579</v>
+        <v>925.5964220055085</v>
       </c>
       <c r="E1486">
-        <v>794.7247036040376</v>
+        <v>797.6108836894565</v>
       </c>
       <c r="F1486">
-        <v>1142.666776246278</v>
+        <v>1053.581960321561</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -30123,13 +30273,13 @@
         <v>52</v>
       </c>
       <c r="D1487">
-        <v>928.7598271557101</v>
+        <v>902.3761335658203</v>
       </c>
       <c r="E1487">
-        <v>739.1750709107106</v>
+        <v>767.9492695661161</v>
       </c>
       <c r="F1487">
-        <v>1118.34458340071</v>
+        <v>1036.802997565524</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -30143,13 +30293,13 @@
         <v>52</v>
       </c>
       <c r="D1488">
-        <v>976.7239233275129</v>
+        <v>925.0117027537563</v>
       </c>
       <c r="E1488">
-        <v>759.3630371831169</v>
+        <v>781.3714522976959</v>
       </c>
       <c r="F1488">
-        <v>1194.084809471909</v>
+        <v>1068.651953209817</v>
       </c>
     </row>
     <row r="1489" spans="1:6">
@@ -30163,13 +30313,13 @@
         <v>52</v>
       </c>
       <c r="D1489">
-        <v>933.9529798604257</v>
+        <v>905.5044797642125</v>
       </c>
       <c r="E1489">
-        <v>693.0127244137377</v>
+        <v>755.9056393153164</v>
       </c>
       <c r="F1489">
-        <v>1174.893235307114</v>
+        <v>1055.103320213109</v>
       </c>
     </row>
     <row r="1490" spans="1:6">
